--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="3" activeTab="16"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -14,28 +14,30 @@
     <sheet name="E" sheetId="10" r:id="rId5"/>
     <sheet name="F" sheetId="13" r:id="rId6"/>
     <sheet name="H" sheetId="4" r:id="rId7"/>
-    <sheet name="L" sheetId="17" r:id="rId8"/>
-    <sheet name="M" sheetId="15" r:id="rId9"/>
-    <sheet name="O" sheetId="18" r:id="rId10"/>
-    <sheet name="P" sheetId="9" r:id="rId11"/>
-    <sheet name="R" sheetId="14" r:id="rId12"/>
-    <sheet name="S" sheetId="3" r:id="rId13"/>
-    <sheet name="T" sheetId="16" r:id="rId14"/>
-    <sheet name="U" sheetId="6" r:id="rId15"/>
-    <sheet name="W" sheetId="12" r:id="rId16"/>
-    <sheet name="X" sheetId="19" r:id="rId17"/>
+    <sheet name="I" sheetId="20" r:id="rId8"/>
+    <sheet name="L" sheetId="17" r:id="rId9"/>
+    <sheet name="M" sheetId="15" r:id="rId10"/>
+    <sheet name="N" sheetId="21" r:id="rId11"/>
+    <sheet name="O" sheetId="18" r:id="rId12"/>
+    <sheet name="P" sheetId="9" r:id="rId13"/>
+    <sheet name="R" sheetId="14" r:id="rId14"/>
+    <sheet name="S" sheetId="3" r:id="rId15"/>
+    <sheet name="T" sheetId="16" r:id="rId16"/>
+    <sheet name="U" sheetId="6" r:id="rId17"/>
+    <sheet name="W" sheetId="12" r:id="rId18"/>
+    <sheet name="X" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
   <si>
     <t>Synonyms</t>
   </si>
   <si>
-    <t>New World</t>
+    <t>New Word</t>
   </si>
   <si>
     <t>Definition</t>
@@ -45,6 +47,37 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>acquit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+~ sb (of sth) to decide and state officially in court that sb is not guilty of a crime 宣判…无罪</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The jury </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>acquitted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> him of murder. 陪审团裁决他谋杀罪不成立</t>
+    </r>
   </si>
   <si>
     <t>下车,get off</t>
@@ -137,6 +170,40 @@
     </r>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>An assay is an investigative (analytic) procedure in laboratory medicine, mining, pharmacology, environmental biology and molecular biology for qualitatively assessing or quantitatively measuring the presence, amount, or functional activity of a target entity (the analyte).（金属、化学物质量的）鉴定，试验，测定</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>assay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is a process of analyzing a substance to determine its composition or quality.</t>
+    </r>
+  </si>
+  <si>
     <t>注定要遭受</t>
   </si>
   <si>
@@ -159,6 +226,70 @@
 </t>
   </si>
   <si>
+    <t>bodyguard</t>
+  </si>
+  <si>
+    <t>bouncer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+a person employed to stand at the entrance to a club, pub, etc. to stop people who are not wanted from going in, and to throw out people who are causing trouble inside （俱乐部、酒店等的）门卫，保安</t>
+  </si>
+  <si>
+    <t>捐助；插嘴；下赌注</t>
+  </si>
+  <si>
+    <t>chip in</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.They </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chip in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for the petrol.
+他们凑钱买煤气
+2.The old man would </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chip in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> while we were speaking.
+我们在谈话时，那老头儿总要插嘴</t>
+    </r>
+  </si>
+  <si>
     <t>花栗鼠</t>
   </si>
   <si>
@@ -281,6 +412,15 @@
     <t>days of yore</t>
   </si>
   <si>
+    <t>defund</t>
+  </si>
+  <si>
+    <t>prevent from continuing to receive funds.撤资</t>
+  </si>
+  <si>
+    <t>"Defund the police" is a slogan that supports divesting funds from police departments and reallocating them to non-policing forms of public safety and community support</t>
+  </si>
+  <si>
     <t>干燥剂；减湿器</t>
   </si>
   <si>
@@ -288,6 +428,99 @@
   </si>
   <si>
     <t>A dehumidifier is a machine that is used to reduce the amount of moisture in the air</t>
+  </si>
+  <si>
+    <t>luxuriously</t>
+  </si>
+  <si>
+    <t>deluxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luxurious or sumptuous; of a superior kind.
+adj. 高级的；豪华的，奢华的
+adv. 豪华地
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A beautiful new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>deluxe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> cabana is now available for those looking for higher quality accommodations.</t>
+    </r>
+  </si>
+  <si>
+    <t>deposition</t>
+  </si>
+  <si>
+    <t>1.( technical 术语 ) the natural process of leaving a layer of a substance on rocks or soil; a substance left in this way 沉积/沉淀（物）
+2.the act of removing sb, especially a ruler, from power 罢免；废黜
+3.( law 律 ) a formal statement, taken from sb and used in court 证人陈述</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> His attorneys took </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>depositions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from the witnesses.</t>
+    </r>
+  </si>
+  <si>
+    <t>de rigueur</t>
+  </si>
+  <si>
+    <t>prescribed or required by fashion, etiquette, or custom
+礼节需要的；社交礼仪上必要的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Though he was wearing a dinner jacket and a black bow tie, his jeans and tennis shoes were hardly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>de rigueur</t>
+    </r>
   </si>
   <si>
     <t>突访；袭上</t>
@@ -301,8 +534,50 @@
 </t>
   </si>
   <si>
-    <t>1.Crowds of tourists descended on the tiny church.
-2.Waves of sadness descended on him.</t>
+    <r>
+      <t xml:space="preserve">1.Crowds of tourists </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>descended on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the tiny church.
+2.Waves of sadness </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>descended on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> him.</t>
+    </r>
   </si>
   <si>
     <t>don't agree</t>
@@ -315,7 +590,29 @@
  (formal ) to have or express opinions that are different from those that are officially accepted （对官方意见）不同意，持异议</t>
   </si>
   <si>
-    <t>Only two ministers dissented from the official view. 只有两位部长与官方持不同的观点</t>
+    <r>
+      <t xml:space="preserve">Only two ministers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dissented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from the official view. 只有两位部长与官方持不同的观点</t>
+    </r>
   </si>
   <si>
     <t>get rid of</t>
@@ -327,8 +624,50 @@
     <t>to get rid of something or someone that is no longer wanted:</t>
   </si>
   <si>
-    <t>1.Did you know that Sarah ditched (= ended her relationship with) her boyfriend last week?
-2.It's time to ditch this old, torn sweater.</t>
+    <r>
+      <t xml:space="preserve">1.Did you know that Sarah </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ditched</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (= ended her relationship with) her boyfriend last week?
+2.It's time to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ditch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this old, torn sweater.</t>
+    </r>
   </si>
   <si>
     <t>轻描淡写</t>
@@ -340,7 +679,29 @@
     <t>make (something) appear less important than it really is.</t>
   </si>
   <si>
-    <t>Australian Police are Downplaying their Suicide Problem</t>
+    <r>
+      <t xml:space="preserve">Australian Police are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Downplaying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>their Suicide Problem</t>
+    </r>
   </si>
   <si>
     <t>日本毛豆</t>
@@ -466,17 +827,93 @@
     </r>
   </si>
   <si>
+    <t>fare</t>
+  </si>
+  <si>
+    <t>1.the money that you pay to travel by bus, plane, taxi, etc. 车费；船费；飞机票价
+例：bus/taxi fares 公共汽车费；出租汽车费
+例：train/rail fares 火车票价
+2.(尤指某种类型的）食品；供大众使用的东西</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Middle Eastern </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fare</t>
+    </r>
+  </si>
+  <si>
     <t>anger；对….十分恼火</t>
   </si>
   <si>
     <t>fume</t>
   </si>
   <si>
-    <t xml:space="preserve">1.feel, show, or express great anger.‘We simply cannot have this’, she fumed"
+    <t xml:space="preserve">1.feel, show, or express great anger.
 </t>
   </si>
   <si>
-    <t>Number</t>
+    <r>
+      <t xml:space="preserve">‘We simply cannot have this’, she </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fumed</t>
+    </r>
+  </si>
+  <si>
+    <t>haggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (with sb) (over sth) to argue with sb in order to reach an agreement, especially about the price of sth 争论；（尤指）讲价</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I left him in the market </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>haggling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> over the price of a shirt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我扔下他自己在市场上就一件衬衫讨价还价</t>
+    </r>
   </si>
   <si>
     <t>快速行进; 赶快做</t>
@@ -538,7 +975,213 @@
     </r>
   </si>
   <si>
-    <t>If you overslept, you'll have to hustle out of the house to get to work on time</t>
+    <r>
+      <t xml:space="preserve">1.If you overslept, you'll have to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hustle out of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the house to get to work on time.
+2.Let's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hustle out of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> here.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>让我们赶快离开这里吧</t>
+    </r>
+  </si>
+  <si>
+    <t>impediment</t>
+  </si>
+  <si>
+    <t>1.~ (to sth) something that delays or stops the progress of sth SYN obstacle 妨碍；阻碍；障碍
+2.a physical problem that makes it difficult to speak normally 口吃；结巴</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.The level of inflation is a serious </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>impediment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to economic recovery. 通货膨胀是影响经济复苏的严重障碍。
+2.a speech </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>impediment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 言语障碍</t>
+    </r>
+  </si>
+  <si>
+    <t>inauspicious</t>
+  </si>
+  <si>
+    <t>( formal ) showing signs that the future will not be good or successful 预示前景黯淡的；不祥的；不吉利的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The meeting got off to an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>inauspicious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> start when he was late.
+他迟到了，此次会议一开始就不顺</t>
+    </r>
+  </si>
+  <si>
+    <t>iodine</t>
+  </si>
+  <si>
+    <t>碘酒</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Iodine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is a substance found in sea water. 
+2.Whenever I taste Ardmore, I always think </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iodine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is the most prevalent taste</t>
+    </r>
+  </si>
+  <si>
+    <t>lieutenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+an officer of middle rank in the army, navy, or air force （陆军）中尉；（海军或空军）上尉中尉；副官</t>
+  </si>
+  <si>
+    <r>
+      <t>Lieutenant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Paul Fisher 保罗•费希尔陆军中尉</t>
+    </r>
   </si>
   <si>
     <t>be bad at;不擅长做某事</t>
@@ -625,6 +1268,36 @@
     </r>
   </si>
   <si>
+    <t>nibble</t>
+  </si>
+  <si>
+    <t>~ (at sth) to take small bites of sth, especially food 小口咬，一点点地咬（食物）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We sat drinking wine and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nibbling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> olives. 我们坐在那儿，喝着葡萄酒嚼着橄榄</t>
+    </r>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
@@ -656,19 +1329,40 @@
     </r>
   </si>
   <si>
+    <t>ovation</t>
+  </si>
+  <si>
+    <t>enthusiastic clapping by an audience as a sign of their approval 热烈鼓掌；热烈欢迎</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The soloist got a ten-minute standing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ovation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (= in which people stand up from their seats) . 独奏演员受到了长达十分钟的起立鼓掌欢呼。</t>
+    </r>
+  </si>
+  <si>
     <t>pathogens</t>
   </si>
   <si>
     <t>A pathogen is any organism that can cause disease in a person, animal, or plant. 病原体</t>
-  </si>
-  <si>
-    <t>加赛</t>
-  </si>
-  <si>
-    <t>play off</t>
-  </si>
-  <si>
-    <t>(of two teams or competitors) play an extra match to decide a draw or tie.</t>
   </si>
   <si>
     <t>泥煤</t>
@@ -743,10 +1437,212 @@
     <t>a native or inhabitant of ancient or modern Persia (or Iran), or a person of Persian descent.</t>
   </si>
   <si>
-    <t>瘟疫(尤指鼠疫)</t>
+    <t>瘟疫(尤指鼠疫);有害的事情</t>
   </si>
   <si>
     <t>pestilence</t>
+  </si>
+  <si>
+    <t>a fatal epidemic disease, especially bubonic plague</t>
+  </si>
+  <si>
+    <t>pray for</t>
+  </si>
+  <si>
+    <t>petition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+~ (against/for sth) a written document signed by a large number of people that asks sb in a position of authority to do or change sth 请愿书</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The workers are getting up (= starting) a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>petition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for tighter safety standards. 工人正发起请愿，要求提高安全标准。</t>
+    </r>
+  </si>
+  <si>
+    <t>加赛</t>
+  </si>
+  <si>
+    <t>play off</t>
+  </si>
+  <si>
+    <t>(of two teams or competitors) play an extra match to decide a draw or tie.</t>
+  </si>
+  <si>
+    <t>pneumonia</t>
+  </si>
+  <si>
+    <t>肺炎</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She nearly died of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pneumonia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+她差点死于肺炎。</t>
+    </r>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>porcelain</t>
+  </si>
+  <si>
+    <t>a hard white shiny substance made by baking clay and used for making delicate cups, plates and decorative objects; objects that are made of this 瓷；瓷器</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hojicha is distinctive from other Japanese green teas because it is roasted in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>porcelain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> pot over charcoal.</t>
+    </r>
+  </si>
+  <si>
+    <t>portentous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.( literary ) important as a sign or a warning of sth that is going to happen in the future, especially when it is sth unpleasant 预示（坏事）的；先兆的
+2.( formal , disapproving ) very serious and intended to impress people 煞有介事的；装腔作势的；装模作样的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>portentous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> sign 不祥的征兆
+2.A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>portentous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> remark 装腔作势的言论</t>
+    </r>
+  </si>
+  <si>
+    <t>purchasing</t>
+  </si>
+  <si>
+    <t>procurement</t>
+  </si>
+  <si>
+    <t>( formal ) the process of obtaining supplies of sth, especially for a government or an organization （尤指为政府或机构）采购，购买</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The court also ruled that the labor commissioner could sever unlawful acts from an agreement or completely void a manager-talent contract for unlicensed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>procurement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <t>To succeed in doing something, 做成某件(难得)事情</t>
@@ -795,13 +1691,205 @@
     </r>
   </si>
   <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>1.a wooden or metal bar placed around sth as a barrier or to provide support 栏杆；扶手；围栏
+2. (at/against sth/sb) ( formal ) to complain about sth/sb in a very angry way 怒斥；责骂；抱怨</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.She leaned on the ship's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and gazed out to sea. 她靠着船上的护栏，凝望大海
+2.She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>railed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> against the injustice of it all. 她大骂此事太不公正</t>
+    </r>
+  </si>
+  <si>
+    <t>reindeer</t>
+  </si>
+  <si>
+    <t>驯鹿</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reindeer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> were hungry.</t>
+    </r>
+  </si>
+  <si>
     <t>流氓</t>
   </si>
   <si>
     <t>rogue</t>
   </si>
   <si>
-    <t>a dishonest or unprincipled man.</t>
+    <r>
+      <t xml:space="preserve">1.a dishonest or unprincipled man.
+2.( humorous ) a person who behaves badly, but in a harmless way </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无赖；捣蛋鬼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Mr. Ward wasn't a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at all.
+沃德先生根本不是个无赖
+2.He's a bit of a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, but very charming. 他好捣蛋，但却很讨人喜欢。</t>
+    </r>
+  </si>
+  <si>
+    <t>sparkling</t>
+  </si>
+  <si>
+    <t>scintillating</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">very clever, amusing and interesting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>才情洋溢的；妙趣横生的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scintillating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> performance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精彩的演出</t>
+    </r>
   </si>
   <si>
     <t>争夺，力争</t>
@@ -810,79 +1898,97 @@
     <t>scramble to</t>
   </si>
   <si>
-    <r>
-      <rPr>
+    <t xml:space="preserve">1.struggle or compete with others for something in an eager or uncontrolled and undignified way.
+2.to move or climb quickly but with difficulty, often using your hands to help you
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.China </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>1.struggle or compete with others for something in an eager or uncontrolled and undignified way.
-Eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t xml:space="preserve">scrambles to </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Firms scrambled to win public-sector contracts</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">contain coronavirus as death toll climbs
+2.Firms </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-2.to move or climb quickly but with difficulty, often using your hands to help you
-Eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t>scrambled to</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>He scrambled into his clothes (= put them on quickly) and raced to get help.</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> win public-sector contracts
+3.He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-Eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t xml:space="preserve">scrambled </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>As the burning plane landed, the terrified passengers scrambled for the door (= tried to reach the door quickly)</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">into his clothes (= put them on quickly) and raced to get help.
+4.As the burning plane landed, the terrified passengers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>China scrambles to contain coronavirus as death toll climbs</t>
+      <t xml:space="preserve">scrambled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>for the door (= tried to reach the door quickly).</t>
+    </r>
   </si>
   <si>
     <t>陛下；繁殖</t>
@@ -903,14 +2009,106 @@
     <t>a person with an exaggerated respect for high social position or wealth who seeks to associate with social superiors and looks down on those regarded as socially inferior.</t>
   </si>
   <si>
-    <t>Her mother was a snob and wanted a lawyer as a son-in-law"</t>
-  </si>
-  <si>
-    <t>strain/not finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.a particular breed, stock, or variety of an animal or plant.
-</t>
+    <r>
+      <t xml:space="preserve">Her mother was a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>snob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and wanted a lawyer as a son-in-law"</t>
+    </r>
+  </si>
+  <si>
+    <t>tension;burden</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>1.a particular breed, stock, or variety of an animal or plant.（植物、动物的）品种；种类
+2.pressure on sb/sth because they have too much to do or manage, or sth very difficult to deal with; the problems, worry or anxiety that this produces 压力；重负；重压之下出现的问题（或担忧等）</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>strain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a muscle 拉伤肌肉
+2.Their marriage is under great </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>strain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at the moment. 眼下他们的婚姻关系非常紧张
+3.A resistant </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>strain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of virus 病毒抵抗株</t>
+    </r>
   </si>
   <si>
     <t>赃物；神气</t>
@@ -923,7 +2121,20 @@
 2.self-confidence and personal style as shown by one's appearance and demeanor</t>
   </si>
   <si>
-    <t>That girl's got swag</t>
+    <r>
+      <t xml:space="preserve">That girl's got </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>swag</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">adj. 望远镜的；[眼科] 远视的；套管式伸缩的；眼力好的；有先见之明的
@@ -933,8 +2144,85 @@
     <t>telescopic</t>
   </si>
   <si>
-    <t>...a sporting rifle fitted with a telescopic sight.
-...一部带望远镜瞄准器的运动步枪。</t>
+    <r>
+      <t xml:space="preserve">A sporting rifle fitted with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>telescopic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> sight.
+一部带望远镜瞄准器的运动步枪。</t>
+    </r>
+  </si>
+  <si>
+    <t>be in breach of</t>
+  </si>
+  <si>
+    <t>transgress</t>
+  </si>
+  <si>
+    <t>( formal ) to go beyond the limit of what is morally or legally acceptable 越轨；违背（道德）；违犯（法律）</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>transgress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> morality 违背道德
+2.At times, the legislative or executive branches may </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>transgress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the boundaries the people established in the Constitution.</t>
+    </r>
+  </si>
+  <si>
+    <t>New World</t>
   </si>
   <si>
     <t>裁判,referee</t>
@@ -1014,13 +2302,32 @@
     <t>funny or amusing in a slightly odd or peculiar way.</t>
   </si>
   <si>
-    <t>a wacky chase movie</t>
-  </si>
-  <si>
-    <t>嘀咕不停的；烦躁的</t>
-  </si>
-  <si>
-    <t>complaining</t>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wacky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> chase movie</t>
+    </r>
+  </si>
+  <si>
+    <t>complaining；嘀咕不停的；烦躁的</t>
   </si>
   <si>
     <t>whiney</t>
@@ -1052,6 +2359,26 @@
       </rPr>
       <t xml:space="preserve"> and exacting when they are exhausted.
 </t>
+    </r>
+  </si>
+  <si>
+    <t>whistleblower</t>
+  </si>
+  <si>
+    <t>告发者，检举者，吹哨者</t>
+  </si>
+  <si>
+    <r>
+      <t>Whistleblowers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> play an important role to identify and call out misconduct and breaches of the law, including the laws administered and enforced by ASIC. </t>
     </r>
   </si>
   <si>
@@ -1107,7 +2434,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1130,6 +2457,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Times Roman"/>
@@ -1139,13 +2481,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1168,7 +2503,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times Roman"/>
@@ -1335,10 +2669,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1371,12 +2726,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1674,152 +3035,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,148 +3195,178 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2296,63 +3687,90 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="53" customWidth="1"/>
-    <col min="2" max="2" width="27" style="12" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="12" customWidth="1"/>
-    <col min="4" max="4" width="47.7777777777778" style="53" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="64" customWidth="1"/>
+    <col min="2" max="2" width="27" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="41" customWidth="1"/>
+    <col min="4" max="4" width="47.7777777777778" style="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="36" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="E2"/>
+    </row>
+    <row r="3" ht="36" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="176" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="4" ht="176" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="141" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2364,45 +3782,175 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="33.2152777777778" customWidth="1"/>
+    <col min="2" max="2" width="21.1805555555556" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="37.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="53" spans="1:4">
+      <c r="A2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" ht="84" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="40.7361111111111" customWidth="1"/>
+    <col min="3" max="3" width="19.2083333333333" customWidth="1"/>
+    <col min="4" max="4" width="37.6111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="114" customHeight="1" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="31.3611111111111" customWidth="1"/>
     <col min="2" max="2" width="16.9652777777778" customWidth="1"/>
+    <col min="3" max="3" width="46.1944444444444" customWidth="1"/>
     <col min="4" max="4" width="44.0763888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>90</v>
+        <v>136</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" ht="53" spans="2:4">
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -2413,291 +3961,206 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="40.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.6666666666667" style="31" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" style="40" customWidth="1"/>
     <col min="3" max="3" width="22.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>92</v>
+        <v>141</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="71" spans="1:5">
-      <c r="A3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
-      <c r="A4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
-      <c r="A5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="18" spans="1:5">
-      <c r="A7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" ht="106" spans="1:5">
-      <c r="A8" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="14"/>
+    <row r="3" s="1" customFormat="1" ht="18" spans="1:5">
+      <c r="A3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="124" spans="1:5">
+      <c r="A7" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" ht="71" spans="1:5">
+      <c r="A8" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" ht="53" spans="1:5">
+      <c r="A9" s="18"/>
+      <c r="B9" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" ht="124" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" ht="212" spans="1:5">
+      <c r="A11" s="18"/>
+      <c r="B11" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" ht="141" spans="1:5">
+      <c r="A12" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" ht="106" spans="1:5">
+      <c r="A13" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="4" max="4" width="52.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="22" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="30.3333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="32.8333333333333" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="20" customFormat="1" ht="18" spans="1:6">
-      <c r="A1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="21" customFormat="1" ht="219" spans="1:5">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" s="21" customFormat="1" ht="68" spans="1:5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" s="21" customFormat="1" ht="84" spans="1:5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" ht="53" spans="3:4">
-      <c r="C5" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" ht="88" spans="2:5">
-      <c r="B6" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
+  <sortState ref="A1:E8">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2706,50 +4169,74 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="21.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="28.4236111111111" customWidth="1"/>
+    <col min="3" max="3" width="21.2777777777778" customWidth="1"/>
+    <col min="4" max="4" width="52.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="53" spans="2:5">
-      <c r="B2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>133</v>
+    <row r="2" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="92" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2759,6 +4246,195 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="32.8333333333333" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
+      <c r="A2" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" s="28" customFormat="1" ht="152" spans="1:4">
+      <c r="A3" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" s="28" customFormat="1" ht="68" spans="1:4">
+      <c r="A4" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" s="28" customFormat="1" ht="84" spans="1:4">
+      <c r="A5" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" ht="159" spans="1:4">
+      <c r="A6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" ht="88" spans="1:4">
+      <c r="A7" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="21.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="88" customHeight="1" spans="1:4">
+      <c r="A2" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" ht="71" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -2780,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2794,33 +4470,33 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>225</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,137 +4505,141 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="37.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.1666666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="42.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" ht="58" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" ht="53" spans="2:5">
-      <c r="B4" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="12"/>
+    <row r="2" ht="18" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" ht="58" customHeight="1" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" ht="121" customHeight="1" spans="1:4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" ht="53" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2967,13 +4647,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2989,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -3003,13 +4683,13 @@
     </row>
     <row r="2" ht="176" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3024,182 +4704,188 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1666666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28" style="6" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="6"/>
+    <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28" style="63" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="63" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" style="63" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="63" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="36" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="71" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" ht="94" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" ht="88" spans="1:5">
+      <c r="A4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3210,102 +4896,115 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="177" zoomScaleNormal="177" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.8125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.7569444444444" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.6666666666667" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="12"/>
+    <col min="1" max="1" width="19.8125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="15.7569444444444" style="17" customWidth="1"/>
+    <col min="3" max="3" width="24.6666666666667" style="41" customWidth="1"/>
+    <col min="4" max="4" width="22.6666666666667" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" s="52" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="52" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" s="52" customFormat="1" ht="71" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" s="62" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" s="52" customFormat="1" ht="124" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="71" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="71" spans="1:4">
-      <c r="A6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="B3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" s="62" customFormat="1" ht="71" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" s="62" customFormat="1" ht="124" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" ht="71" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="71" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3317,120 +5016,174 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8333333333333" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18" style="31" customWidth="1"/>
-    <col min="3" max="3" width="24.8333333333333" style="18" customWidth="1"/>
-    <col min="4" max="4" width="29" style="49" customWidth="1"/>
+    <col min="1" max="1" width="22.8333333333333" style="58" customWidth="1"/>
+    <col min="2" max="2" width="18" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.8333333333333" style="55" customWidth="1"/>
+    <col min="4" max="4" width="29" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="141" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="88" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="36" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="194" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="141" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="88" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" ht="36" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3443,79 +5196,79 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="163" zoomScaleNormal="163" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="46" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="28.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>57</v>
+      <c r="A2" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:3">
-      <c r="A3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>61</v>
+      <c r="A3" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="71" spans="1:4">
-      <c r="A4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>65</v>
+      <c r="A4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="212" spans="1:4">
-      <c r="A5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>69</v>
+      <c r="A5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3527,45 +5280,62 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="37.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.9930555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="53" spans="1:3">
-      <c r="A2" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>72</v>
+    <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" ht="36" spans="1:4">
+      <c r="A3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3577,54 +5347,63 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="24"/>
-    <col min="2" max="2" width="32.8333333333333" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9" style="24" customWidth="1"/>
-    <col min="4" max="4" width="40.6666666666667" style="24" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="24"/>
+    <col min="1" max="1" width="17.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9" style="30" customWidth="1"/>
+    <col min="3" max="3" width="40.6666666666667" style="30" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="36" spans="1:6">
-      <c r="A1" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" s="1" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="87" spans="2:5">
-      <c r="B2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>77</v>
+    <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" ht="92" customHeight="1" spans="1:4">
+      <c r="A3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3636,50 +5415,77 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="12"/>
-    <col min="2" max="2" width="30.8333333333333" style="12" customWidth="1"/>
-    <col min="3" max="3" width="34.3333333333333" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="10.8333333333333" style="12"/>
+    <col min="1" max="1" width="18.2847222222222" customWidth="1"/>
+    <col min="2" max="2" width="21.2916666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="63.75" customWidth="1"/>
+    <col min="4" max="4" width="39.6388888888889" customWidth="1"/>
+    <col min="5" max="5" width="17.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>79</v>
+    <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="53" spans="2:4">
+      <c r="B4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3689,61 +5495,55 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="33.2152777777778" customWidth="1"/>
-    <col min="2" max="2" width="21.1805555555556" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="37.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.8333333333333" style="17" customWidth="1"/>
+    <col min="2" max="2" width="34.3333333333333" style="48" customWidth="1"/>
+    <col min="3" max="3" width="48.0277777777778" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="53" spans="1:4">
-      <c r="A2" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" ht="84" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>87</v>
+    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A2" s="17"/>
+      <c r="B2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="1" activeTab="15"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -13,26 +13,28 @@
     <sheet name="D" sheetId="8" r:id="rId4"/>
     <sheet name="E" sheetId="10" r:id="rId5"/>
     <sheet name="F" sheetId="13" r:id="rId6"/>
-    <sheet name="H" sheetId="4" r:id="rId7"/>
-    <sheet name="I" sheetId="20" r:id="rId8"/>
-    <sheet name="L" sheetId="17" r:id="rId9"/>
-    <sheet name="M" sheetId="15" r:id="rId10"/>
-    <sheet name="N" sheetId="21" r:id="rId11"/>
-    <sheet name="O" sheetId="18" r:id="rId12"/>
-    <sheet name="P" sheetId="9" r:id="rId13"/>
-    <sheet name="R" sheetId="14" r:id="rId14"/>
-    <sheet name="S" sheetId="3" r:id="rId15"/>
-    <sheet name="T" sheetId="16" r:id="rId16"/>
-    <sheet name="U" sheetId="6" r:id="rId17"/>
-    <sheet name="W" sheetId="12" r:id="rId18"/>
-    <sheet name="X" sheetId="19" r:id="rId19"/>
+    <sheet name="G" sheetId="22" r:id="rId7"/>
+    <sheet name="H" sheetId="4" r:id="rId8"/>
+    <sheet name="I" sheetId="20" r:id="rId9"/>
+    <sheet name="L" sheetId="17" r:id="rId10"/>
+    <sheet name="M" sheetId="15" r:id="rId11"/>
+    <sheet name="N" sheetId="21" r:id="rId12"/>
+    <sheet name="O" sheetId="18" r:id="rId13"/>
+    <sheet name="P" sheetId="9" r:id="rId14"/>
+    <sheet name="Q" sheetId="23" r:id="rId15"/>
+    <sheet name="R" sheetId="14" r:id="rId16"/>
+    <sheet name="S" sheetId="3" r:id="rId17"/>
+    <sheet name="T" sheetId="16" r:id="rId18"/>
+    <sheet name="U" sheetId="6" r:id="rId19"/>
+    <sheet name="W" sheetId="12" r:id="rId20"/>
+    <sheet name="X" sheetId="19" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315">
   <si>
     <t>Synonyms</t>
   </si>
@@ -234,6 +236,34 @@
   <si>
     <t xml:space="preserve">
 a person employed to stand at the entrance to a club, pub, etc. to stop people who are not wanted from going in, and to throw out people who are causing trouble inside （俱乐部、酒店等的）门卫，保安</t>
+  </si>
+  <si>
+    <t>can not make ends meet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After the large income tax hike, many people suddenly found it difficult to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>make both ends meet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <t>捐助；插嘴；下赌注</t>
@@ -371,6 +401,12 @@
     </r>
   </si>
   <si>
+    <t>croquette</t>
+  </si>
+  <si>
+    <t>a small amount of mashed potato, fish, etc., shaped into a ball or tube, covered with breadcrumbs and fried （用土豆泥、鱼馅等裹以面包屑做成的）炸丸子，炸条块</t>
+  </si>
+  <si>
     <t>control</t>
   </si>
   <si>
@@ -418,7 +454,29 @@
     <t>prevent from continuing to receive funds.撤资</t>
   </si>
   <si>
-    <t>"Defund the police" is a slogan that supports divesting funds from police departments and reallocating them to non-policing forms of public safety and community support</t>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Defund</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the police" is a slogan that supports divesting funds from police departments and reallocating them to non-policing forms of public safety and community support</t>
+    </r>
   </si>
   <si>
     <t>干燥剂；减湿器</t>
@@ -467,6 +525,37 @@
     </r>
   </si>
   <si>
+    <t>deplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( NAmE ) to get off a plane 下飞机</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I will find my connecting flight soon after we </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>deplane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>deposition</t>
   </si>
   <si>
@@ -701,6 +790,37 @@
         <charset val="134"/>
       </rPr>
       <t>their Suicide Problem</t>
+    </r>
+  </si>
+  <si>
+    <t>eczema</t>
+  </si>
+  <si>
+    <t>a skin condition in which areas of skin become red, rough and sore 湿疹</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He has a simplistic view of the treatment of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eczema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+他对湿疹治疗所持观点过于简单化</t>
     </r>
   </si>
   <si>
@@ -876,6 +996,162 @@
     </r>
   </si>
   <si>
+    <t>stare</t>
+  </si>
+  <si>
+    <t>gaze</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to look steadily at sb/sth for a long time, either </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>because you are very interested or surprised, or because you are thinking of sth else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 凝视；注视；盯着</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gazed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at him in amazement. 她惊异地注视着他。
+He sat for hours just </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gazing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> into space . 他一连几个小时坐在那里茫然地看着前面。</t>
+    </r>
+  </si>
+  <si>
+    <t>go over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.(go over something) to check something carefully 仔细检查
+2.(go over something) to practise and repeat something in order to learn it
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Could you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this report and correct any mistakes?
+2.Sue’s going to help me </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> my lines for the play.</t>
+    </r>
+  </si>
+  <si>
+    <t>gravy</t>
+  </si>
+  <si>
+    <t>1.a brown sauce made by adding flour to the juices that come out of meat while it is cooking （调味）肉汁
+2.( NAmE ) ( informal ) something, especially money, that is obtained when you do not expect it 意外之财；飞来福</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They will even pour </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gravy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on your sandwiches if you let them.</t>
+    </r>
+  </si>
+  <si>
     <t>haggle</t>
   </si>
   <si>
@@ -1113,6 +1389,41 @@
     </r>
   </si>
   <si>
+    <t>energetic</t>
+  </si>
+  <si>
+    <t>invigorated</t>
+  </si>
+  <si>
+    <t>If something invigorates you, it makes you feel more energetic. 鼓舞; 增加活力
+adj. 精力充沛的；生气勃勃的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They felt refreshed and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>invigorated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> after the walk.
+散步之后他们感到精神焕发</t>
+    </r>
+  </si>
+  <si>
     <t>iodine</t>
   </si>
   <si>
@@ -1298,6 +1609,36 @@
     </r>
   </si>
   <si>
+    <t>numbing</t>
+  </si>
+  <si>
+    <t>( of an experience or a situation 经历或情形 ) making you unable to feel anything 令人麻木的；使人失去知觉的</t>
+  </si>
+  <si>
+    <r>
+      <t>It was another day of mind-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>numbing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tedium.</t>
+    </r>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
@@ -1359,6 +1700,100 @@
     </r>
   </si>
   <si>
+    <t>over-the-counter</t>
+  </si>
+  <si>
+    <t>( of drugs and medicines 药品 ) that can be obtained without a prescription (= a written order from a doctor) 无需处方可买到的；非处方的</t>
+  </si>
+  <si>
+    <r>
+      <t>panacea
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pænə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ə]</t>
+    </r>
+  </si>
+  <si>
+    <t>~ (for sth) something that will solve all the problems of a particular situation 万灵药；万能之计</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trade is not a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>panacea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for the world's economic or social ills.</t>
+    </r>
+  </si>
+  <si>
     <t>pathogens</t>
   </si>
   <si>
@@ -1481,6 +1916,27 @@
     </r>
   </si>
   <si>
+    <t>plaid
+ [plæd]</t>
+  </si>
+  <si>
+    <t>a type of thick cloth with a pattern of lines and squares of different colours and widths, especially a tartan pattern 格子呢；毛呢</t>
+  </si>
+  <si>
+    <r>
+      <t>Plaid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Flannel Shirt 格子法兰绒衬衫（程序员衣服）</t>
+    </r>
+  </si>
+  <si>
     <t>加赛</t>
   </si>
   <si>
@@ -1525,7 +1981,46 @@
     <t>China</t>
   </si>
   <si>
-    <t>porcelain</t>
+    <r>
+      <t>porcelain
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>səlɪn]</t>
+    </r>
   </si>
   <si>
     <t>a hard white shiny substance made by baking clay and used for making delicate cups, plates and decorative objects; objects that are made of this 瓷；瓷器</t>
@@ -1556,7 +2051,28 @@
     </r>
   </si>
   <si>
-    <t>portentous</t>
+    <r>
+      <t>portentous
+ [pɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ːˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tentəs]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1614,7 +2130,28 @@
     <t>purchasing</t>
   </si>
   <si>
-    <t>procurement</t>
+    <r>
+      <t>procurement
+  [prə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kjʊəmənt]</t>
+    </r>
   </si>
   <si>
     <t>( formal ) the process of obtaining supplies of sth, especially for a government or an organization （尤指为政府或机构）采购，购买</t>
@@ -1642,6 +2179,72 @@
         <charset val="134"/>
       </rPr>
       <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>prejudice</t>
+  </si>
+  <si>
+    <t>~ (against sb/sth) an unreasonable dislike of or preference for a person, group, custom, etc., especially when it is based on their race, religion, sex, etc. 偏见；成见</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Their decision was based on ignorance and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prejudice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 他们的决定是由于无知和偏见</t>
+    </r>
+  </si>
+  <si>
+    <t>psychic</t>
+  </si>
+  <si>
+    <t>1. connected with strange powers of the mind and not able to be explained by natural laws 关于通灵的；超自然的
+2.n. 灵媒；巫师</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How am I supposed to know—I'm not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>psychic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>! 我怎么会知道呢，我又没有特异功能！</t>
     </r>
   </si>
   <si>
@@ -1691,6 +2294,37 @@
     </r>
   </si>
   <si>
+    <t>quorum
+[ˈkwɔːrəm]</t>
+  </si>
+  <si>
+    <t>the smallest number of people who must be at a meeting before it can begin or decisions can be made （会议的）法定人数</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>quorum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is the minimum number of members of a deliberative assembly necessary to conduct the business of that group.</t>
+    </r>
+  </si>
+  <si>
     <t>rail</t>
   </si>
   <si>
@@ -1769,6 +2403,66 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> were hungry.</t>
+    </r>
+  </si>
+  <si>
+    <t>rarefaction</t>
+  </si>
+  <si>
+    <t>reduction in the density of something, especially air or a gas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bone </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rarefaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 骨质疏松</t>
+    </r>
+  </si>
+  <si>
+    <t>rhinitis</t>
+  </si>
+  <si>
+    <t>a condition in which the inside of the nose becomes swollen and sore, caused by an infection or an allergy 鼻炎（感染或过敏引起）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allergic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rhinitis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 过敏性鼻炎</t>
     </r>
   </si>
   <si>
@@ -1838,6 +2532,33 @@
     </r>
   </si>
   <si>
+    <t>roll one's eyes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Don't you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>roll your eyes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at me, young lady! You will finish your homework this instant, or you can kiss your weekend goodbye!</t>
+    </r>
+  </si>
+  <si>
     <t>sparkling</t>
   </si>
   <si>
@@ -1991,6 +2712,38 @@
     </r>
   </si>
   <si>
+    <t>seagull</t>
+  </si>
+  <si>
+    <t>n. 海鸥</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A solitary </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seagull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> winged its way across the bay.
+一只孤零零的海鸥飞过了海湾</t>
+    </r>
+  </si>
+  <si>
     <t>陛下；繁殖</t>
   </si>
   <si>
@@ -2031,6 +2784,62 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> and wanted a lawyer as a son-in-law"</t>
+    </r>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>solitary</t>
+  </si>
+  <si>
+    <t>1.[ usually before noun ] done alone; without other people 独自的；单独的
+2.( of a person or an animal 人或动物 ) enjoying being alone; frequently spending time alone 喜欢（或惯于）独处的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>solitary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> seagull winged its way across the bay.一只孤零零的海鸥飞过了海湾
+2.He was a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>solitary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> child. 他是一个孤僻的孩子</t>
     </r>
   </si>
   <si>
@@ -2111,6 +2920,12 @@
     </r>
   </si>
   <si>
+    <t>sunroof</t>
+  </si>
+  <si>
+    <t>（汽车顶上可开启的）遮阳篷顶，天窗</t>
+  </si>
+  <si>
     <t>赃物；神气</t>
   </si>
   <si>
@@ -2169,6 +2984,58 @@
     </r>
   </si>
   <si>
+    <t>testimony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. (to sth) a thing that shows that sth else exists or is true 证据；证明
+2.a formal written or spoken statement saying what you know to be true, usually in court 证词；证言；口供</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Can I refuse to give </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>testimony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">? 我能拒绝作证吗？
+2.expert </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>testimony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 专家证词；鉴定人证据；专家作证</t>
+    </r>
+  </si>
+  <si>
     <t>be in breach of</t>
   </si>
   <si>
@@ -2379,6 +3246,39 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> play an important role to identify and call out misconduct and breaches of the law, including the laws administered and enforced by ASIC. </t>
+    </r>
+  </si>
+  <si>
+    <t>whopper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.something that is very big for its type 特大的（或硕大的）东西
+2.one Burger King burger</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pete has caught a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>whopper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (= a large fish) . 皮特捕到了一条特大的鱼</t>
     </r>
   </si>
   <si>
@@ -2434,7 +3334,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2697,6 +3597,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -2709,6 +3621,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3300,6 +4220,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3309,12 +4232,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3326,6 +4243,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3697,7 +4617,7 @@
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="64" customWidth="1"/>
     <col min="2" max="2" width="27" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="41" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="42" customWidth="1"/>
     <col min="4" max="4" width="47.7777777777778" style="64" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3726,7 +4646,7 @@
       <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="50" t="s">
         <v>7</v>
       </c>
       <c r="E2"/>
@@ -3780,6 +4700,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="30.8333333333333" style="17" customWidth="1"/>
+    <col min="2" max="2" width="34.3333333333333" style="47" customWidth="1"/>
+    <col min="3" max="3" width="48.0277777777778" style="42" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="42" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A2" s="17"/>
+      <c r="B2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -3815,30 +4797,30 @@
     </row>
     <row r="2" ht="53" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>127</v>
+        <v>149</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="84" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3847,16 +4829,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="40.7361111111111" customWidth="1"/>
     <col min="3" max="3" width="19.2083333333333" customWidth="1"/>
@@ -3882,79 +4864,26 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="31.3611111111111" customWidth="1"/>
-    <col min="2" max="2" width="16.9652777777778" customWidth="1"/>
-    <col min="3" max="3" width="46.1944444444444" customWidth="1"/>
-    <col min="4" max="4" width="44.0763888888889" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="36" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" ht="53" spans="2:4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1"/>
-    <row r="9" ht="18" customHeight="1"/>
+        <v>159</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3964,16 +4893,88 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A5" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="25.3611111111111" customWidth="1"/>
+    <col min="3" max="3" width="46.1944444444444" customWidth="1"/>
+    <col min="4" max="4" width="44.0763888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="36" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" ht="53" spans="2:4">
+      <c r="B3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" ht="53" spans="2:3">
+      <c r="B4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1"/>
+    <row r="9" ht="18" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="40.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.6666666666667" style="40" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" style="41" customWidth="1"/>
     <col min="3" max="3" width="22.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="21.6666666666667" customWidth="1"/>
   </cols>
@@ -3995,167 +4996,219 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18" spans="1:5">
-      <c r="A3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
+      <c r="B2" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>148</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="71" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="124" spans="1:5">
+    <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A5" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>156</v>
+        <v>184</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>158</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" ht="71" spans="1:5">
+    <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A8" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>160</v>
+        <v>187</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>188</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="22"/>
+        <v>189</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" ht="53" spans="1:5">
+    <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A9" s="18"/>
-      <c r="B9" s="43" t="s">
-        <v>162</v>
+      <c r="B9" s="44" t="s">
+        <v>191</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>164</v>
+        <v>192</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" ht="124" spans="1:5">
+    <row r="10" ht="71" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>166</v>
+        <v>194</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>195</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>168</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D10" s="22"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" ht="212" spans="1:5">
+    <row r="11" ht="53" spans="1:5">
       <c r="A11" s="18"/>
-      <c r="B11" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>171</v>
+      <c r="B11" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>199</v>
       </c>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" ht="141" spans="1:5">
+    <row r="12" ht="124" spans="1:5">
       <c r="A12" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>173</v>
+        <v>200</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>201</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" ht="106" spans="1:5">
-      <c r="A13" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>179</v>
+    <row r="13" ht="212" spans="1:5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="E13" s="18"/>
+    </row>
+    <row r="14" ht="141" spans="1:5">
+      <c r="A14" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" ht="124" spans="1:5">
+      <c r="A15" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" ht="106" spans="1:5">
+      <c r="A16" s="18"/>
+      <c r="B16" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" ht="106" spans="1:5">
+      <c r="A17" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A1:E8">
@@ -4166,19 +5219,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="11.8263888888889" customWidth="1"/>
+    <col min="3" max="3" width="38.4652777777778" customWidth="1"/>
+    <col min="4" max="4" width="29.0902777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="71" spans="2:4">
+      <c r="B2" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="28.4236111111111" customWidth="1"/>
-    <col min="3" max="3" width="21.2777777777778" customWidth="1"/>
+    <col min="3" max="3" width="30.9722222222222" customWidth="1"/>
     <col min="4" max="4" width="52.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4202,41 +5305,75 @@
     <row r="2" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" ht="92" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>186</v>
-      </c>
+    <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
+      <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>188</v>
+        <v>231</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>189</v>
+        <v>233</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
+      <c r="A5"/>
+      <c r="B5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" ht="92" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" ht="36" spans="2:4">
+      <c r="B7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4245,16 +5382,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="25" style="11" customWidth="1"/>
@@ -4282,85 +5419,120 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
       <c r="A2" s="31" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" s="28" customFormat="1" ht="152" spans="1:4">
       <c r="A3" s="33" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" s="28" customFormat="1" ht="68" spans="1:4">
-      <c r="A4" s="33" t="s">
-        <v>198</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" s="28" customFormat="1" ht="51" spans="1:4">
+      <c r="A4" s="33"/>
       <c r="B4" s="33" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" s="28" customFormat="1" ht="84" spans="1:4">
+        <v>252</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" s="28" customFormat="1" ht="68" spans="1:4">
       <c r="A5" s="33" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" ht="159" spans="1:4">
-      <c r="A6" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" ht="88" spans="1:4">
-      <c r="A7" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>212</v>
+        <v>256</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" s="28" customFormat="1" ht="84" spans="1:4">
+      <c r="A6" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" s="28" customFormat="1" ht="101" spans="1:4">
+      <c r="A7" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" ht="159" spans="1:4">
+      <c r="A8" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="2:4">
+      <c r="B9" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" ht="88" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4369,16 +5541,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="153" zoomScaleNormal="153" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="21.8333333333333" customWidth="1"/>
@@ -4405,27 +5577,39 @@
     </row>
     <row r="2" ht="88" customHeight="1" spans="1:4">
       <c r="A2" s="23" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" ht="71" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>217</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" ht="171" customHeight="1" spans="1:4">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>219</v>
+        <v>279</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" ht="71" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +5618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -4456,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -4470,230 +5654,37 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="E2" s="22"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="E3" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="18" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" ht="58" customHeight="1" spans="1:4">
-      <c r="A3" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" ht="121" customHeight="1" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" ht="53" spans="1:4">
-      <c r="A5" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="17"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="17"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="17"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="17"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="17"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="17"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="17"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="21.4097222222222" customWidth="1"/>
-    <col min="2" max="2" width="21.9930555555556" customWidth="1"/>
-    <col min="3" max="3" width="23.2638888888889" customWidth="1"/>
-    <col min="4" max="4" width="28.3541666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="176" spans="2:4">
-      <c r="B2" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4747,7 +5738,7 @@
       <c r="D2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" ht="94" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
@@ -4759,8 +5750,8 @@
       <c r="C3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" ht="88" spans="1:5">
       <c r="A4" s="14" t="s">
@@ -4772,123 +5763,328 @@
       <c r="C4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="17"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="17"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="17"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="17"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="17"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="17"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="17"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="17"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="17"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="17"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="17"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="17"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="17"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="17"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="17"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="17"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" ht="58" customHeight="1" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" ht="121" customHeight="1" spans="1:4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" ht="121" customHeight="1" spans="1:4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" ht="53" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="17"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.4097222222222" customWidth="1"/>
+    <col min="2" max="2" width="21.9930555555556" customWidth="1"/>
+    <col min="3" max="3" width="23.2638888888889" customWidth="1"/>
+    <col min="4" max="4" width="28.3541666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="176" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4896,19 +6092,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.8125" style="14" customWidth="1"/>
     <col min="2" max="2" width="15.7569444444444" style="17" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="41" customWidth="1"/>
-    <col min="4" max="4" width="22.6666666666667" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="41"/>
+    <col min="3" max="3" width="24.6666666666667" style="42" customWidth="1"/>
+    <col min="4" max="4" width="22.6666666666667" style="42" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="42"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -4928,83 +6124,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="124" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="20" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="124" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" s="62" customFormat="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" s="62" customFormat="1" ht="71" spans="1:5">
+    <row r="4" s="62" customFormat="1" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" s="62" customFormat="1" ht="71" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" s="62" customFormat="1" ht="124" spans="1:5">
-      <c r="A5" s="2"/>
       <c r="B5" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" s="62" customFormat="1" ht="124" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" ht="71" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" ht="71" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="71" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="106" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="C8" s="12" t="s">
         <v>48</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="71" spans="1:4">
+      <c r="A9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5016,7 +6232,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -5025,7 +6241,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.8333333333333" style="58" customWidth="1"/>
-    <col min="2" max="2" width="18" style="40" customWidth="1"/>
+    <col min="2" max="2" width="18" style="41" customWidth="1"/>
     <col min="3" max="3" width="24.8333333333333" style="55" customWidth="1"/>
     <col min="4" max="4" width="29" style="59" customWidth="1"/>
   </cols>
@@ -5049,10 +6265,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
@@ -5061,129 +6277,142 @@
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" s="22"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="194" spans="1:5">
+    <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="71" spans="1:5">
+    <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="159" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>67</v>
-      </c>
+    <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A8" s="2"/>
       <c r="B8" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="141" spans="1:5">
+    <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="88" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" ht="36" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="E11" s="22"/>
+    </row>
+    <row r="12" ht="36" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5194,13 +6423,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="28.6666666666667" customWidth="1"/>
@@ -5224,51 +6453,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" ht="36" spans="1:3">
-      <c r="A3" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" ht="71" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" ht="36" spans="1:3">
       <c r="A4" s="24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" ht="212" spans="1:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" ht="71" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" ht="212" spans="1:4">
+      <c r="A6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5283,7 +6525,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -5314,28 +6556,28 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="36" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5345,6 +6587,82 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="19.5416666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.2152777777778" customWidth="1"/>
+    <col min="4" max="4" width="31.5972222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" ht="106" spans="2:4">
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" ht="124" spans="2:4">
+      <c r="B4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -5382,28 +6700,28 @@
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E2" s="30"/>
     </row>
     <row r="3" ht="92" customHeight="1" spans="1:4">
       <c r="A3" s="23" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5412,16 +6730,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.2847222222222" customWidth="1"/>
     <col min="2" max="2" width="21.2916666666667" style="6" customWidth="1"/>
@@ -5450,104 +6768,57 @@
     <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>112</v>
+        <v>131</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>132</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" ht="53" spans="2:4">
+    <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>117</v>
+        <v>137</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>118</v>
+        <v>139</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" ht="53" spans="2:4">
+      <c r="B5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="30.8333333333333" style="17" customWidth="1"/>
-    <col min="2" max="2" width="34.3333333333333" style="48" customWidth="1"/>
-    <col min="3" max="3" width="48.0277777777778" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A2" s="17"/>
-      <c r="B2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="3" activeTab="16"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,16 @@
     <sheet name="S" sheetId="3" r:id="rId17"/>
     <sheet name="T" sheetId="16" r:id="rId18"/>
     <sheet name="U" sheetId="6" r:id="rId19"/>
-    <sheet name="W" sheetId="12" r:id="rId20"/>
-    <sheet name="X" sheetId="19" r:id="rId21"/>
+    <sheet name="V" sheetId="24" r:id="rId20"/>
+    <sheet name="W" sheetId="12" r:id="rId21"/>
+    <sheet name="X" sheetId="19" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
   <si>
     <t>Synonyms</t>
   </si>
@@ -2843,6 +2844,34 @@
     </r>
   </si>
   <si>
+    <t>stay committed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>committed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is a willingness to do whatever it takes to fulfill and follow through on a responsibility. It may not even be what we most enjoy, but none the less, being committed means we are going to do it regardless. </t>
+    </r>
+  </si>
+  <si>
     <t>tension;burden</t>
   </si>
   <si>
@@ -3160,6 +3189,100 @@
     </r>
   </si>
   <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>vile</t>
+  </si>
+  <si>
+    <t>1.( informal ) extremely unpleasant or bad 糟糕透顶的；可恶的；极坏的
+2.( formal ) morally bad; completely unacceptable 邪恶的；令人完全不能接受的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> smell 令人恶心的气味
+2.The weather was really </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> most of the time. 天气大部分时间都糟糕得很。
+3.He was in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mood. 他的心情坏
+4.the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> practice of taking hostages 扣押人质的卑劣行径</t>
+    </r>
+  </si>
+  <si>
     <t>发狂的；怪诞的</t>
   </si>
   <si>
@@ -3249,7 +3372,77 @@
     </r>
   </si>
   <si>
-    <t>whopper</t>
+    <t>whoop</t>
+  </si>
+  <si>
+    <t>a loud cry expressing joy, excitement, etc. （高兴、激动等时的）高喊，大叫</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The children </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>whooped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with joy at the sight of all the presents.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>whopper
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ɒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pər]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3312,6 +3505,37 @@
         <charset val="134"/>
       </rPr>
       <t>. 他觉得她的话十分伤人。</t>
+    </r>
+  </si>
+  <si>
+    <t>wring out</t>
+  </si>
+  <si>
+    <t>When you wring out a wet cloth or a wet piece of clothing, you squeeze the water out of it by twisting it strongly. 拧干</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He turned away to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wring out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the wet shirt.
+他转身去拧干那件湿衬衫。</t>
     </r>
   </si>
   <si>
@@ -3334,7 +3558,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3560,6 +3784,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="12"/>
@@ -3594,12 +3830,6 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="宋体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4153,6 +4383,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4177,9 +4413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4212,9 +4445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4643,7 +4873,7 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="50" t="s">
@@ -4658,7 +4888,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -4672,7 +4902,7 @@
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -4686,7 +4916,7 @@
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -4796,10 +5026,10 @@
       </c>
     </row>
     <row r="2" ht="53" spans="1:4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>149</v>
       </c>
       <c r="C2" s="45" t="s">
@@ -4816,10 +5046,10 @@
       <c r="B3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="19" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4866,10 +5096,10 @@
       <c r="B2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="19" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4880,7 +5110,7 @@
       <c r="C3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="19" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4931,7 +5161,7 @@
       <c r="B2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="19" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4939,10 +5169,10 @@
       <c r="B3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4950,7 +5180,7 @@
       <c r="B4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="18" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5019,18 +5249,18 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -5039,10 +5269,10 @@
       <c r="C5" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
@@ -5058,145 +5288,145 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>187</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>192</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" ht="71" spans="1:5">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" ht="53" spans="1:5">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="44" t="s">
         <v>197</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" ht="124" spans="1:5">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>200</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="22" t="s">
         <v>202</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" ht="212" spans="1:5">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>205</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" ht="141" spans="1:5">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>207</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="22" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" ht="124" spans="1:5">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>211</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="22" t="s">
         <v>213</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" ht="106" spans="1:5">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="22" t="s">
         <v>216</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" ht="106" spans="1:5">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>218</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -5205,10 +5435,10 @@
       <c r="C17" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A1:E8">
@@ -5256,10 +5486,10 @@
       <c r="B2" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="19" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5307,10 +5537,10 @@
       <c r="B2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>227</v>
       </c>
       <c r="E2"/>
@@ -5320,10 +5550,10 @@
       <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="19" t="s">
         <v>230</v>
       </c>
       <c r="E3"/>
@@ -5333,10 +5563,10 @@
       <c r="B4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="19" t="s">
         <v>233</v>
       </c>
       <c r="E4"/>
@@ -5346,10 +5576,10 @@
       <c r="B5" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="19" t="s">
         <v>236</v>
       </c>
       <c r="E5"/>
@@ -5364,7 +5594,7 @@
       <c r="C6" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="19" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5372,7 +5602,7 @@
       <c r="B7" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="19" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5385,10 +5615,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -5396,8 +5626,8 @@
     <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="25" style="11" customWidth="1"/>
     <col min="3" max="3" width="30.3333333333333" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.8333333333333" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="30"/>
+    <col min="4" max="4" width="32.8333333333333" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="31"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -5418,121 +5648,131 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" s="28" customFormat="1" ht="152" spans="1:4">
-      <c r="A3" s="33" t="s">
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" s="29" customFormat="1" ht="152" spans="1:4">
+      <c r="A3" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1" ht="51" spans="1:4">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33" t="s">
+    <row r="4" s="29" customFormat="1" ht="51" spans="1:4">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" s="28" customFormat="1" ht="68" spans="1:4">
-      <c r="A5" s="33" t="s">
+    <row r="5" s="29" customFormat="1" ht="68" spans="1:4">
+      <c r="A5" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" s="28" customFormat="1" ht="84" spans="1:4">
-      <c r="A6" s="33" t="s">
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" s="29" customFormat="1" ht="84" spans="1:4">
+      <c r="A6" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="1" ht="101" spans="1:4">
-      <c r="A7" s="33" t="s">
+    <row r="7" s="29" customFormat="1" ht="101" spans="1:4">
+      <c r="A7" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" ht="159" spans="1:4">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="29" customFormat="1" ht="132" customHeight="1" spans="1:4">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="12" t="s">
+    </row>
+    <row r="9" ht="159" spans="1:4">
+      <c r="A9" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="9" ht="18" spans="2:4">
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="88" spans="1:4">
-      <c r="A10" s="11" t="s">
+    </row>
+    <row r="10" ht="18" spans="2:4">
+      <c r="B10" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" ht="88" spans="1:4">
+      <c r="A11" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>274</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5546,7 +5786,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="153" zoomScaleNormal="153" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -5576,40 +5816,40 @@
       </c>
     </row>
     <row r="2" ht="88" customHeight="1" spans="1:4">
-      <c r="A2" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="25" t="s">
         <v>277</v>
       </c>
+      <c r="B2" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="3" ht="171" customHeight="1" spans="1:4">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>280</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="4" ht="71" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="27" t="s">
         <v>284</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5640,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -5654,33 +5894,33 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="C2" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="22"/>
+        <v>294</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5729,13 +5969,13 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="42"/>
@@ -5744,7 +5984,7 @@
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -5760,7 +6000,7 @@
       <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="42"/>
@@ -5887,10 +6127,62 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="45.9513888888889" customWidth="1"/>
+    <col min="4" max="4" width="25.4305555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="141" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -5920,75 +6212,93 @@
     </row>
     <row r="2" ht="18" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" ht="58" customHeight="1" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" ht="121" customHeight="1" spans="1:4">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" ht="121" customHeight="1" spans="1:4">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" ht="53" spans="1:4">
-      <c r="A6" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" ht="121" customHeight="1" spans="1:4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" ht="53" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" ht="53" spans="1:4">
       <c r="A8" s="17"/>
+      <c r="B8" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17"/>
@@ -6031,6 +6341,9 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="17"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6038,7 +6351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -6060,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -6074,13 +6387,13 @@
     </row>
     <row r="2" ht="176" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6140,48 +6453,48 @@
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" s="62" customFormat="1" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" s="62" customFormat="1" ht="71" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="42"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" s="62" customFormat="1" ht="124" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" ht="71" spans="1:5">
       <c r="A7" s="2" t="s">
@@ -6219,7 +6532,7 @@
       <c r="C9" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6234,8 +6547,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -6267,107 +6580,107 @@
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A10" s="2" t="s">
@@ -6388,22 +6701,22 @@
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" ht="36" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -6412,7 +6725,7 @@
       <c r="D12" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6458,10 +6771,10 @@
       <c r="B2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E2"/>
@@ -6475,10 +6788,10 @@
       </c>
     </row>
     <row r="4" ht="36" spans="1:3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -6486,24 +6799,24 @@
       </c>
     </row>
     <row r="5" ht="71" spans="1:4">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" ht="212" spans="1:4">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -6558,7 +6871,7 @@
       <c r="B2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>107</v>
       </c>
       <c r="D2" s="54" t="s">
@@ -6567,16 +6880,16 @@
       <c r="E2"/>
     </row>
     <row r="3" ht="36" spans="1:4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>110</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="19" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6626,10 +6939,10 @@
       <c r="B2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="19" t="s">
         <v>116</v>
       </c>
       <c r="E2"/>
@@ -6638,10 +6951,10 @@
       <c r="B3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6649,10 +6962,10 @@
       <c r="B4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="19" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6673,11 +6986,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9" style="30" customWidth="1"/>
-    <col min="3" max="3" width="40.6666666666667" style="30" customWidth="1"/>
-    <col min="4" max="4" width="22.3333333333333" style="30" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="30"/>
+    <col min="1" max="1" width="17.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9" style="31" customWidth="1"/>
+    <col min="3" max="3" width="40.6666666666667" style="31" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="31"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -6698,23 +7011,23 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32" t="s">
         <v>123</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="92" customHeight="1" spans="1:4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -6770,7 +7083,7 @@
       <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D2" s="50" t="s">
@@ -6783,10 +7096,10 @@
       <c r="B3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="19" t="s">
         <v>135</v>
       </c>
       <c r="E3"/>
@@ -6798,10 +7111,10 @@
       <c r="B4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="19" t="s">
         <v>139</v>
       </c>
       <c r="E4"/>
@@ -6813,7 +7126,7 @@
       <c r="C5" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="19" t="s">
         <v>142</v>
       </c>
     </row>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352">
   <si>
     <t>Synonyms</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The jury </t>
     </r>
     <r>
@@ -68,6 +74,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>acquitted</t>
@@ -93,6 +100,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>alight</t>
     </r>
     <r>
@@ -127,6 +142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Ventilators and other devices intended for respiratory support for COVID-19
 2.The </t>
     </r>
@@ -183,6 +204,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">An </t>
     </r>
     <r>
@@ -217,6 +244,12 @@
   </si>
   <si>
     <t>The Chinese economy is in for a grim start to the Year of the Rat</t>
+  </si>
+  <si>
+    <t>Bravo Mike</t>
+  </si>
+  <si>
+    <t>Black Male</t>
   </si>
   <si>
     <t>用棍棒打；猛烈攻击</t>
@@ -243,6 +276,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">After the large income tax hike, many people suddenly found it difficult to </t>
     </r>
     <r>
@@ -274,6 +313,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.They </t>
     </r>
     <r>
@@ -343,6 +388,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">She felt she had to escape from the </t>
     </r>
     <r>
@@ -378,6 +429,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Four co-workers in Germany </t>
     </r>
     <r>
@@ -419,6 +476,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.He </t>
     </r>
     <r>
@@ -456,6 +519,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>"</t>
     </r>
     <r>
@@ -502,6 +571,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A beautiful new </t>
     </r>
     <r>
@@ -533,6 +608,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I will find my connecting flight soon after we </t>
     </r>
     <r>
@@ -566,6 +647,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> His attorneys took </t>
     </r>
     <r>
@@ -598,6 +685,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Though he was wearing a dinner jacket and a black bow tie, his jeans and tennis shoes were hardly </t>
     </r>
     <r>
@@ -625,6 +718,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Crowds of tourists </t>
     </r>
     <r>
@@ -670,6 +769,22 @@
     </r>
   </si>
   <si>
+    <t>argue with;debate</t>
+  </si>
+  <si>
+    <t>dispute</t>
+  </si>
+  <si>
+    <t>(between A and B) | ~ (over/about sth) an argument or a disagreement between two people, groups or countries; discussion about a subject where there is disagreement 争论；辩论；争端；纠纷</t>
+  </si>
+  <si>
+    <t>1.A dispute between the two countries about the border 两国间的边界争端
+2.the latest dispute over fishing rights 最近关于捕鱼权的争端
+3.industrial/pay disputes 劳资╱工资纠纷
+4.The union is in dispute with management over working hours. 工会与资方在工作时间上发生纠纷
+5.The family wanted to dispute the will. 家属想对遗嘱提出质疑</t>
+  </si>
+  <si>
     <t>don't agree</t>
   </si>
   <si>
@@ -681,6 +796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Only two ministers </t>
     </r>
     <r>
@@ -715,6 +836,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Did you know that Sarah </t>
     </r>
     <r>
@@ -770,6 +897,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Australian Police are </t>
     </r>
     <r>
@@ -801,6 +934,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">He has a simplistic view of the treatment of </t>
     </r>
     <r>
@@ -809,6 +948,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>eczema</t>
@@ -851,6 +991,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.an </t>
     </r>
     <r>
@@ -859,6 +1005,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>eerie</t>
@@ -879,6 +1026,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>eerie</t>
@@ -904,6 +1052,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.There was a heated </t>
     </r>
     <r>
@@ -912,6 +1066,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>exchange</t>
@@ -958,6 +1113,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Middle Eastern </t>
     </r>
     <r>
@@ -966,6 +1127,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>fare</t>
@@ -983,6 +1145,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">‘We simply cannot have this’, she </t>
     </r>
     <r>
@@ -991,12 +1159,34 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>fumed</t>
     </r>
   </si>
   <si>
+    <t>gastrointestinal
+[ˌɡæstrəʊɪnˈtestɪnl]</t>
+  </si>
+  <si>
+    <t>( medical 医 ) of or related to the stomach and intestines 胃肠的</t>
+  </si>
+  <si>
+    <r>
+      <t>gastrointestinal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bleeding 胃肠出血</t>
+    </r>
+  </si>
+  <si>
     <t>stare</t>
   </si>
   <si>
@@ -1004,6 +1194,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">to look steadily at sb/sth for a long time, either </t>
     </r>
     <r>
@@ -1011,6 +1207,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>because you are very interested or surprised, or because you are thinking of sth else</t>
@@ -1035,6 +1232,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>gazed</t>
@@ -1055,6 +1253,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>gazing</t>
@@ -1079,6 +1278,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Could you </t>
     </r>
     <r>
@@ -1087,6 +1292,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>go over</t>
@@ -1107,6 +1313,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>go over</t>
@@ -1130,6 +1337,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">They will even pour </t>
     </r>
     <r>
@@ -1138,6 +1351,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>gravy</t>
@@ -1160,6 +1374,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I left him in the market </t>
     </r>
     <r>
@@ -1190,6 +1410,23 @@
         <charset val="134"/>
       </rPr>
       <t>我扔下他自己在市场上就一件衬衫讨价还价</t>
+    </r>
+  </si>
+  <si>
+    <t>home economics</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cooking and other skills needed at home, taught as a subject in school </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家政学</t>
     </r>
   </si>
   <si>
@@ -1253,6 +1490,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.If you overslept, you'll have to </t>
     </r>
     <r>
@@ -1316,6 +1559,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.The level of inflation is a serious </t>
     </r>
     <r>
@@ -1324,6 +1573,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>impediment</t>
@@ -1344,6 +1594,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>impediment</t>
@@ -1366,6 +1617,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The meeting got off to an </t>
     </r>
     <r>
@@ -1374,6 +1631,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>inauspicious</t>
@@ -1390,6 +1648,12 @@
     </r>
   </si>
   <si>
+    <t>incubation</t>
+  </si>
+  <si>
+    <t>( also incuˈbation period ) the time between sb being infected with a disease and the appearance of the first symptoms (= signs) （传染病的）潜伏期</t>
+  </si>
+  <si>
     <t>energetic</t>
   </si>
   <si>
@@ -1401,6 +1665,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">They felt refreshed and </t>
     </r>
     <r>
@@ -1409,6 +1679,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>invigorated</t>
@@ -1432,6 +1703,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -1440,6 +1717,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Iodine</t>
@@ -1460,6 +1738,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>iodine</t>
@@ -1483,6 +1762,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Lieutenant</t>
     </r>
     <r>
@@ -1512,6 +1799,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.a </t>
     </r>
     <r>
@@ -1520,6 +1813,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>malicious</t>
@@ -1546,6 +1840,38 @@
     </r>
   </si>
   <si>
+    <t>maverick
+ [ˈmævərɪk]</t>
+  </si>
+  <si>
+    <t>a person who does not behave or think like everyone else, but who has independent, unusual opinions 持不同意见者；独行其是者；言行与众不同者</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>maverick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> group of scientists, who oppose the prevailing medical opinion on the disease.一群特立独行的科学家，他们反对关于这种疾病的医学界的盛行观点。</t>
+    </r>
+  </si>
+  <si>
     <t>sadness</t>
   </si>
   <si>
@@ -1556,6 +1882,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 A mood of </t>
     </r>
@@ -1565,6 +1897,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>melancholy</t>
@@ -1587,6 +1920,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">We sat drinking wine and </t>
     </r>
     <r>
@@ -1595,6 +1934,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>nibbling</t>
@@ -1617,6 +1957,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t>It was another day of mind-</t>
     </r>
     <r>
@@ -1625,6 +1971,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>numbing</t>
@@ -1647,6 +1994,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">If that's what you think, you're way </t>
     </r>
     <r>
@@ -1655,6 +2008,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>off base</t>
@@ -1678,6 +2032,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The soloist got a ten-minute standing </t>
     </r>
     <r>
@@ -1686,6 +2046,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>ovation</t>
@@ -1708,6 +2069,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>panacea
 [</t>
     </r>
@@ -1771,6 +2138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Trade is not a </t>
     </r>
     <r>
@@ -1818,6 +2191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.he country's economy is now in grave </t>
     </r>
     <r>
@@ -1893,6 +2272,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The workers are getting up (= starting) a </t>
     </r>
     <r>
@@ -1925,6 +2310,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Plaid</t>
     </r>
     <r>
@@ -1954,6 +2347,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">She nearly died of </t>
     </r>
     <r>
@@ -1983,6 +2382,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>porcelain
 [</t>
     </r>
@@ -2028,6 +2433,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Hojicha is distinctive from other Japanese green teas because it is roasted in a </t>
     </r>
     <r>
@@ -2053,6 +2464,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>portentous
  [pɔ</t>
     </r>
@@ -2082,6 +2499,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 1.A </t>
     </r>
@@ -2132,6 +2555,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>procurement
   [prə</t>
     </r>
@@ -2159,6 +2588,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The court also ruled that the labor commissioner could sever unlawful acts from an agreement or completely void a manager-talent contract for unlicensed </t>
     </r>
     <r>
@@ -2193,6 +2628,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Their decision was based on ignorance and </t>
     </r>
     <r>
@@ -2225,6 +2666,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">How am I supposed to know—I'm not </t>
     </r>
     <r>
@@ -2259,6 +2706,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Hanley </t>
     </r>
     <r>
@@ -2303,6 +2756,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A </t>
     </r>
     <r>
@@ -2311,6 +2770,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>quorum</t>
@@ -2334,6 +2794,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.She leaned on the ship's </t>
     </r>
     <r>
@@ -2342,6 +2808,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>rail</t>
@@ -2362,6 +2829,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>railed</t>
@@ -2384,6 +2852,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Our </t>
     </r>
     <r>
@@ -2392,6 +2866,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>reindeer</t>
@@ -2414,6 +2889,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bone </t>
     </r>
     <r>
@@ -2422,6 +2903,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>rarefaction</t>
@@ -2444,6 +2926,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Allergic </t>
     </r>
     <r>
@@ -2452,6 +2940,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Rhinitis</t>
@@ -2474,6 +2963,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.a dishonest or unprincipled man.
 2.( humorous ) a person who behaves badly, but in a harmless way </t>
     </r>
@@ -2489,6 +2984,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Mr. Ward wasn't a </t>
     </r>
     <r>
@@ -2497,6 +2998,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>rogue</t>
@@ -2518,6 +3020,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>rogue</t>
@@ -2537,6 +3040,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Don't you </t>
     </r>
     <r>
@@ -2545,6 +3054,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>roll your eyes</t>
@@ -2567,6 +3077,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">very clever, amusing and interesting </t>
     </r>
     <r>
@@ -2581,6 +3097,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">a </t>
     </r>
     <r>
@@ -2626,6 +3148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.China </t>
     </r>
     <r>
@@ -2720,6 +3248,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A solitary </t>
     </r>
     <r>
@@ -2764,6 +3298,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Her mother was a </t>
     </r>
     <r>
@@ -2799,6 +3339,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.A </t>
     </r>
     <r>
@@ -2848,6 +3394,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Being </t>
     </r>
     <r>
@@ -2883,6 +3435,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -2966,6 +3524,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">That girl's got </t>
     </r>
     <r>
@@ -2989,6 +3553,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A sporting rifle fitted with a </t>
     </r>
     <r>
@@ -2997,6 +3567,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>telescopic</t>
@@ -3022,6 +3593,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Can I refuse to give </t>
     </r>
     <r>
@@ -3030,6 +3607,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>testimony</t>
@@ -3050,6 +3628,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>testimony</t>
@@ -3075,6 +3654,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -3083,6 +3668,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>transgress</t>
@@ -3103,6 +3689,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>transgress</t>
@@ -3131,6 +3718,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">He explodes at </t>
     </r>
     <r>
@@ -3165,6 +3758,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">46-year-old George Floyd died on Monday after an officer knelt on his neck until he became </t>
     </r>
     <r>
@@ -3200,6 +3799,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.A </t>
     </r>
     <r>
@@ -3208,6 +3813,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>vile</t>
@@ -3228,6 +3834,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>vile</t>
@@ -3248,6 +3855,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>vile</t>
@@ -3268,6 +3876,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>vile</t>
@@ -3283,6 +3892,37 @@
     </r>
   </si>
   <si>
+    <t>walk over</t>
+  </si>
+  <si>
+    <t>(walk over someone) to treat someone badly and to make them do what you want without respect for their feelings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’m not about to let them </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>walk all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> over me.</t>
+    </r>
+  </si>
+  <si>
     <t>发狂的；怪诞的</t>
   </si>
   <si>
@@ -3293,6 +3933,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A </t>
     </r>
     <r>
@@ -3327,6 +3973,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">People get rude and </t>
     </r>
     <r>
@@ -3352,6 +4004,12 @@
     </r>
   </si>
   <si>
+    <t>whiskey Mike</t>
+  </si>
+  <si>
+    <t>white male</t>
+  </si>
+  <si>
     <t>whistleblower</t>
   </si>
   <si>
@@ -3359,6 +4017,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Whistleblowers</t>
     </r>
     <r>
@@ -3379,6 +4045,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The children </t>
     </r>
     <r>
@@ -3404,6 +4076,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>whopper
  [</t>
     </r>
@@ -3451,6 +4129,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Pete has caught a </t>
     </r>
     <r>
@@ -3493,6 +4177,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>wounding</t>
@@ -3508,6 +4193,62 @@
     </r>
   </si>
   <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>wreak havoc
+ [riːk]  [ˈhævək]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to cause great damage </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A powerful tornado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wreaked havoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on the small village. 
+The virus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wreaked havoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on my computer.</t>
+    </r>
+  </si>
+  <si>
     <t>wring out</t>
   </si>
   <si>
@@ -3515,6 +4256,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">He turned away to </t>
     </r>
     <r>
@@ -3523,6 +4270,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">wring out </t>
@@ -3553,12 +4301,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3627,6 +4375,15 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times Roman"/>
@@ -3655,8 +4412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3669,25 +4427,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3702,7 +4443,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3710,7 +4451,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3718,30 +4474,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3762,16 +4494,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3800,9 +4557,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3856,9 +4618,8 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3897,13 +4658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3915,103 +4682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4029,7 +4700,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4041,13 +4796,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4059,19 +4826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4094,11 +4855,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4118,17 +4909,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4150,187 +4937,161 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4353,6 +5114,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4371,21 +5141,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4399,101 +5166,74 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4502,22 +5242,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4845,10 +5576,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="64" customWidth="1"/>
-    <col min="2" max="2" width="27" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="42" customWidth="1"/>
-    <col min="4" max="4" width="47.7777777777778" style="64" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27" style="20" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="37" customWidth="1"/>
+    <col min="4" max="4" width="47.7777777777778" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -4873,10 +5604,10 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E2"/>
@@ -4888,10 +5619,10 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4899,13 +5630,13 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4913,13 +5644,13 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4940,11 +5671,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.8333333333333" style="17" customWidth="1"/>
-    <col min="2" max="2" width="34.3333333333333" style="47" customWidth="1"/>
-    <col min="3" max="3" width="48.0277777777778" style="42" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="42" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="42"/>
+    <col min="1" max="1" width="30.8333333333333" style="20" customWidth="1"/>
+    <col min="2" max="2" width="34.3333333333333" style="41" customWidth="1"/>
+    <col min="3" max="3" width="48.0277777777778" style="37" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="37"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -4965,24 +5696,24 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A2" s="17"/>
-      <c r="B2" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
-        <v>146</v>
+      <c r="A3" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4994,13 +5725,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="33.2152777777778" customWidth="1"/>
     <col min="2" max="2" width="21.1805555555556" customWidth="1"/>
@@ -5026,31 +5757,43 @@
       </c>
     </row>
     <row r="2" ht="53" spans="1:4">
-      <c r="A2" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" ht="84" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>155</v>
+      <c r="A2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" ht="71" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" ht="84" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5094,24 +5837,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>158</v>
+        <v>172</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>161</v>
+        <v>176</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5156,32 +5899,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>164</v>
+        <v>179</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>169</v>
+        <v>184</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -5204,7 +5947,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="40.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.6666666666667" style="41" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" style="6" customWidth="1"/>
     <col min="3" max="3" width="22.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="21.6666666666667" customWidth="1"/>
   </cols>
@@ -5227,218 +5970,218 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
-      <c r="B2" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>172</v>
+      <c r="B2" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>174</v>
+        <v>189</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
-      <c r="A4" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
-      <c r="A5" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="20"/>
+      <c r="A5" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>183</v>
+        <v>198</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A7" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
-      <c r="A8" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="20"/>
+      <c r="A8" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
-      <c r="A9" s="20"/>
-      <c r="B9" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="71" spans="1:5">
-      <c r="A10" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" ht="53" spans="1:5">
-      <c r="A11" s="20"/>
-      <c r="B11" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" ht="124" spans="1:5">
-      <c r="A12" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="20"/>
+      <c r="A12" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" ht="212" spans="1:5">
-      <c r="A13" s="20"/>
-      <c r="B13" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="20"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" ht="141" spans="1:5">
-      <c r="A14" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="20"/>
+      <c r="A14" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" ht="124" spans="1:5">
-      <c r="A15" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="20"/>
+      <c r="A15" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" ht="106" spans="1:5">
-      <c r="A16" s="20"/>
-      <c r="B16" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="106" spans="1:5">
-      <c r="A17" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="20"/>
+      <c r="A17" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A1:E8">
@@ -5483,14 +6226,14 @@
       </c>
     </row>
     <row r="2" ht="71" spans="2:4">
-      <c r="B2" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>224</v>
+      <c r="B2" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5532,78 +6275,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="159" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>227</v>
+        <v>241</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>230</v>
+        <v>244</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>233</v>
+        <v>247</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>236</v>
+        <v>250</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" ht="92" spans="1:4">
+    <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>240</v>
+        <v>254</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="7" ht="36" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>242</v>
+        <v>257</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5623,11 +6366,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.8333333333333" style="30" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="31"/>
+    <col min="1" max="1" width="16.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="15" customWidth="1"/>
+    <col min="4" max="4" width="32.8333333333333" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="28"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -5648,131 +6391,131 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
-      <c r="A2" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" s="29" customFormat="1" ht="152" spans="1:4">
-      <c r="A3" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" s="29" customFormat="1" ht="51" spans="1:4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" s="29" customFormat="1" ht="68" spans="1:4">
-      <c r="A5" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="36"/>
-    </row>
-    <row r="6" s="29" customFormat="1" ht="84" spans="1:4">
-      <c r="A6" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="B2" s="29" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="7" s="29" customFormat="1" ht="101" spans="1:4">
-      <c r="A7" s="34" t="s">
+      <c r="C2" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="D2" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" s="26" customFormat="1" ht="152" spans="1:4">
+      <c r="A3" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="8" s="29" customFormat="1" ht="132" customHeight="1" spans="1:4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35" t="s">
+      <c r="D3" s="32" t="s">
         <v>266</v>
       </c>
     </row>
+    <row r="4" s="26" customFormat="1" ht="51" spans="1:4">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" s="26" customFormat="1" ht="68" spans="1:4">
+      <c r="A5" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" s="26" customFormat="1" ht="84" spans="1:4">
+      <c r="A6" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" s="26" customFormat="1" ht="101" spans="1:4">
+      <c r="A7" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" s="26" customFormat="1" ht="132" customHeight="1" spans="1:4">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
     <row r="9" ht="159" spans="1:4">
-      <c r="A9" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>270</v>
+      <c r="A9" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="10" ht="18" spans="2:4">
-      <c r="B10" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="12"/>
+      <c r="B10" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" ht="88" spans="1:4">
-      <c r="A11" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>276</v>
+      <c r="A11" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5816,40 +6559,40 @@
       </c>
     </row>
     <row r="2" ht="88" customHeight="1" spans="1:4">
-      <c r="A2" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>279</v>
+      <c r="A2" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" ht="171" customHeight="1" spans="1:4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>282</v>
+      <c r="A3" s="19"/>
+      <c r="B3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" ht="71" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>286</v>
+        <v>300</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5880,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -5894,33 +6637,33 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="24"/>
+        <v>304</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="24"/>
+        <v>308</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5932,20 +6675,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="63" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="63" customWidth="1"/>
-    <col min="4" max="4" width="32.3333333333333" style="63" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="63" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="63"/>
+    <col min="2" max="2" width="28" style="54" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="54" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" style="54" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="54" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="54"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -5969,154 +6712,165 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" ht="94" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" ht="94" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" ht="88" spans="1:5">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" ht="88" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="20"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6158,16 +6912,16 @@
     </row>
     <row r="2" ht="141" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>299</v>
+        <v>313</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6179,9 +6933,9 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6210,140 +6964,177 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>302</v>
+    <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>317</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" ht="58" customHeight="1" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" ht="18" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" ht="121" customHeight="1" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" ht="121" customHeight="1" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>313</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" ht="58" customHeight="1" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" ht="58" customHeight="1" spans="1:4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" ht="121" customHeight="1" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" ht="53" spans="1:4">
-      <c r="A7" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>318</v>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" ht="121" customHeight="1" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" ht="53" spans="1:4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="17"/>
+        <v>333</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" ht="121" customHeight="1" spans="1:4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" ht="53" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" ht="71" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" ht="53" spans="1:4">
+      <c r="A11" s="20"/>
+      <c r="B11" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="20"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="20"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6373,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -6385,15 +7176,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="176" spans="2:4">
+    <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -6413,11 +7204,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.8125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="15.7569444444444" style="17" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="42" customWidth="1"/>
-    <col min="4" max="4" width="22.6666666666667" style="42" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="42"/>
+    <col min="1" max="1" width="19.8125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7569444444444" style="20" customWidth="1"/>
+    <col min="3" max="3" width="24.6666666666667" style="37" customWidth="1"/>
+    <col min="4" max="4" width="22.6666666666667" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="37"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -6438,102 +7229,100 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
-      <c r="B2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
-        <v>31</v>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" s="62" customFormat="1" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" s="53" customFormat="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" s="62" customFormat="1" ht="71" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" s="53" customFormat="1" ht="71" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" s="62" customFormat="1" ht="124" spans="1:5">
+      <c r="B5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" s="53" customFormat="1" ht="124" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="C6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" ht="71" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="C7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="106" spans="1:5">
-      <c r="A8" s="2"/>
+    <row r="8" ht="106" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="71" spans="1:4">
-      <c r="A9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="61" t="s">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6545,18 +7334,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8333333333333" style="58" customWidth="1"/>
-    <col min="2" max="2" width="18" style="41" customWidth="1"/>
-    <col min="3" max="3" width="24.8333333333333" style="55" customWidth="1"/>
-    <col min="4" max="4" width="29" style="59" customWidth="1"/>
+    <col min="1" max="1" width="22.8333333333333" style="51" customWidth="1"/>
+    <col min="2" max="2" width="18" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.8333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -6578,154 +7367,169 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="C3" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="C5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="C6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
-      <c r="B8" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="C8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="141" spans="1:5">
+      <c r="C9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="88" spans="1:5">
+      <c r="C10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" ht="36" spans="1:5">
+      <c r="C11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="B12" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="C12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" ht="36" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6769,61 +7573,61 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="36" spans="1:3">
-      <c r="A4" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>97</v>
+      <c r="A4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:4">
-      <c r="A5" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>101</v>
+      <c r="A5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="212" spans="1:4">
-      <c r="A6" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>105</v>
+      <c r="A6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +7673,28 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="36" spans="1:4">
-      <c r="A3" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>112</v>
+      <c r="A3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6902,13 +7706,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.5416666666667" customWidth="1"/>
     <col min="3" max="3" width="30.2152777777778" customWidth="1"/>
@@ -6932,41 +7736,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>116</v>
+    <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>121</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" ht="106" spans="2:4">
+    <row r="3" s="1" customFormat="1" ht="88" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" ht="124" spans="2:4">
+        <v>123</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="106" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" ht="124" spans="2:4">
+      <c r="B5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6978,19 +7795,19 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9" style="31" customWidth="1"/>
-    <col min="3" max="3" width="40.6666666666667" style="31" customWidth="1"/>
-    <col min="4" max="4" width="22.3333333333333" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="31"/>
+    <col min="1" max="1" width="17.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="15.7638888888889" style="28" customWidth="1"/>
+    <col min="3" max="3" width="40.6666666666667" style="28" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="28"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -7011,30 +7828,41 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" ht="92" customHeight="1" spans="1:4">
-      <c r="A3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>129</v>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" ht="92" customHeight="1" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7046,13 +7874,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.2847222222222" customWidth="1"/>
     <col min="2" max="2" width="21.2916666666667" style="6" customWidth="1"/>
@@ -7081,53 +7909,64 @@
     <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>143</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>139</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="21"/>
       <c r="E4"/>
     </row>
-    <row r="5" ht="53" spans="2:4">
+    <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>142</v>
+        <v>150</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" ht="53" spans="2:4">
+      <c r="B6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="6" activeTab="20"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
   <si>
     <t>Synonyms</t>
   </si>
@@ -255,21 +255,111 @@
     <t>用棍棒打；猛烈攻击</t>
   </si>
   <si>
-    <t>bludgeon</t>
+    <r>
+      <t>bludgeon
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ʌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ʒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ən]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1.to hit someone hard and repeatedly with a heavy weapon.Eg.The two boys had been mercilessly bludgeoned to death.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">false </t>
+  </si>
+  <si>
+    <r>
+      <t>bogus
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bəʊɡəs]</t>
+    </r>
+  </si>
+  <si>
+    <t>pretending to be real or genuine 假的；伪造的</t>
+  </si>
+  <si>
+    <t>1.a bogus doctor/contract 冒牌医生；伪造的合同
+2.bogus claims of injury by workers 工人们虚报受伤情况索赔</t>
+  </si>
+  <si>
     <t>bodyguard</t>
   </si>
   <si>
     <t>bouncer</t>
   </si>
   <si>
-    <t xml:space="preserve">
-a person employed to stand at the entrance to a club, pub, etc. to stop people who are not wanted from going in, and to throw out people who are causing trouble inside （俱乐部、酒店等的）门卫，保安</t>
+    <t>a person employed to stand at the entrance to a club, pub, etc. to stop people who are not wanted from going in, and to throw out people who are causing trouble inside （俱乐部、酒店等的）门卫，保安</t>
   </si>
   <si>
     <t>can not make ends meet</t>
@@ -769,6 +859,79 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>discretion
+[dɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skreʃn]</t>
+    </r>
+  </si>
+  <si>
+    <t>the freedom or power to decide what should be done in a particular situation 自行决定的自由；自行决定权</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.I'll leave it up to you to use your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>discretion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> . 我把这件事留给你自己斟酌决定。
+2.How much to tell terminally ill patients is left to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>discretion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of the doctor. 晚期病人的病情让本人知道多少由医生自行决定。</t>
+    </r>
+  </si>
+  <si>
     <t>argue with;debate</t>
   </si>
   <si>
@@ -778,11 +941,113 @@
     <t>(between A and B) | ~ (over/about sth) an argument or a disagreement between two people, groups or countries; discussion about a subject where there is disagreement 争论；辩论；争端；纠纷</t>
   </si>
   <si>
-    <t>1.A dispute between the two countries about the border 两国间的边界争端
-2.the latest dispute over fishing rights 最近关于捕鱼权的争端
-3.industrial/pay disputes 劳资╱工资纠纷
-4.The union is in dispute with management over working hours. 工会与资方在工作时间上发生纠纷
-5.The family wanted to dispute the will. 家属想对遗嘱提出质疑</t>
+    <r>
+      <t xml:space="preserve">1.A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dispute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> between the two countries about the border 两国间的边界争端
+2.the latest </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dispute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> over fishing rights 最近关于捕鱼权的争端
+3.industrial/pay </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>disputes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 劳资╱工资纠纷
+4.The union is in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dispute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with management over working hours. 工会与资方在工作时间上发生纠纷
+5.The family wanted to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dispute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the will. 家属想对遗嘱提出质疑</t>
+    </r>
   </si>
   <si>
     <t>don't agree</t>
@@ -984,7 +1249,8 @@
     <t>horrible</t>
   </si>
   <si>
-    <t>eerie</t>
+    <t>eerie
+[ˈɪəri]</t>
   </si>
   <si>
     <t>strange, mysterious and frightening 怪异的；神秘的；恐怖的</t>
@@ -1101,6 +1367,13 @@
       </rPr>
       <t xml:space="preserve"> and warnings as to the consequences, to act in such a way that results in destroying the sample containers, thereby eliminating any chance of testing the sample at a later stage</t>
     </r>
+  </si>
+  <si>
+    <t>excitatory
+/ɪkˈsʌɪtət(ə)ri,ɛkˈsʌɪtət(ə)ri/</t>
+  </si>
+  <si>
+    <t>characterized by, causing, or constituting excitation.</t>
   </si>
   <si>
     <t>fare</t>
@@ -1754,7 +2027,73 @@
     </r>
   </si>
   <si>
-    <t>lieutenant</t>
+    <r>
+      <t>laundromat
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ndrəmæt]</t>
+    </r>
+  </si>
+  <si>
+    <t>（美）自助洗衣店</t>
+  </si>
+  <si>
+    <r>
+      <t>lieutenant
+[lef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tenənt]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1910,6 +2249,39 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> descended on us. 一种悲伤的情绪袭上我们的心头</t>
+    </r>
+  </si>
+  <si>
+    <t>misdemeanor
+[,misdi'mi:nə]</t>
+  </si>
+  <si>
+    <t>a minor wrongdoing.
+A misdemeanor is a less serious crime than a felony. Felonies are the most serious crimes you can commit and have long jail or prison sentences, fines, or permanent loss of freedoms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The player can expect a suspension for his latest </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>misdemeanour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
     </r>
   </si>
   <si>
@@ -2551,6 +2923,62 @@
     </r>
   </si>
   <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <r>
+      <t>procrastinate
+ [prə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kræstɪneɪt]</t>
+    </r>
+  </si>
+  <si>
+    <t>( formal , disapproving ) to delay doing sth that you should do, usually because you do not want to do it 拖延；耽搁</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Most often we </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>procrastinate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when faced with something we do not want to do.
+面对不想做的事情，我们经常拖延。</t>
+    </r>
+  </si>
+  <si>
     <t>purchasing</t>
   </si>
   <si>
@@ -2658,11 +3086,32 @@
     </r>
   </si>
   <si>
-    <t>psychic</t>
+    <r>
+      <t>psychic
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>saɪkɪk]</t>
+    </r>
   </si>
   <si>
     <t>1. connected with strange powers of the mind and not able to be explained by natural laws 关于通灵的；超自然的
-2.n. 灵媒；巫师</t>
+2.灵媒；巫师</t>
   </si>
   <si>
     <r>
@@ -3070,10 +3519,32 @@
     </r>
   </si>
   <si>
+    <t>sago
+  [ˈseɪɡəʊ]</t>
+  </si>
+  <si>
+    <t>西米；西米椰子</t>
+  </si>
+  <si>
+    <r>
+      <t>sago</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in coconut milk 椰汁西米露</t>
+    </r>
+  </si>
+  <si>
     <t>sparkling</t>
   </si>
   <si>
-    <t>scintillating</t>
+    <t>scintillating
+[ˈsɪntɪleɪtɪŋ]</t>
   </si>
   <si>
     <r>
@@ -3282,10 +3753,43 @@
     <t>陛下；繁殖</t>
   </si>
   <si>
-    <t>sire</t>
+    <r>
+      <t>sire
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>saɪər]</t>
+    </r>
   </si>
   <si>
     <t>When a male animal, especially a horse, sires a young animal, he makes a female pregnant so that she gives birth to it. (尤指种马)生殖; 繁殖</t>
+  </si>
+  <si>
+    <t>smother</t>
+  </si>
+  <si>
+    <t>~ sb (with sth) to kill sb by covering their face so that they cannot breathe 使窒息而死；闷死
+to make a fire stop burning by covering it with sth 把（火）闷熄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.He smothered the baby with a pillow. 他用枕头把婴儿闷死了。
+2.He tried to smother the flames with a blanket. 他试图用毯子把火扑灭</t>
   </si>
   <si>
     <t>势利小人</t>
@@ -3642,6 +4146,12 @@
       </rPr>
       <t xml:space="preserve"> 专家证词；鉴定人证据；专家作证</t>
     </r>
+  </si>
+  <si>
+    <t>throw off biological clock</t>
+  </si>
+  <si>
+    <t>打乱生物钟</t>
   </si>
   <si>
     <t>be in breach of</t>
@@ -4306,7 +4816,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4356,6 +4866,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times Roman"/>
@@ -4372,15 +4891,6 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4627,6 +5137,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian (Body)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5091,7 +5607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5180,25 +5696,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5211,7 +5733,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5224,10 +5755,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5236,7 +5764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5578,7 +6106,7 @@
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
     <col min="2" max="2" width="27" style="20" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="37" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="39" customWidth="1"/>
     <col min="4" max="4" width="47.7777777777778" style="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5607,7 +6135,7 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E2"/>
@@ -5663,19 +6191,19 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.8333333333333" style="20" customWidth="1"/>
-    <col min="2" max="2" width="34.3333333333333" style="41" customWidth="1"/>
-    <col min="3" max="3" width="48.0277777777778" style="37" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="37"/>
+    <col min="2" max="2" width="34.3333333333333" style="44" customWidth="1"/>
+    <col min="3" max="3" width="48.0277777777778" style="39" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="39" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="39"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -5695,25 +6223,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A2" s="20"/>
-      <c r="B2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>160</v>
+    <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
+      <c r="A2" s="39"/>
+      <c r="B2" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A3" s="20"/>
+      <c r="B3" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5725,13 +6264,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="33.2152777777778" customWidth="1"/>
     <col min="2" max="2" width="21.1805555555556" customWidth="1"/>
@@ -5758,42 +6297,53 @@
     </row>
     <row r="2" ht="53" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>164</v>
+        <v>173</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" ht="71" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="19" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>167</v>
+        <v>177</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>171</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" ht="81" customHeight="1" spans="2:4">
+      <c r="B5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5837,24 +6387,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5899,32 +6449,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -5938,10 +6488,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -5971,217 +6521,232 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A4" s="22" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="37"/>
+        <v>206</v>
+      </c>
+      <c r="C4" s="39"/>
       <c r="D4" s="25"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A5" s="22" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E5" s="22"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>201</v>
+        <v>214</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>215</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A8" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>204</v>
+        <v>217</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>218</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A9" s="22"/>
-      <c r="B9" s="38" t="s">
-        <v>207</v>
+      <c r="B9" s="40" t="s">
+        <v>221</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" ht="71" spans="1:5">
       <c r="A10" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>211</v>
+        <v>224</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="22"/>
     </row>
     <row r="11" ht="53" spans="1:5">
       <c r="A11" s="22"/>
-      <c r="B11" s="38" t="s">
-        <v>213</v>
+      <c r="B11" s="40" t="s">
+        <v>227</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E11" s="22"/>
     </row>
     <row r="12" ht="124" spans="1:5">
       <c r="A12" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>217</v>
+        <v>230</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>231</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E12" s="22"/>
     </row>
     <row r="13" ht="212" spans="1:5">
       <c r="A13" s="22"/>
-      <c r="B13" s="38" t="s">
-        <v>220</v>
+      <c r="B13" s="40" t="s">
+        <v>234</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" ht="141" spans="1:5">
+    <row r="14" ht="106" spans="1:5">
       <c r="A14" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>224</v>
+        <v>237</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>238</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" ht="124" spans="1:5">
+    <row r="15" ht="141" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>228</v>
+        <v>241</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" ht="106" spans="1:5">
-      <c r="A16" s="22"/>
-      <c r="B16" s="38" t="s">
-        <v>231</v>
+    <row r="16" ht="124" spans="1:5">
+      <c r="A16" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>246</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E16" s="22"/>
     </row>
     <row r="17" ht="106" spans="1:5">
-      <c r="A17" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>237</v>
+      <c r="A17" s="22"/>
+      <c r="B17" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="E17" s="22"/>
+    </row>
+    <row r="18" ht="106" spans="1:5">
+      <c r="A18" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A1:E8">
@@ -6227,13 +6792,13 @@
     </row>
     <row r="2" ht="71" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6278,75 +6843,75 @@
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>245</v>
+        <v>262</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>255</v>
+        <v>272</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" ht="36" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6358,10 +6923,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -6390,132 +6955,155 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
-      <c r="A2" s="29" t="s">
-        <v>259</v>
-      </c>
+    <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
       <c r="B2" s="29" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" s="26" customFormat="1" ht="152" spans="1:4">
-      <c r="A3" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>264</v>
+        <v>278</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
+      <c r="A3" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>281</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" s="26" customFormat="1" ht="51" spans="1:4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" s="26" customFormat="1" ht="68" spans="1:4">
-      <c r="A5" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" s="26" customFormat="1" ht="84" spans="1:4">
-      <c r="A6" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" s="26" customFormat="1" ht="101" spans="1:4">
-      <c r="A7" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" s="26" customFormat="1" ht="132" customHeight="1" spans="1:4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" ht="159" spans="1:4">
-      <c r="A9" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" s="26" customFormat="1" ht="152" spans="1:4">
+      <c r="A4" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="B4" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="C4" s="34" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="10" ht="18" spans="2:4">
-      <c r="B10" s="14" t="s">
+      <c r="D4" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="15" t="s">
+    </row>
+    <row r="5" s="26" customFormat="1" ht="51" spans="1:4">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" ht="88" spans="1:4">
+      <c r="C5" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" s="26" customFormat="1" ht="68" spans="1:4">
+      <c r="A6" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" s="26" customFormat="1" ht="106" customHeight="1" spans="1:4">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" s="26" customFormat="1" ht="84" spans="1:4">
+      <c r="A8" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" s="26" customFormat="1" ht="101" spans="1:4">
+      <c r="A9" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" s="26" customFormat="1" ht="132" customHeight="1" spans="1:4">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" ht="159" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>291</v>
+        <v>308</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>292</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="2:4">
+      <c r="B12" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" ht="88" spans="1:4">
+      <c r="A13" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6527,15 +7115,15 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="153" zoomScaleNormal="153" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="33.0486111111111" customWidth="1"/>
     <col min="2" max="2" width="21.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="52.5" customWidth="1"/>
@@ -6560,39 +7148,49 @@
     </row>
     <row r="2" ht="88" customHeight="1" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" ht="171" customHeight="1" spans="1:4">
       <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" ht="71" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>299</v>
-      </c>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" ht="171" customHeight="1" spans="1:4">
+      <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>302</v>
+        <v>324</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" ht="71" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -6623,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -6637,31 +7235,31 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="E3" s="25"/>
     </row>
@@ -6675,20 +7273,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="54" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="54" customWidth="1"/>
-    <col min="4" max="4" width="32.3333333333333" style="54" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="54" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="54"/>
+    <col min="2" max="2" width="28" style="58" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" style="58" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="58" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="58"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -6721,7 +7319,7 @@
       <c r="D2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" ht="18" spans="1:5">
       <c r="A3" s="2"/>
@@ -6732,145 +7330,160 @@
         <v>25</v>
       </c>
       <c r="D3" s="24"/>
-      <c r="E3" s="37"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" ht="94" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" ht="88" spans="1:5">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" ht="94" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="20"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="D5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" ht="71" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="20"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="20"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="20"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="20"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="20"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6912,16 +7525,16 @@
     </row>
     <row r="2" ht="141" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6935,7 +7548,7 @@
   <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6967,128 +7580,128 @@
     <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="18" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" ht="58" customHeight="1" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" ht="58" customHeight="1" spans="1:4">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" ht="121" customHeight="1" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" ht="121" customHeight="1" spans="1:4">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" ht="121" customHeight="1" spans="1:4">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" ht="53" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" ht="71" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" ht="53" spans="1:4">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -7164,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -7178,13 +7791,13 @@
     </row>
     <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -7206,9 +7819,9 @@
   <cols>
     <col min="1" max="1" width="19.8125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7569444444444" style="20" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="37" customWidth="1"/>
-    <col min="4" max="4" width="22.6666666666667" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="37"/>
+    <col min="3" max="3" width="24.6666666666667" style="39" customWidth="1"/>
+    <col min="4" max="4" width="22.6666666666667" style="39" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="39"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -7230,99 +7843,99 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" s="53" customFormat="1" spans="1:5">
+    <row r="4" s="57" customFormat="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" s="53" customFormat="1" ht="71" spans="1:5">
+    <row r="5" s="57" customFormat="1" ht="71" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="37"/>
+        <v>45</v>
+      </c>
+      <c r="D5" s="39"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" s="53" customFormat="1" ht="124" spans="1:5">
+    <row r="6" s="57" customFormat="1" ht="124" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="25"/>
     </row>
     <row r="7" ht="71" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="106" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="71" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -7334,18 +7947,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8333333333333" style="51" customWidth="1"/>
+    <col min="1" max="1" width="22.8333333333333" style="55" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29" style="35" customWidth="1"/>
+    <col min="4" max="4" width="29" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -7367,10 +7980,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="24"/>
@@ -7379,157 +7992,170 @@
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" s="25"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="25"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E6" s="25"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E7" s="25"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E8" s="25"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="212" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>81</v>
+    <row r="10" s="1" customFormat="1" ht="124" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="141" spans="1:5">
+    <row r="11" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="88" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" ht="36" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="E13" s="25"/>
+    </row>
+    <row r="14" ht="36" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7540,15 +8166,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.0277777777778" customWidth="1"/>
     <col min="3" max="3" width="28.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
   </cols>
@@ -7573,61 +8200,69 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" ht="36" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>113</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="212" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" ht="53" spans="2:3">
+      <c r="B7" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -7673,28 +8308,28 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>123</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="36" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -7738,52 +8373,52 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A2"/>
-      <c r="B2" s="46" t="s">
-        <v>119</v>
+      <c r="B2" s="43" t="s">
+        <v>128</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>130</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="106" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" ht="124" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7830,39 +8465,39 @@
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A2" s="28"/>
       <c r="B2" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A3" s="28"/>
       <c r="B3" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="30"/>
+        <v>144</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="32"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -7909,64 +8544,64 @@
     <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" ht="53" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>163</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
   <si>
     <t>Synonyms</t>
   </si>
@@ -52,11 +52,11 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>acquit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-~ sb (of sth) to decide and state officially in court that sb is not guilty of a crime 宣判…无罪</t>
+    <t>acquit
+[ə'kwit]</t>
+  </si>
+  <si>
+    <t>~ sb (of sth) to decide and state officially in court that sb is not guilty of a crime 宣判…无罪</t>
   </si>
   <si>
     <r>
@@ -87,6 +87,38 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> him of murder. 陪审团裁决他谋杀罪不成立</t>
+    </r>
+  </si>
+  <si>
+    <t>albeit
+ /ɔːlˈbiː.ɪt/</t>
+  </si>
+  <si>
+    <t>虽然，尽管</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The evening was very pleasant, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>albeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a little quiet.</t>
     </r>
   </si>
   <si>
@@ -546,6 +578,58 @@
         <charset val="134"/>
       </rPr>
       <t>coronavirus after Chinese colleague visits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>collateral
+[kə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lætərəl]</t>
+    </r>
+  </si>
+  <si>
+    <t>( finance 财 ) property or sth valuable that you promise to give to sb if you cannot pay back money that you borrow 抵押物；担保品</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She used/put up her house as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>collateral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for a loan.</t>
     </r>
   </si>
   <si>
@@ -1152,6 +1236,81 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">dour
+ [dʊər; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>daʊər]</t>
+    </r>
+  </si>
+  <si>
+    <t>1.( of a thing, a place, or a situation 事情、地点或情况 ) not pleasant; with no features that make it lively or interesting 令人不快的；无生气的
+2.( of a person 人 ) giving the impression of being unfriendly and severe 冷酷的；严厉的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.The city, drab and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by day, is transformed at night. 这座城市白天死气沉沉、单调乏味，晚上就完全变了样
+2. A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, taciturn man.
+一个阴沉、寡言的男人。</t>
+    </r>
+  </si>
+  <si>
     <t>轻描淡写</t>
   </si>
   <si>
@@ -1242,8 +1401,7 @@
     <t>edgy</t>
   </si>
   <si>
-    <t xml:space="preserve">tense, nervous, or irritable.
-</t>
+    <t>tense, nervous, or irritable.</t>
   </si>
   <si>
     <t>horrible</t>
@@ -1407,14 +1565,45 @@
     </r>
   </si>
   <si>
+    <t>fortify</t>
+  </si>
+  <si>
+    <t>1.Fortified wine is a wine to which a distilled spirit, usually brandy, has been added. In the course of some centuries, winemakers have developed many different styles of fortified wine, including port, sherry, madeira, Marsala, Commandaria wine, and the aromatised wine vermouth. 加强葡萄酒
+2.to make something stronger, especially in order to protect it 加强；增强</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fortified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> himself with a drink and a sandwich before driving on.</t>
+    </r>
+  </si>
+  <si>
     <t>anger；对….十分恼火</t>
   </si>
   <si>
     <t>fume</t>
   </si>
   <si>
-    <t xml:space="preserve">1.feel, show, or express great anger.
-</t>
+    <t>feel, show, or express great anger.</t>
   </si>
   <si>
     <r>
@@ -1927,6 +2116,37 @@
     <t>( also incuˈbation period ) the time between sb being infected with a disease and the appearance of the first symptoms (= signs) （传染病的）潜伏期</t>
   </si>
   <si>
+    <t>intoxicant</t>
+  </si>
+  <si>
+    <t>a substance such as alcohol that produces false feelings of pleasure and a lack of control 麻醉剂；毒品；酒类饮料</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It was possible to imagine that a metabolic error could produce an endogenous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>intoxicant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>energetic</t>
   </si>
   <si>
@@ -2070,6 +2290,111 @@
   </si>
   <si>
     <t>（美）自助洗衣店</t>
+  </si>
+  <si>
+    <t>liability</t>
+  </si>
+  <si>
+    <t>1.the state of being legally responsible for something.
+2.a person or thing whose presence or behaviour is likely to put one at a disadvantage. 不利因素</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.once you contact the card protection scheme your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for any loss ends
+2.she said the party had become a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to green politics</t>
+    </r>
+  </si>
+  <si>
+    <t>liable</t>
+  </si>
+  <si>
+    <t>~ to do sth likely to do sth 可能（做某事）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.We're all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to make mistakes when we're tired. 人在疲劳时都可能出差错。  美 
+2.The bridge is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to collapse at any moment. 那座桥随时可能坍塌。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2921,6 +3246,54 @@
       </rPr>
       <t xml:space="preserve"> remark 装腔作势的言论</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>preponderance
+ [prɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ɒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ndərəns]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> if there is a preponderance of one type of people or things in a group, there are more of them than others 优势；多数；主体</t>
+  </si>
+  <si>
+    <t>Preponderance of Evidence 优势证据</t>
   </si>
   <si>
     <t>delay</t>
@@ -5111,6 +5484,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -5137,12 +5516,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian (Body)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5607,7 +5980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5760,9 +6133,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6096,13 +6466,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
     <col min="2" max="2" width="27" style="20" customWidth="1"/>
@@ -6127,9 +6497,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -6140,46 +6510,59 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" ht="36" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="36" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="176" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15" t="s">
+    </row>
+    <row r="5" ht="176" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" ht="141" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+    </row>
+    <row r="6" ht="141" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6191,13 +6574,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.8333333333333" style="20" customWidth="1"/>
     <col min="2" max="2" width="34.3333333333333" style="44" customWidth="1"/>
@@ -6226,33 +6609,59 @@
     <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
       <c r="A2" s="39"/>
       <c r="B2" s="45" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A3" s="20"/>
-      <c r="B3" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>171</v>
+    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
+      <c r="A3" s="39"/>
+      <c r="B3" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="119" customHeight="1" spans="1:5">
+      <c r="A4" s="39"/>
+      <c r="B4" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6297,53 +6706,53 @@
     </row>
     <row r="2" ht="53" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" ht="71" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="19" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" ht="81" customHeight="1" spans="2:4">
       <c r="B5" s="43" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6387,24 +6796,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6449,32 +6858,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -6488,10 +6897,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -6521,32 +6930,32 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A4" s="22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="25"/>
@@ -6554,82 +6963,82 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A5" s="22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="E5" s="22"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A8" s="22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A9" s="22"/>
       <c r="B9" s="40" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" ht="71" spans="1:5">
       <c r="A10" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="22"/>
@@ -6637,116 +7046,129 @@
     <row r="11" ht="53" spans="1:5">
       <c r="A11" s="22"/>
       <c r="B11" s="40" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="E11" s="22"/>
     </row>
     <row r="12" ht="124" spans="1:5">
       <c r="A12" s="22" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="E12" s="22"/>
     </row>
     <row r="13" ht="212" spans="1:5">
       <c r="A13" s="22"/>
       <c r="B13" s="40" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="E13" s="22"/>
     </row>
     <row r="14" ht="106" spans="1:5">
-      <c r="A14" s="22" t="s">
-        <v>237</v>
-      </c>
+      <c r="A14" s="22"/>
       <c r="B14" s="40" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" ht="141" spans="1:5">
+    <row r="15" ht="106" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" ht="124" spans="1:5">
+    <row r="16" ht="141" spans="1:5">
       <c r="A16" s="22" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" ht="106" spans="1:5">
-      <c r="A17" s="22"/>
+    <row r="17" ht="124" spans="1:5">
+      <c r="A17" s="22" t="s">
+        <v>269</v>
+      </c>
       <c r="B17" s="40" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="E17" s="22"/>
     </row>
     <row r="18" ht="106" spans="1:5">
-      <c r="A18" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>255</v>
+      <c r="A18" s="22"/>
+      <c r="B18" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>275</v>
       </c>
       <c r="E18" s="22"/>
+    </row>
+    <row r="19" ht="106" spans="1:5">
+      <c r="A19" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A1:E8">
@@ -6792,13 +7214,13 @@
     </row>
     <row r="2" ht="71" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6843,75 +7265,75 @@
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" ht="36" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6957,153 +7379,153 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
       <c r="B2" s="29" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
       <c r="A3" s="29" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="E3" s="26"/>
     </row>
     <row r="4" s="26" customFormat="1" ht="152" spans="1:4">
       <c r="A4" s="33" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" s="26" customFormat="1" ht="51" spans="1:4">
       <c r="A5" s="33"/>
       <c r="B5" s="33" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" s="26" customFormat="1" ht="68" spans="1:4">
       <c r="A6" s="33" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="D6" s="35"/>
     </row>
     <row r="7" s="26" customFormat="1" ht="106" customHeight="1" spans="1:4">
       <c r="A7" s="33"/>
       <c r="B7" s="33" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" s="26" customFormat="1" ht="84" spans="1:4">
       <c r="A8" s="33" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" s="26" customFormat="1" ht="101" spans="1:4">
       <c r="A9" s="33" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" s="26" customFormat="1" ht="132" customHeight="1" spans="1:4">
       <c r="A10" s="33"/>
       <c r="B10" s="33" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" ht="159" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" ht="18" spans="2:4">
       <c r="B12" s="14" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" ht="88" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -7148,49 +7570,49 @@
     </row>
     <row r="2" ht="88" customHeight="1" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" ht="171" customHeight="1" spans="1:4">
       <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" ht="171" customHeight="1" spans="1:4">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" ht="71" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7221,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -7235,31 +7657,31 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E2" s="25"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E3" s="25"/>
     </row>
@@ -7282,11 +7704,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="58" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="58" customWidth="1"/>
-    <col min="4" max="4" width="32.3333333333333" style="58" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="58" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="58"/>
+    <col min="2" max="2" width="28" style="57" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="57" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" style="57" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="57" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="57"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -7308,67 +7730,67 @@
     </row>
     <row r="2" ht="36" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" s="39"/>
     </row>
     <row r="3" ht="18" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" ht="94" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" ht="94" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="39"/>
     </row>
     <row r="6" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
@@ -7525,16 +7947,16 @@
     </row>
     <row r="2" ht="141" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7580,128 +8002,128 @@
     <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="18" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" ht="58" customHeight="1" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" ht="58" customHeight="1" spans="1:4">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" ht="121" customHeight="1" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" ht="121" customHeight="1" spans="1:4">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" ht="121" customHeight="1" spans="1:4">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" ht="53" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" ht="71" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" ht="53" spans="1:4">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -7777,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -7791,13 +8213,13 @@
     </row>
     <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7809,10 +8231,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -7843,99 +8265,111 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" s="57" customFormat="1" spans="1:5">
+    <row r="4" s="56" customFormat="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" s="57" customFormat="1" ht="71" spans="1:5">
+    <row r="5" s="56" customFormat="1" ht="71" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" s="57" customFormat="1" ht="124" spans="1:5">
+    <row r="6" s="56" customFormat="1" ht="124" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="25"/>
     </row>
     <row r="7" ht="71" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="106" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>53</v>
+    <row r="8" ht="88" spans="2:5">
+      <c r="B8" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="71" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
+    <row r="9" ht="106" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="71" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -7947,15 +8381,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8333333333333" style="55" customWidth="1"/>
+    <col min="1" max="1" width="22.8333333333333" style="54" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.8333333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="29" style="37" customWidth="1"/>
@@ -7980,10 +8414,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="24"/>
@@ -7992,170 +8426,183 @@
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E3" s="25"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="25"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E6" s="25"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="22" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E7" s="25"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E8" s="25"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E9" s="25"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="40" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E10" s="25"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E11" s="25"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" ht="36" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>102</v>
+    <row r="14" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="36" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8168,8 +8615,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -8200,69 +8647,69 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" ht="36" spans="1:3">
+        <v>115</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>110</v>
+        <v>118</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" ht="212" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>126</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" ht="53" spans="2:3">
       <c r="B7" s="43" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -8274,13 +8721,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
@@ -8308,28 +8755,41 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" ht="36" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>124</v>
-      </c>
+    <row r="3" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="36" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -8374,51 +8834,51 @@
     <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="43" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="106" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" ht="124" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -8465,39 +8925,39 @@
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A2" s="28"/>
       <c r="B2" s="29" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A3" s="28"/>
       <c r="B3" s="29" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -8509,13 +8969,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.2847222222222" customWidth="1"/>
     <col min="2" max="2" width="21.2916666666667" style="6" customWidth="1"/>
@@ -8544,64 +9004,77 @@
     <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" ht="53" spans="2:4">
+    <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>163</v>
+        <v>174</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>164</v>
+        <v>176</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" ht="53" spans="2:4">
+      <c r="B7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -16,26 +16,27 @@
     <sheet name="G" sheetId="22" r:id="rId7"/>
     <sheet name="H" sheetId="4" r:id="rId8"/>
     <sheet name="I" sheetId="20" r:id="rId9"/>
-    <sheet name="L" sheetId="17" r:id="rId10"/>
-    <sheet name="M" sheetId="15" r:id="rId11"/>
-    <sheet name="N" sheetId="21" r:id="rId12"/>
-    <sheet name="O" sheetId="18" r:id="rId13"/>
-    <sheet name="P" sheetId="9" r:id="rId14"/>
-    <sheet name="Q" sheetId="23" r:id="rId15"/>
-    <sheet name="R" sheetId="14" r:id="rId16"/>
-    <sheet name="S" sheetId="3" r:id="rId17"/>
-    <sheet name="T" sheetId="16" r:id="rId18"/>
-    <sheet name="U" sheetId="6" r:id="rId19"/>
-    <sheet name="V" sheetId="24" r:id="rId20"/>
-    <sheet name="W" sheetId="12" r:id="rId21"/>
-    <sheet name="X" sheetId="19" r:id="rId22"/>
+    <sheet name="J" sheetId="25" r:id="rId10"/>
+    <sheet name="L" sheetId="17" r:id="rId11"/>
+    <sheet name="M" sheetId="15" r:id="rId12"/>
+    <sheet name="N" sheetId="21" r:id="rId13"/>
+    <sheet name="O" sheetId="18" r:id="rId14"/>
+    <sheet name="P" sheetId="9" r:id="rId15"/>
+    <sheet name="Q" sheetId="23" r:id="rId16"/>
+    <sheet name="R" sheetId="14" r:id="rId17"/>
+    <sheet name="S" sheetId="3" r:id="rId18"/>
+    <sheet name="T" sheetId="16" r:id="rId19"/>
+    <sheet name="U" sheetId="6" r:id="rId20"/>
+    <sheet name="V" sheetId="24" r:id="rId21"/>
+    <sheet name="W" sheetId="12" r:id="rId22"/>
+    <sheet name="X" sheetId="19" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441">
   <si>
     <t>Synonyms</t>
   </si>
@@ -226,6 +227,80 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>appraisal
+[ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>preɪzl]</t>
+    </r>
+  </si>
+  <si>
+    <t>1.a judgement of the value, performance or nature of sb/sth 评价；估价；估计；鉴定
+2.a meeting in which an employee discusses with their manager how well they have been doing their job; the system of holding such meetings （上司对雇员的）工作鉴定会；工作表现评估</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.He had read many detailed critical </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>appraisals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of her work. 他读了许多详细评论她的作品的文章
+2.staff/performance </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>appraisal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 员工╱工作表现评估</t>
+    </r>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
@@ -426,6 +501,33 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>canape
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kænəpeɪ]</t>
+    </r>
+  </si>
+  <si>
+    <t>a small biscuit or piece of bread with cheese, meat, fish, etc. on it, usually served with drinks at a party 小饼干，面包片，开胃饼（上面附有奶酪、肉、鱼等，通常在聚会上与饮料一起提供</t>
   </si>
   <si>
     <t>捐助；插嘴；下赌注</t>
@@ -540,6 +642,164 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>collateral
+[kə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lætərəl]</t>
+    </r>
+  </si>
+  <si>
+    <t>( finance 财 ) property or sth valuable that you promise to give to sb if you cannot pay back money that you borrow 抵押物；担保品</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She used/put up her house as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>collateral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for a loan.</t>
+    </r>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>1.( BrE ) a person whose job is to collect money from passengers on a bus or check their tickets （公共汽车的）售票员
+2.( physics 物 ) a substance that allows electricity or heat to pass along it or through it 导体（导电或导热等的物质）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.A bus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>conductor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 公共汽车售票员
+2.Wood is a poor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>conductor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 木头不是良好的导体。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>confidante
+ [,k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ɒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nfɪ'dænt]</t>
+    </r>
+  </si>
+  <si>
+    <t>知心女友，女性知己</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You are her closest friend and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>confidante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+你是她最亲密的朋友和红颜知己</t>
+    </r>
+  </si>
+  <si>
     <t>感染,infect with</t>
   </si>
   <si>
@@ -578,58 +838,6 @@
         <charset val="134"/>
       </rPr>
       <t>coronavirus after Chinese colleague visits</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>collateral
-[kə</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ˈ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lætərəl]</t>
-    </r>
-  </si>
-  <si>
-    <t>( finance 财 ) property or sth valuable that you promise to give to sb if you cannot pay back money that you borrow 抵押物；担保品</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She used/put up her house as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>collateral</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> for a loan.</t>
     </r>
   </si>
   <si>
@@ -1236,6 +1444,15 @@
     </r>
   </si>
   <si>
+    <t>doable</t>
+  </si>
+  <si>
+    <t>able to be done 可做；可行</t>
+  </si>
+  <si>
+    <t>It's not doable by Friday. 这事星期五之前做不了</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">dour
  [dʊər; </t>
@@ -1731,6 +1948,60 @@
     </r>
   </si>
   <si>
+    <t>goof around</t>
+  </si>
+  <si>
+    <t>消磨时间；随便玩玩;混时间</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.If not, just </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">goof around </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">today, and get back to work tomorrow.
+如果不行，今天就放松好了，明天再开始好好工作
+2.Monica: Well uh, you and I are just </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>goofing around</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, I thought, why not goof around with him.
+莫妮卡：嗯，你和我只是玩玩而已，我想为什么不和他玩玩呢？</t>
+    </r>
+  </si>
+  <si>
     <t>go over</t>
   </si>
   <si>
@@ -1829,6 +2100,59 @@
     </r>
   </si>
   <si>
+    <t>grope</t>
+  </si>
+  <si>
+    <t>1.~ (around)(for sth) to try and find sth that you cannot see, by feeling with your hands 摸索；搜索；搜寻；探寻
+2.to try and reach a place by feeling with your hands because you cannot see clearly （用手）摸索着往前走</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>groped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> around in the dark for his other sock. 他在黑暗中到处瞎摸找另一只袜子
+2.He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>groped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> his way up the staircase in the dark. 他摸黑走上楼梯。</t>
+    </r>
+  </si>
+  <si>
     <t>haggle</t>
   </si>
   <si>
@@ -2247,6 +2571,41 @@
     </r>
   </si>
   <si>
+    <t>endanger</t>
+  </si>
+  <si>
+    <t>jeopardise</t>
+  </si>
+  <si>
+    <t>to put something such as a plan or system in danger of being harmed or damagedn 危及（等于jeopardize）；使…受危险</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Why should either want to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jeopardise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this relationship?
+那么为什么双方会想要破坏这段关系呢？</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>laundromat
 [</t>
@@ -2574,6 +2933,38 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> descended on us. 一种悲伤的情绪袭上我们的心头</t>
+    </r>
+  </si>
+  <si>
+    <t>mentee
+[ˌmenˈtiː]</t>
+  </si>
+  <si>
+    <t>学习者，学员</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is the mentor's job to help the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mentee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> find their own solutions rather than plunging straight into,</t>
     </r>
   </si>
   <si>
@@ -3248,6 +3639,46 @@
     </r>
   </si>
   <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>prejudice</t>
+  </si>
+  <si>
+    <t>~ (against sb/sth) an unreasonable dislike of or preference for a person, group, custom, etc., especially when it is based on their race, religion, sex, etc. 偏见；成见</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Their decision was based on ignorance and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prejudice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 他们的决定是由于无知和偏见</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>preponderance
  [prɪ</t>
@@ -3419,43 +3850,74 @@
     </r>
   </si>
   <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>prejudice</t>
-  </si>
-  <si>
-    <t>~ (against sb/sth) an unreasonable dislike of or preference for a person, group, custom, etc., especially when it is based on their race, religion, sex, etc. 偏见；成见</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Their decision was based on ignorance and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>prejudice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>. 他们的决定是由于无知和偏见</t>
+    <r>
+      <t>prophet
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ɒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fɪt]</t>
+    </r>
+  </si>
+  <si>
+    <t>a person who claims to know what will happen in the future 预言家；预言者</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He holds the belief that he is a latter-day </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prophet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+他深信自己是当代先知。</t>
     </r>
   </si>
   <si>
@@ -4464,8 +4926,7 @@
     <t>testimony</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. (to sth) a thing that shows that sth else exists or is true 证据；证明
+    <t>1. (to sth) a thing that shows that sth else exists or is true 证据；证明
 2.a formal written or spoken statement saying what you know to be true, usually in court 证词；证言；口供</t>
   </si>
   <si>
@@ -4521,6 +4982,46 @@
     </r>
   </si>
   <si>
+    <t>testis</t>
+  </si>
+  <si>
+    <t>[解剖] 睾丸</t>
+  </si>
+  <si>
+    <t>angry;annoyed</t>
+  </si>
+  <si>
+    <t>testy</t>
+  </si>
+  <si>
+    <t>If you describe someone as testy, you mean that they easily become impatient or angry. 急躁的; 易怒的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ben's getting a little </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>testy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in his old age. </t>
+    </r>
+  </si>
+  <si>
     <t>throw off biological clock</t>
   </si>
   <si>
@@ -4671,10 +5172,44 @@
     </r>
   </si>
   <si>
+    <t>veneer
+ [vəˈnɪər]</t>
+  </si>
+  <si>
+    <t>a thin layer of wood or plastic that is glued to the surface of cheaper wood, especially on a piece of furniture 饰面薄板，薄片镶饰（尤用于家具上）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The wood was cut into large sheets of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>veneer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+这些木料被切割成了大块的饰面薄板</t>
+    </r>
+  </si>
+  <si>
     <t>disgusting</t>
   </si>
   <si>
-    <t>vile</t>
+    <t>vile
+ [vaɪl]</t>
   </si>
   <si>
     <t>1.( informal ) extremely unpleasant or bad 糟糕透顶的；可恶的；极坏的
@@ -6045,6 +6580,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6105,9 +6643,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6466,17 +7001,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
     <col min="2" max="2" width="27" style="20" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="39" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="40" customWidth="1"/>
     <col min="4" max="4" width="47.7777777777778" style="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6530,7 +7065,7 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -6551,18 +7086,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="141" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="124" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15" t="s">
+    </row>
+    <row r="7" ht="141" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6572,6 +7119,60 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="23.7222222222222" customWidth="1"/>
+    <col min="3" max="3" width="29.2777777777778" customWidth="1"/>
+    <col min="4" max="4" width="25.9722222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="71" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -6584,9 +7185,9 @@
   <cols>
     <col min="1" max="1" width="30.8333333333333" style="20" customWidth="1"/>
     <col min="2" max="2" width="34.3333333333333" style="44" customWidth="1"/>
-    <col min="3" max="3" width="48.0277777777778" style="39" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="39" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="39"/>
+    <col min="3" max="3" width="48.0277777777778" style="40" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="40"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -6607,61 +7208,61 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="45" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+        <v>205</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="45" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="39"/>
+        <v>208</v>
+      </c>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="45" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="39"/>
+        <v>211</v>
+      </c>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A5" s="20"/>
       <c r="B5" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>189</v>
+        <v>212</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6670,16 +7271,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="33.2152777777778" customWidth="1"/>
     <col min="2" max="2" width="21.1805555555556" customWidth="1"/>
@@ -6706,53 +7307,65 @@
     </row>
     <row r="2" ht="53" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>196</v>
+        <v>218</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" ht="71" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="19" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>199</v>
+        <v>222</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" ht="81" customHeight="1" spans="2:4">
-      <c r="B5" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>206</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" ht="84" customHeight="1" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" ht="81" customHeight="1" spans="2:4">
+      <c r="B6" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6761,7 +7374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -6796,24 +7409,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6822,7 +7435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E9"/>
@@ -6858,32 +7471,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -6894,13 +7507,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -6908,7 +7521,7 @@
     <col min="1" max="1" width="40.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" style="6" customWidth="1"/>
     <col min="3" max="3" width="22.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="21.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -6930,256 +7543,269 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
-      <c r="A4" s="22" t="s">
-        <v>226</v>
+      <c r="A4" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="22"/>
+        <v>254</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
-      <c r="A5" s="22" t="s">
-        <v>228</v>
+      <c r="A5" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="22"/>
+        <v>257</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A7" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
-      <c r="A8" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>240</v>
+      <c r="A8" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="22"/>
+        <v>268</v>
+      </c>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
-      <c r="A9" s="22"/>
-      <c r="B9" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>243</v>
+      <c r="A9" s="23"/>
+      <c r="B9" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>270</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>271</v>
+      </c>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" ht="71" spans="1:5">
-      <c r="A10" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" ht="53" spans="1:5">
-      <c r="A11" s="22"/>
-      <c r="B11" s="40" t="s">
-        <v>248</v>
+      <c r="A11" s="23"/>
+      <c r="B11" s="41" t="s">
+        <v>275</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="22"/>
+        <v>276</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" ht="124" spans="1:5">
-      <c r="A12" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>253</v>
+      <c r="A12" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>280</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="22"/>
+        <v>281</v>
+      </c>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" ht="212" spans="1:5">
-      <c r="A13" s="22"/>
-      <c r="B13" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>256</v>
+      <c r="A13" s="23"/>
+      <c r="B13" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>283</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" ht="106" spans="1:5">
-      <c r="A14" s="22"/>
-      <c r="B14" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>259</v>
+        <v>284</v>
+      </c>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" ht="124" spans="1:5">
+      <c r="A14" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>287</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="22"/>
+        <v>288</v>
+      </c>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" ht="106" spans="1:5">
-      <c r="A15" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>263</v>
+      <c r="A15" s="23"/>
+      <c r="B15" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>290</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" ht="141" spans="1:5">
-      <c r="A16" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>267</v>
+        <v>291</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" ht="106" spans="1:5">
+      <c r="A16" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>294</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" ht="124" spans="1:5">
-      <c r="A17" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>271</v>
+        <v>295</v>
+      </c>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" ht="106" spans="1:5">
+      <c r="A17" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" ht="106" spans="1:5">
-      <c r="A18" s="22"/>
-      <c r="B18" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>274</v>
+        <v>299</v>
+      </c>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" ht="80" customHeight="1" spans="1:5">
+      <c r="A18" s="23"/>
+      <c r="B18" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>301</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="22"/>
+        <v>302</v>
+      </c>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" ht="106" spans="1:5">
-      <c r="A19" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="E19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" ht="106" spans="1:5">
+      <c r="A20" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="23"/>
     </row>
   </sheetData>
-  <sortState ref="A1:E8">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:E19">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -7214,13 +7840,13 @@
     </row>
     <row r="2" ht="71" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7229,7 +7855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -7265,75 +7891,75 @@
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>287</v>
+        <v>316</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>317</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>297</v>
+        <v>326</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>327</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" ht="36" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -7342,7 +7968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E13"/>
@@ -7356,8 +7982,8 @@
     <col min="1" max="1" width="16.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="25" style="14" customWidth="1"/>
     <col min="3" max="3" width="30.3333333333333" style="15" customWidth="1"/>
-    <col min="4" max="4" width="32.8333333333333" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="28"/>
+    <col min="4" max="4" width="32.8333333333333" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="29"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -7378,154 +8004,154 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
-      <c r="B2" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>303</v>
+      <c r="B2" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
-      <c r="A3" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" s="26" customFormat="1" ht="152" spans="1:4">
-      <c r="A4" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" s="26" customFormat="1" ht="51" spans="1:4">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" s="26" customFormat="1" ht="68" spans="1:4">
-      <c r="A6" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" s="26" customFormat="1" ht="106" customHeight="1" spans="1:4">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" s="26" customFormat="1" ht="84" spans="1:4">
-      <c r="A8" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" s="26" customFormat="1" ht="101" spans="1:4">
-      <c r="A9" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" s="26" customFormat="1" ht="132" customHeight="1" spans="1:4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34" t="s">
-        <v>330</v>
+      <c r="A3" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" s="27" customFormat="1" ht="152" spans="1:4">
+      <c r="A4" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" s="27" customFormat="1" ht="51" spans="1:4">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" s="27" customFormat="1" ht="68" spans="1:4">
+      <c r="A6" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" s="27" customFormat="1" ht="106" customHeight="1" spans="1:4">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="84" spans="1:4">
+      <c r="A8" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" s="27" customFormat="1" ht="101" spans="1:4">
+      <c r="A9" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" s="27" customFormat="1" ht="132" customHeight="1" spans="1:4">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="11" ht="159" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" ht="18" spans="2:4">
       <c r="B12" s="14" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" ht="88" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>339</v>
+        <v>368</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>369</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -7534,16 +8160,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="153" zoomScaleNormal="153" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="153" zoomScaleNormal="153" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="33.0486111111111" customWidth="1"/>
     <col min="2" max="2" width="21.8333333333333" customWidth="1"/>
@@ -7570,49 +8196,73 @@
     </row>
     <row r="2" ht="88" customHeight="1" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" ht="171" customHeight="1" spans="1:4">
       <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" ht="171" customHeight="1" spans="1:4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="1:4">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" ht="71" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>349</v>
+    <row r="5" ht="87" customHeight="1" spans="1:4">
+      <c r="A5" s="19" t="s">
+        <v>379</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>352</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" ht="64" customHeight="1" spans="1:4">
+      <c r="A6" s="19"/>
+      <c r="B6" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" ht="71" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -7621,7 +8271,228 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28" style="57" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="57" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" style="57" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="57" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="36" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" ht="94" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" ht="94" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" ht="71" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="20"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="20"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="20"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="20"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="20"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="20"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="20"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="20"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="20"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="20"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="20"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="20"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="20"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="20"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7643,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -7657,33 +8528,33 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="E2" s="25"/>
+        <v>390</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>359</v>
+        <v>394</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>395</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="25"/>
+        <v>397</v>
+      </c>
+      <c r="E3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7692,237 +8563,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="57" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="57" customWidth="1"/>
-    <col min="4" max="4" width="32.3333333333333" style="57" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="57" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="57"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="36" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" ht="94" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" ht="94" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" ht="71" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="20"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="20"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="20"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="20"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="20"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="20"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="20"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="20"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="20"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="20"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="20"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="45.9513888888889" customWidth="1"/>
     <col min="4" max="4" width="25.4305555555556" customWidth="1"/>
@@ -7945,18 +8595,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="141" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>365</v>
+    <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" ht="141" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -7965,7 +8628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E26"/>
@@ -8002,128 +8665,128 @@
     <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="18" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" ht="58" customHeight="1" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" ht="58" customHeight="1" spans="1:4">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" ht="121" customHeight="1" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" ht="121" customHeight="1" spans="1:4">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" ht="121" customHeight="1" spans="1:4">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" ht="53" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" ht="71" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" ht="53" spans="1:4">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -8177,7 +8840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -8199,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -8213,13 +8876,13 @@
     </row>
     <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -8231,19 +8894,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.8125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7569444444444" style="20" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="39" customWidth="1"/>
-    <col min="4" max="4" width="22.6666666666667" style="39" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="39"/>
+    <col min="3" max="3" width="24.6666666666667" style="40" customWidth="1"/>
+    <col min="4" max="4" width="22.6666666666667" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="40"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -8265,114 +8928,150 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="124" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" s="56" customFormat="1" spans="1:5">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="123" customHeight="1" spans="2:4">
+      <c r="B3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" s="56" customFormat="1" ht="71" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" s="56" customFormat="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" s="56" customFormat="1" ht="124" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="22" t="s">
         <v>49</v>
       </c>
+      <c r="B5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" s="56" customFormat="1" ht="71" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" ht="71" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" s="56" customFormat="1" ht="124" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="23" t="s">
         <v>54</v>
       </c>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="D7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" ht="88" spans="2:5">
       <c r="B8" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="106" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>59</v>
+    <row r="9" ht="159" spans="2:5">
+      <c r="B9" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="71" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    <row r="10" ht="71" spans="2:5">
+      <c r="B10" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="C10" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="D10" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="71" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" ht="106" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" ht="71" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -8381,10 +9080,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -8392,7 +9091,7 @@
     <col min="1" max="1" width="22.8333333333333" style="54" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29" style="37" customWidth="1"/>
+    <col min="4" max="4" width="29" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -8414,195 +9113,208 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="22" t="s">
-        <v>67</v>
+      <c r="B3" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="25"/>
+        <v>79</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="22" t="s">
-        <v>77</v>
+      <c r="B6" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>81</v>
+      <c r="B7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
-      <c r="B8" s="22" t="s">
-        <v>83</v>
+      <c r="B8" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="25"/>
+        <v>96</v>
+      </c>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>87</v>
+        <v>97</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="25"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A10" s="2"/>
-      <c r="B10" s="40" t="s">
-        <v>90</v>
+      <c r="B10" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="25"/>
+        <v>107</v>
+      </c>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="159" spans="1:5">
+        <v>114</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A14" s="2"/>
-      <c r="B14" s="40" t="s">
-        <v>105</v>
+      <c r="B14" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="36" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="25"/>
+        <v>117</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" ht="36" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8647,69 +9359,69 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" ht="212" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>127</v>
+        <v>140</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" ht="53" spans="2:3">
-      <c r="B7" s="43" t="s">
-        <v>128</v>
+      <c r="B7" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -8755,41 +9467,41 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="36" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -8801,13 +9513,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.5416666666667" customWidth="1"/>
     <col min="3" max="3" width="30.2152777777778" customWidth="1"/>
@@ -8833,52 +9545,76 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A2"/>
-      <c r="B2" s="43" t="s">
-        <v>140</v>
+      <c r="B2" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" ht="106" spans="2:4">
+    <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" ht="124" spans="2:4">
+        <v>163</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" ht="106" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>152</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" ht="124" spans="2:4">
+      <c r="B6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" ht="124" spans="2:4">
+      <c r="B7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -8898,11 +9634,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="15.7638888888889" style="28" customWidth="1"/>
-    <col min="3" max="3" width="40.6666666666667" style="28" customWidth="1"/>
-    <col min="4" max="4" width="22.3333333333333" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="28"/>
+    <col min="1" max="1" width="17.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="15.7638888888889" style="29" customWidth="1"/>
+    <col min="3" max="3" width="40.6666666666667" style="29" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="29"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -8923,41 +9659,41 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
-        <v>153</v>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="28"/>
+        <v>174</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>159</v>
+        <v>178</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -9004,36 +9740,36 @@
     <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4"/>
@@ -9041,40 +9777,40 @@
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" ht="53" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>178</v>
+        <v>197</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470">
   <si>
     <t>Synonyms</t>
   </si>
@@ -164,6 +164,39 @@
     </r>
   </si>
   <si>
+    <t>aloof</t>
+  </si>
+  <si>
+    <t>[ not usually before noun ] not friendly or interested in other people 冷漠；冷淡
+keep/hold (yourself) aloof | remain/stand aloof
+to not become involved in sth; to show no interest in people 不参与；远离；无动于衷；漠不关心</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Emperor kept himself </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aloof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from the people. 这个皇帝对人民漠不关心。</t>
+    </r>
+  </si>
+  <si>
     <t>equipment</t>
   </si>
   <si>
@@ -467,6 +500,17 @@
   </si>
   <si>
     <t>a person employed to stand at the entrance to a club, pub, etc. to stop people who are not wanted from going in, and to throw out people who are causing trouble inside （俱乐部、酒店等的）门卫，保安</t>
+  </si>
+  <si>
+    <t>breezy</t>
+  </si>
+  <si>
+    <t>1.with the wind blowing quite strongly 通风良好的；有微风的
+2.having or showing a cheerful and relaxed manner 轻松愉快的</t>
+  </si>
+  <si>
+    <t>1.It was a bright, breezy day. 那天和风丽日
+2.You're very bright and breezy today! 你今天精神焕发！</t>
   </si>
   <si>
     <t>can not make ends meet</t>
@@ -640,6 +684,16 @@
       </rPr>
       <t xml:space="preserve"> of family life.</t>
     </r>
+  </si>
+  <si>
+    <t>clogged</t>
+  </si>
+  <si>
+    <t>When something clogs a hole or place, it blocks it so that nothing can pass through. 堵塞</t>
+  </si>
+  <si>
+    <t>The narrow streets were clogged with traffic.
+狭窄的街道上交通堵塞。</t>
   </si>
   <si>
     <r>
@@ -1151,6 +1205,79 @@
     </r>
   </si>
   <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <r>
+      <t>dingy
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dɪnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ʒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i]</t>
+    </r>
+  </si>
+  <si>
+    <t>dark and dirty 又黑又脏的；昏暗的；肮脏的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dingy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> room/hotel 又黑又脏的房间╱旅馆</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>discretion
 [dɪ</t>
@@ -2002,6 +2129,38 @@
     </r>
   </si>
   <si>
+    <t>go commando
+ [kəˈmɑːndəʊ]</t>
+  </si>
+  <si>
+    <t>wear no underwear</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can go </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>commando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 你可以不穿内裤出门</t>
+    </r>
+  </si>
+  <si>
     <t>go over</t>
   </si>
   <si>
@@ -2153,6 +2312,37 @@
     </r>
   </si>
   <si>
+    <t>grumpy</t>
+  </si>
+  <si>
+    <t>( informal ) bad-tempered 脾气坏的；性情暴躁的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do your kids go off to school feeling calm and confident? Or are they upset and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>grumpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
     <t>haggle</t>
   </si>
   <si>
@@ -3922,6 +4112,60 @@
   </si>
   <si>
     <r>
+      <t>prospectus
+ [prə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>spektəs]</t>
+    </r>
+  </si>
+  <si>
+    <t>1.A book or printed document that gives information about a school, college, etc. in order to advertise it （学校的）简章，简介
+2.( business 商 ) a document that gives information about a company's shares before they are offered for sale （企业的）招股章程， 募股章程</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They disclosed it all in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prospectus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, albeit in fine print.
+这些投行在发售说明书里披露了完整的情况，尽管是用小字印刷的</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>psychic
  [</t>
     </r>
@@ -4884,11 +5128,36 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">adj. 望远镜的；[眼科] 远视的；套管式伸缩的；眼力好的；有先见之明的
+    <t>tarmac
+ [ˈtɑːmæk]</t>
+  </si>
+  <si>
+    <t>柏油碎石路面；铺有柏油碎石的飞机跑道</t>
+  </si>
+  <si>
+    <r>
+      <t>tarmac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> road 沥青路</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>telescopic</t>
+    <t>telescopic
+ [ˌtelɪˈskɒpɪk]</t>
+  </si>
+  <si>
+    <t>connected with or using a telescope ; making things look larger as a telescope does 望远镜的；望远的；放大的</t>
   </si>
   <si>
     <r>
@@ -5338,6 +5607,39 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> over me.</t>
+    </r>
+  </si>
+  <si>
+    <t>wedge</t>
+  </si>
+  <si>
+    <t>1.something that is shaped like a wedge or that is used like a wedge 楔形物；用作楔子的东西（垫门的锲子）
+2.不和</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This issue could drive an even bigger </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wedge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> between the red and blue states.
+这个问题可能会进一步造成红色选区和蓝色选区之间的不和</t>
     </r>
   </si>
   <si>
@@ -5768,12 +6070,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="12"/>
@@ -5781,6 +6077,12 @@
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6515,7 +6817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6596,6 +6898,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6604,16 +6909,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6657,13 +6962,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6682,6 +6987,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7001,17 +7309,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
     <col min="2" max="2" width="27" style="20" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="40" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="41" customWidth="1"/>
     <col min="4" max="4" width="47.7777777777778" style="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7040,7 +7348,7 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E2"/>
@@ -7065,30 +7373,30 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="176" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="124" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15" t="s">
+    </row>
+    <row r="6" ht="176" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="124" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -7098,18 +7406,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="141" spans="1:4">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="124" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15" t="s">
+    </row>
+    <row r="8" ht="141" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -7154,16 +7474,16 @@
     </row>
     <row r="2" ht="71" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7184,10 +7504,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.8333333333333" style="20" customWidth="1"/>
-    <col min="2" max="2" width="34.3333333333333" style="44" customWidth="1"/>
-    <col min="3" max="3" width="48.0277777777778" style="40" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="40" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="40"/>
+    <col min="2" max="2" width="34.3333333333333" style="45" customWidth="1"/>
+    <col min="3" max="3" width="48.0277777777778" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="41"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -7208,61 +7528,61 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A2" s="40"/>
-      <c r="B2" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A3" s="40"/>
-      <c r="B3" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="40"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="40"/>
-      <c r="B4" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A5" s="20"/>
       <c r="B5" s="14" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>214</v>
+        <v>232</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>233</v>
       </c>
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7307,65 +7627,65 @@
     </row>
     <row r="2" ht="53" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>220</v>
+        <v>237</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3" ht="71" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="19" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>223</v>
+        <v>241</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="19" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" ht="81" customHeight="1" spans="2:4">
       <c r="B6" s="22" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7409,24 +7729,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7471,32 +7791,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -7510,17 +7830,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="40.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.5277777777778" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="34.9861111111111" customWidth="1"/>
     <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7543,258 +7863,271 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A4" s="23" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="40"/>
+        <v>273</v>
+      </c>
+      <c r="C4" s="41"/>
       <c r="D4" s="26"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A5" s="23" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>258</v>
+        <v>276</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>263</v>
+        <v>281</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>282</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A8" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>266</v>
+        <v>284</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>285</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A9" s="23"/>
-      <c r="B9" s="41" t="s">
-        <v>269</v>
+      <c r="B9" s="42" t="s">
+        <v>288</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10" ht="71" spans="1:5">
       <c r="A10" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>273</v>
+        <v>291</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>292</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="23"/>
     </row>
     <row r="11" ht="53" spans="1:5">
       <c r="A11" s="23"/>
-      <c r="B11" s="41" t="s">
-        <v>275</v>
+      <c r="B11" s="42" t="s">
+        <v>294</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12" ht="124" spans="1:5">
       <c r="A12" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>279</v>
+        <v>297</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>298</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="E12" s="23"/>
     </row>
     <row r="13" ht="212" spans="1:5">
       <c r="A13" s="23"/>
-      <c r="B13" s="41" t="s">
-        <v>282</v>
+      <c r="B13" s="42" t="s">
+        <v>301</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" ht="124" spans="1:5">
       <c r="A14" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>286</v>
+        <v>304</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>305</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E14" s="23"/>
     </row>
     <row r="15" ht="106" spans="1:5">
       <c r="A15" s="23"/>
-      <c r="B15" s="41" t="s">
-        <v>289</v>
+      <c r="B15" s="42" t="s">
+        <v>308</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" ht="106" spans="1:5">
       <c r="A16" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>293</v>
+        <v>311</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>312</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" ht="106" spans="1:5">
       <c r="A17" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>297</v>
+        <v>315</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>316</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="80" customHeight="1" spans="1:5">
       <c r="A18" s="23"/>
-      <c r="B18" s="41" t="s">
-        <v>300</v>
+      <c r="B18" s="42" t="s">
+        <v>319</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" ht="106" spans="1:5">
+    <row r="19" ht="179" customHeight="1" spans="1:5">
       <c r="A19" s="23"/>
-      <c r="B19" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>304</v>
+      <c r="B19" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="106" spans="1:5">
-      <c r="A20" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>309</v>
+      <c r="A20" s="23"/>
+      <c r="B20" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="E20" s="23"/>
+    </row>
+    <row r="21" ht="106" spans="1:5">
+      <c r="A21" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:E19">
@@ -7840,13 +8173,13 @@
     </row>
     <row r="2" ht="71" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -7891,75 +8224,75 @@
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>317</v>
+        <v>338</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>339</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>327</v>
+        <v>348</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>349</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" ht="36" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7982,8 +8315,8 @@
     <col min="1" max="1" width="16.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="25" style="14" customWidth="1"/>
     <col min="3" max="3" width="30.3333333333333" style="15" customWidth="1"/>
-    <col min="4" max="4" width="32.8333333333333" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="29"/>
+    <col min="4" max="4" width="32.8333333333333" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="30"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -8004,154 +8337,154 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
-      <c r="B2" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>333</v>
+      <c r="B2" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
-      <c r="A3" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" s="27" customFormat="1" ht="152" spans="1:4">
-      <c r="A4" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" s="27" customFormat="1" ht="51" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" s="27" customFormat="1" ht="68" spans="1:4">
-      <c r="A6" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="7" s="27" customFormat="1" ht="106" customHeight="1" spans="1:4">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" s="27" customFormat="1" ht="84" spans="1:4">
-      <c r="A8" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" s="27" customFormat="1" ht="101" spans="1:4">
-      <c r="A9" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="10" s="27" customFormat="1" ht="132" customHeight="1" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35" t="s">
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" s="28" customFormat="1" ht="152" spans="1:4">
+      <c r="A4" s="35" t="s">
         <v>360</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" s="28" customFormat="1" ht="51" spans="1:4">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" s="28" customFormat="1" ht="68" spans="1:4">
+      <c r="A6" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" s="28" customFormat="1" ht="106" customHeight="1" spans="1:4">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" s="28" customFormat="1" ht="84" spans="1:4">
+      <c r="A8" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" s="28" customFormat="1" ht="101" spans="1:4">
+      <c r="A9" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" s="28" customFormat="1" ht="132" customHeight="1" spans="1:4">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="11" ht="159" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" ht="18" spans="2:4">
       <c r="B12" s="14" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" ht="88" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>369</v>
+        <v>390</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>391</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -8163,15 +8496,15 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="153" zoomScaleNormal="153" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="153" zoomScaleNormal="153" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="33.0486111111111" customWidth="1"/>
+    <col min="1" max="1" width="16.0347222222222" customWidth="1"/>
     <col min="2" max="2" width="21.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="52.5" customWidth="1"/>
@@ -8194,75 +8527,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="88" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" ht="171" customHeight="1" spans="1:4">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>375</v>
+    <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" ht="88" customHeight="1" spans="1:4">
+      <c r="A3" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" ht="60" customHeight="1" spans="1:4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" ht="171" customHeight="1" spans="1:4">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" ht="87" customHeight="1" spans="1:4">
-      <c r="A5" s="19" t="s">
-        <v>379</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:4">
+      <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" ht="64" customHeight="1" spans="1:4">
-      <c r="A6" s="19"/>
+        <v>404</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" ht="87" customHeight="1" spans="1:4">
+      <c r="A6" s="19" t="s">
+        <v>405</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" ht="71" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>385</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" ht="64" customHeight="1" spans="1:4">
+      <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>388</v>
+        <v>410</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" ht="71" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -8277,17 +8626,17 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="57" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="57" customWidth="1"/>
-    <col min="4" max="4" width="32.3333333333333" style="57" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="57" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="57"/>
+    <col min="2" max="2" width="28" style="58" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="58" customWidth="1"/>
+    <col min="4" max="4" width="40.7708333333333" style="58" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="58" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="58"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -8309,182 +8658,188 @@
     </row>
     <row r="2" ht="36" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="40"/>
+        <v>32</v>
+      </c>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" ht="18" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" ht="94" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+        <v>37</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" ht="94" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="40"/>
+        <v>40</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" ht="71" spans="1:5">
       <c r="A7" s="20"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="20"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="20"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="20"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="20"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8514,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -8528,31 +8883,31 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -8598,28 +8953,28 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="22" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="141" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -8631,10 +8986,10 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -8665,132 +9020,142 @@
     <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" ht="18" spans="1:4">
-      <c r="A3" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" ht="58" customHeight="1" spans="1:4">
-      <c r="A4" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>415</v>
+    <row r="3" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="18" spans="1:4">
+      <c r="A4" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="5" ht="58" customHeight="1" spans="1:4">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>441</v>
+      </c>
       <c r="B5" s="14" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" ht="121" customHeight="1" spans="1:4">
+        <v>443</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" ht="58" customHeight="1" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>420</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" ht="121" customHeight="1" spans="1:4">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>423</v>
+        <v>448</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="8" ht="121" customHeight="1" spans="1:4">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" ht="53" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" ht="71" spans="1:4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" ht="121" customHeight="1" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" ht="53" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>432</v>
+        <v>456</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" ht="53" spans="1:4">
-      <c r="A11" s="20"/>
-      <c r="B11" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" ht="71" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" ht="53" spans="1:4">
       <c r="A12" s="20"/>
+      <c r="B12" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="20"/>
@@ -8833,6 +9198,9 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="20"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8862,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -8876,13 +9244,13 @@
     </row>
     <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -8894,19 +9262,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.8125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7569444444444" style="20" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="40" customWidth="1"/>
-    <col min="4" max="4" width="22.6666666666667" style="40" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="40"/>
+    <col min="3" max="3" width="24.6666666666667" style="41" customWidth="1"/>
+    <col min="4" max="4" width="22.6666666666667" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="41"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -8928,144 +9296,157 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="123" customHeight="1" spans="2:4">
       <c r="B3" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" s="56" customFormat="1" spans="1:5">
+    <row r="5" s="57" customFormat="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" s="56" customFormat="1" ht="71" spans="1:5">
+    <row r="6" s="57" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="40"/>
+        <v>59</v>
+      </c>
+      <c r="D6" s="41"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" s="56" customFormat="1" ht="124" spans="1:5">
+    <row r="7" s="57" customFormat="1" ht="124" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" ht="88" spans="2:5">
-      <c r="B8" s="14" t="s">
-        <v>57</v>
+    <row r="8" s="57" customFormat="1" ht="71" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="159" spans="2:5">
+        <v>65</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="88" spans="2:5">
       <c r="B9" s="14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="71" spans="2:5">
+    <row r="10" ht="159" spans="2:5">
       <c r="B10" s="14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" ht="71" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
+    <row r="11" ht="71" spans="2:5">
+      <c r="B11" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" ht="106" spans="2:5">
+    <row r="12" ht="71" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" ht="71" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
+    <row r="13" ht="106" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" ht="71" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -9080,18 +9461,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8333333333333" style="54" customWidth="1"/>
+    <col min="1" max="1" width="22.8333333333333" style="55" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29" style="38" customWidth="1"/>
+    <col min="4" max="4" width="29" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -9113,10 +9494,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
@@ -9125,196 +9506,211 @@
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>88</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E3" s="26"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="23" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="23" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="124" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="41" t="s">
-        <v>101</v>
+    <row r="10" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="212" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>105</v>
+    <row r="11" s="1" customFormat="1" ht="124" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="42" t="s">
+        <v>114</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E11" s="26"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="141" spans="1:5">
+    <row r="12" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="88" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A14" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="88" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="B14" s="23" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="159" spans="1:5">
+    <row r="15" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="41" t="s">
-        <v>119</v>
+      <c r="B15" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="E15" s="26"/>
     </row>
-    <row r="16" ht="36" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>125</v>
+    <row r="16" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="E16" s="26"/>
+    </row>
+    <row r="17" ht="36" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9359,69 +9755,69 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" ht="212" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>141</v>
+        <v>152</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="53" spans="2:3">
       <c r="B7" s="22" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -9467,41 +9863,41 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>146</v>
+        <v>158</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>159</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="36" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9513,13 +9909,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.5416666666667" customWidth="1"/>
     <col min="3" max="3" width="30.2152777777778" customWidth="1"/>
@@ -9546,75 +9942,99 @@
     <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="22" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>156</v>
+        <v>168</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>169</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" ht="106" spans="2:4">
-      <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>165</v>
+    <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" ht="124" spans="2:4">
+        <v>179</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" ht="106" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" ht="124" spans="2:4">
-      <c r="B7" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>172</v>
+      <c r="B7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" ht="124" spans="2:4">
+      <c r="B8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" ht="53" spans="2:4">
+      <c r="B9" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -9634,11 +10054,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="15.7638888888889" style="29" customWidth="1"/>
-    <col min="3" max="3" width="40.6666666666667" style="29" customWidth="1"/>
-    <col min="4" max="4" width="22.3333333333333" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="29"/>
+    <col min="1" max="1" width="17.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15.7638888888889" style="30" customWidth="1"/>
+    <col min="3" max="3" width="40.6666666666667" style="30" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="30"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -9659,41 +10079,41 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9740,36 +10160,36 @@
     <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>184</v>
+        <v>202</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>203</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4"/>
@@ -9777,40 +10197,40 @@
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" ht="53" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>198</v>
+        <v>216</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,39 +4,52 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="A" sheetId="1" r:id="rId1"/>
-    <sheet name="B" sheetId="2" r:id="rId2"/>
-    <sheet name="C" sheetId="7" r:id="rId3"/>
-    <sheet name="D" sheetId="8" r:id="rId4"/>
-    <sheet name="E" sheetId="10" r:id="rId5"/>
-    <sheet name="F" sheetId="13" r:id="rId6"/>
-    <sheet name="G" sheetId="22" r:id="rId7"/>
-    <sheet name="H" sheetId="4" r:id="rId8"/>
-    <sheet name="I" sheetId="20" r:id="rId9"/>
-    <sheet name="J" sheetId="25" r:id="rId10"/>
-    <sheet name="L" sheetId="17" r:id="rId11"/>
-    <sheet name="M" sheetId="15" r:id="rId12"/>
-    <sheet name="N" sheetId="21" r:id="rId13"/>
-    <sheet name="O" sheetId="18" r:id="rId14"/>
-    <sheet name="P" sheetId="9" r:id="rId15"/>
-    <sheet name="Q" sheetId="23" r:id="rId16"/>
-    <sheet name="R" sheetId="14" r:id="rId17"/>
-    <sheet name="S" sheetId="3" r:id="rId18"/>
-    <sheet name="T" sheetId="16" r:id="rId19"/>
-    <sheet name="U" sheetId="6" r:id="rId20"/>
-    <sheet name="V" sheetId="24" r:id="rId21"/>
-    <sheet name="W" sheetId="12" r:id="rId22"/>
-    <sheet name="X" sheetId="19" r:id="rId23"/>
+    <sheet name="log" sheetId="26" r:id="rId1"/>
+    <sheet name="A" sheetId="1" r:id="rId2"/>
+    <sheet name="B" sheetId="2" r:id="rId3"/>
+    <sheet name="C" sheetId="7" r:id="rId4"/>
+    <sheet name="D" sheetId="8" r:id="rId5"/>
+    <sheet name="E" sheetId="10" r:id="rId6"/>
+    <sheet name="F" sheetId="13" r:id="rId7"/>
+    <sheet name="G" sheetId="22" r:id="rId8"/>
+    <sheet name="H" sheetId="4" r:id="rId9"/>
+    <sheet name="I" sheetId="20" r:id="rId10"/>
+    <sheet name="J" sheetId="25" r:id="rId11"/>
+    <sheet name="L" sheetId="17" r:id="rId12"/>
+    <sheet name="M" sheetId="15" r:id="rId13"/>
+    <sheet name="N" sheetId="21" r:id="rId14"/>
+    <sheet name="O" sheetId="18" r:id="rId15"/>
+    <sheet name="P" sheetId="9" r:id="rId16"/>
+    <sheet name="Q" sheetId="23" r:id="rId17"/>
+    <sheet name="R" sheetId="14" r:id="rId18"/>
+    <sheet name="S" sheetId="3" r:id="rId19"/>
+    <sheet name="T" sheetId="16" r:id="rId20"/>
+    <sheet name="U" sheetId="6" r:id="rId21"/>
+    <sheet name="V" sheetId="24" r:id="rId22"/>
+    <sheet name="W" sheetId="12" r:id="rId23"/>
+    <sheet name="X" sheetId="19" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473">
+  <si>
+    <t xml:space="preserve">login icloud as captainchris1991@icloud.com. From &amp; To dates are picture's data in 'Photos' </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>From 29-Feb-2020 To 25-Oct-2019</t>
+  </si>
   <si>
     <t>Synonyms</t>
   </si>
@@ -48,9 +61,6 @@
   </si>
   <si>
     <t>Sentences</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>acquit
@@ -6020,7 +6030,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -6817,7 +6828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6988,6 +6999,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7309,136 +7323,164 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="B1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
-    <col min="2" max="2" width="27" style="20" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="41" customWidth="1"/>
-    <col min="4" max="4" width="47.7777777777778" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.7083333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="46.1805555555556" style="8" customWidth="1"/>
+    <col min="5" max="5" width="53.4722222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="90" customHeight="1" spans="5:5">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="60">
+        <v>44194</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A2"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A3"/>
-      <c r="B3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" ht="36" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="124" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="176" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="124" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="141" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.2847222222222" customWidth="1"/>
+    <col min="2" max="2" width="21.2916666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="63.75" customWidth="1"/>
+    <col min="4" max="4" width="39.6388888888889" customWidth="1"/>
+    <col min="5" max="5" width="17.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A4"/>
+      <c r="B4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A5"/>
+      <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" ht="53" spans="2:4">
+      <c r="B7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -7457,33 +7499,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" ht="71" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7492,7 +7534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -7512,28 +7554,28 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
       <c r="A2" s="41"/>
       <c r="B2" s="46" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -7541,48 +7583,48 @@
     <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
       <c r="A3" s="41"/>
       <c r="B3" s="46" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E3" s="41"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="41"/>
       <c r="B4" s="46" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E4" s="41"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A5" s="20"/>
       <c r="B5" s="14" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -7591,7 +7633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -7610,82 +7652,82 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" ht="53" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" ht="71" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" ht="81" customHeight="1" spans="2:4">
       <c r="B6" s="22" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7694,7 +7736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7712,41 +7754,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7755,7 +7797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E9"/>
@@ -7774,49 +7816,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -7827,12 +7869,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="127" zoomScaleNormal="127" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -7846,49 +7888,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A4" s="23" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="26"/>
@@ -7896,82 +7938,82 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A5" s="23" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="23" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A8" s="23" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10" ht="71" spans="1:5">
       <c r="A10" s="23" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="23"/>
@@ -7979,153 +8021,153 @@
     <row r="11" ht="53" spans="1:5">
       <c r="A11" s="23"/>
       <c r="B11" s="42" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12" ht="124" spans="1:5">
       <c r="A12" s="23" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E12" s="23"/>
     </row>
     <row r="13" ht="212" spans="1:5">
       <c r="A13" s="23"/>
       <c r="B13" s="42" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" ht="124" spans="1:5">
       <c r="A14" s="23" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E14" s="23"/>
     </row>
     <row r="15" ht="106" spans="1:5">
       <c r="A15" s="23"/>
       <c r="B15" s="42" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" ht="106" spans="1:5">
       <c r="A16" s="23" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" ht="106" spans="1:5">
       <c r="A17" s="23" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="80" customHeight="1" spans="1:5">
       <c r="A18" s="23"/>
       <c r="B18" s="42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="179" customHeight="1" spans="1:5">
       <c r="A19" s="23"/>
       <c r="B19" s="42" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="106" spans="1:5">
       <c r="A20" s="23"/>
       <c r="B20" s="42" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21" ht="106" spans="1:5">
       <c r="A21" s="23" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E21" s="23"/>
     </row>
@@ -8138,7 +8180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -8156,30 +8198,30 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" ht="71" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8188,7 +8230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -8206,93 +8248,93 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" ht="36" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E13"/>
@@ -8321,170 +8363,170 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
       <c r="B2" s="31" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
       <c r="A3" s="31" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" s="28" customFormat="1" ht="152" spans="1:4">
       <c r="A4" s="35" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" s="28" customFormat="1" ht="51" spans="1:4">
       <c r="A5" s="35"/>
       <c r="B5" s="35" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="1" ht="68" spans="1:4">
       <c r="A6" s="35" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" s="28" customFormat="1" ht="106" customHeight="1" spans="1:4">
       <c r="A7" s="35"/>
       <c r="B7" s="35" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" s="28" customFormat="1" ht="84" spans="1:4">
       <c r="A8" s="35" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" s="28" customFormat="1" ht="101" spans="1:4">
       <c r="A9" s="35" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" s="28" customFormat="1" ht="132" customHeight="1" spans="1:4">
       <c r="A10" s="35"/>
       <c r="B10" s="35" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" ht="159" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" ht="18" spans="2:4">
       <c r="B12" s="14" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" ht="88" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -8493,7 +8535,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27" style="20" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="41" customWidth="1"/>
+    <col min="4" max="4" width="47.7777777777778" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="36" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="124" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="176" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="124" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="141" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E8"/>
@@ -8512,106 +8686,106 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E2" s="19"/>
     </row>
     <row r="3" ht="88" customHeight="1" spans="1:4">
       <c r="A3" s="19" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" ht="171" customHeight="1" spans="1:4">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:4">
       <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D5" s="21"/>
     </row>
     <row r="6" ht="87" customHeight="1" spans="1:4">
       <c r="A6" s="19" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" ht="64" customHeight="1" spans="1:4">
       <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D7" s="21"/>
     </row>
     <row r="8" ht="71" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -8620,7 +8794,419 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="19.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="12.7638888888889" customWidth="1"/>
+    <col min="3" max="3" width="25.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="88" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" ht="74" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="45.9513888888889" customWidth="1"/>
+    <col min="4" max="4" width="25.4305555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" ht="141" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="18" spans="1:4">
+      <c r="A4" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" ht="58" customHeight="1" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" ht="58" customHeight="1" spans="1:4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" ht="121" customHeight="1" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" ht="121" customHeight="1" spans="1:4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" ht="121" customHeight="1" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" ht="53" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" ht="71" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" ht="53" spans="1:4">
+      <c r="A12" s="20"/>
+      <c r="B12" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="20"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="20"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="20"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="20"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="20"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="20"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="20"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="20"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="20"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="20"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="20"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="20"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.4097222222222" customWidth="1"/>
+    <col min="2" max="2" width="21.9930555555556" customWidth="1"/>
+    <col min="3" max="3" width="23.2638888888889" customWidth="1"/>
+    <col min="4" max="4" width="28.3541666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="88" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E22"/>
@@ -8641,84 +9227,84 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" ht="36" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="41"/>
     </row>
     <row r="3" ht="18" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" ht="94" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
     </row>
     <row r="5" ht="94" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="41"/>
     </row>
     <row r="6" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -8726,13 +9312,13 @@
     <row r="7" ht="71" spans="1:5">
       <c r="A7" s="20"/>
       <c r="B7" s="59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" s="41"/>
     </row>
@@ -8847,424 +9433,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="19.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="12.7638888888889" customWidth="1"/>
-    <col min="3" max="3" width="25.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="88" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" ht="74" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
-  <cols>
-    <col min="3" max="3" width="45.9513888888889" customWidth="1"/>
-    <col min="4" max="4" width="25.4305555555556" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
-      <c r="A2"/>
-      <c r="B2" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" ht="141" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>430</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
-      <c r="A2"/>
-      <c r="B2" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
-      <c r="A3"/>
-      <c r="B3" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" ht="18" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="5" ht="58" customHeight="1" spans="1:4">
-      <c r="A5" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" ht="58" customHeight="1" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" ht="121" customHeight="1" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" ht="121" customHeight="1" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" ht="121" customHeight="1" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" ht="53" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11" ht="71" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="12" ht="53" spans="1:4">
-      <c r="A12" s="20"/>
-      <c r="B12" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="20"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="20"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="20"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="20"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="20"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="20"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="20"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="20"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="20"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="20"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="20"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="20"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="20"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="20"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="21.4097222222222" customWidth="1"/>
-    <col min="2" max="2" width="21.9930555555556" customWidth="1"/>
-    <col min="3" max="3" width="23.2638888888889" customWidth="1"/>
-    <col min="4" max="4" width="28.3541666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="88" spans="2:4">
-      <c r="B2" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -9279,57 +9453,57 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="123" customHeight="1" spans="2:4">
       <c r="B3" s="14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" s="26"/>
     </row>
     <row r="5" s="57" customFormat="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
@@ -9337,13 +9511,13 @@
     </row>
     <row r="6" s="57" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="26"/>
@@ -9351,102 +9525,102 @@
     <row r="7" s="57" customFormat="1" ht="124" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" s="57" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" ht="88" spans="2:5">
       <c r="B9" s="14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="159" spans="2:5">
       <c r="B10" s="14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="71" spans="2:5">
       <c r="B11" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="71" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="106" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="71" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -9458,7 +9632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E17"/>
@@ -9477,27 +9651,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
@@ -9506,209 +9680,209 @@
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="26"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E9" s="26"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E10" s="26"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="42" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E12" s="26"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E14" s="26"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E15" s="26"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="42" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E16" s="26"/>
     </row>
     <row r="17" ht="36" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E17" s="26"/>
     </row>
@@ -9718,7 +9892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -9737,87 +9911,87 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="212" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="53" spans="2:3">
       <c r="B7" s="22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9826,7 +10000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E4"/>
@@ -9845,59 +10019,59 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="36" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -9906,7 +10080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E9"/>
@@ -9924,117 +10098,117 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" ht="106" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" ht="124" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" ht="124" spans="2:4">
       <c r="B8" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" ht="53" spans="2:4">
       <c r="B9" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -10043,7 +10217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E4"/>
@@ -10063,178 +10237,61 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E2" s="30"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="30"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="18.2847222222222" customWidth="1"/>
-    <col min="2" max="2" width="21.2916666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="63.75" customWidth="1"/>
-    <col min="4" max="4" width="39.6388888888889" customWidth="1"/>
-    <col min="5" max="5" width="17.7083333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
-      <c r="A2"/>
-      <c r="B2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
-      <c r="A3"/>
-      <c r="B3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
-      <c r="A4"/>
-      <c r="B4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
-      <c r="A5"/>
-      <c r="B5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" ht="53" spans="2:4">
-      <c r="B7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="26" r:id="rId1"/>
@@ -18,26 +18,27 @@
     <sheet name="H" sheetId="4" r:id="rId9"/>
     <sheet name="I" sheetId="20" r:id="rId10"/>
     <sheet name="J" sheetId="25" r:id="rId11"/>
-    <sheet name="L" sheetId="17" r:id="rId12"/>
-    <sheet name="M" sheetId="15" r:id="rId13"/>
-    <sheet name="N" sheetId="21" r:id="rId14"/>
-    <sheet name="O" sheetId="18" r:id="rId15"/>
-    <sheet name="P" sheetId="9" r:id="rId16"/>
-    <sheet name="Q" sheetId="23" r:id="rId17"/>
-    <sheet name="R" sheetId="14" r:id="rId18"/>
-    <sheet name="S" sheetId="3" r:id="rId19"/>
-    <sheet name="T" sheetId="16" r:id="rId20"/>
-    <sheet name="U" sheetId="6" r:id="rId21"/>
-    <sheet name="V" sheetId="24" r:id="rId22"/>
-    <sheet name="W" sheetId="12" r:id="rId23"/>
-    <sheet name="X" sheetId="19" r:id="rId24"/>
+    <sheet name="K" sheetId="27" r:id="rId12"/>
+    <sheet name="L" sheetId="17" r:id="rId13"/>
+    <sheet name="M" sheetId="15" r:id="rId14"/>
+    <sheet name="N" sheetId="21" r:id="rId15"/>
+    <sheet name="O" sheetId="18" r:id="rId16"/>
+    <sheet name="P" sheetId="9" r:id="rId17"/>
+    <sheet name="Q" sheetId="23" r:id="rId18"/>
+    <sheet name="R" sheetId="14" r:id="rId19"/>
+    <sheet name="S" sheetId="3" r:id="rId20"/>
+    <sheet name="T" sheetId="16" r:id="rId21"/>
+    <sheet name="U" sheetId="6" r:id="rId22"/>
+    <sheet name="V" sheetId="24" r:id="rId23"/>
+    <sheet name="W" sheetId="12" r:id="rId24"/>
+    <sheet name="X" sheetId="19" r:id="rId25"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514">
   <si>
     <t xml:space="preserve">login icloud as captainchris1991@icloud.com. From &amp; To dates are picture's data in 'Photos' </t>
   </si>
@@ -174,7 +175,46 @@
     </r>
   </si>
   <si>
-    <t>aloof</t>
+    <r>
+      <t>aloof
+ [ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>f]</t>
+    </r>
   </si>
   <si>
     <t>[ not usually before noun ] not friendly or interested in other people 冷漠；冷淡
@@ -207,10 +247,144 @@
     </r>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <r>
+      <t>appalling
+ [ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lɪŋ]</t>
+    </r>
+  </si>
+  <si>
+    <t>1.shocking; extremely bad 令人震惊的；使人惊骇的；极为恶劣的
+2.( informal ) very bad 糟糕的；很不像话的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.The prisoners were living in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>appalling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> conditions. 囚犯的居住条件极为恶劣
+2.The bus service is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>appalling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> now. 现在公共汽车服务很差</t>
+    </r>
+  </si>
+  <si>
     <t>equipment</t>
   </si>
   <si>
-    <t>apparatus</t>
+    <r>
+      <t>apparatus
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>æpə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reɪtəs]</t>
+    </r>
   </si>
   <si>
     <t>1.the technical equipment or machinery needed for a particular activity or purpose.
@@ -393,13 +567,82 @@
     <t>To anticipate or be very likely to experience something, usually that which will be unpleasant or undesirable.</t>
   </si>
   <si>
-    <t>The Chinese economy is in for a grim start to the Year of the Rat</t>
-  </si>
-  <si>
-    <t>Bravo Mike</t>
-  </si>
-  <si>
-    <t>Black Male</t>
+    <r>
+      <t xml:space="preserve">The Chinese economy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>is in for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a grim start to the Year of the Rat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bimbo
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bɪmbəʊ]</t>
+    </r>
+  </si>
+  <si>
+    <t>( informal , disapproving ) a young person, usually a woman, who is sexually attractive but not very intelligent 傻乎乎的性感青年（通常为女子）
+n. 女人（尤指行为不检点者，如妓女）；男人（尤指名誉不好者，如流氓）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He's going out with an empty-headed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bimbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> half his age. 他正在同一个年龄比他小一半的傻里傻气的性感女子来往</t>
+    </r>
   </si>
   <si>
     <t>用棍棒打；猛烈攻击</t>
@@ -499,8 +742,50 @@
     <t>pretending to be real or genuine 假的；伪造的</t>
   </si>
   <si>
-    <t>1.a bogus doctor/contract 冒牌医生；伪造的合同
-2.bogus claims of injury by workers 工人们虚报受伤情况索赔</t>
+    <r>
+      <t xml:space="preserve">1.a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bogus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> doctor/contract 冒牌医生；伪造的合同
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bogus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> claims of injury by workers 工人们虚报受伤情况索赔</t>
+    </r>
   </si>
   <si>
     <t>bodyguard</t>
@@ -510,6 +795,12 @@
   </si>
   <si>
     <t>a person employed to stand at the entrance to a club, pub, etc. to stop people who are not wanted from going in, and to throw out people who are causing trouble inside （俱乐部、酒店等的）门卫，保安</t>
+  </si>
+  <si>
+    <t>Bravo Mike</t>
+  </si>
+  <si>
+    <t>Black Male</t>
   </si>
   <si>
     <t>breezy</t>
@@ -519,8 +810,50 @@
 2.having or showing a cheerful and relaxed manner 轻松愉快的</t>
   </si>
   <si>
-    <t>1.It was a bright, breezy day. 那天和风丽日
-2.You're very bright and breezy today! 你今天精神焕发！</t>
+    <r>
+      <t xml:space="preserve">1.It was a bright, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>breezy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> day. 那天和风丽日
+2.You're very bright and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>breezy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> today! 你今天精神焕发！</t>
+    </r>
   </si>
   <si>
     <t>can not make ends meet</t>
@@ -2085,6 +2418,13 @@
     </r>
   </si>
   <si>
+    <t>goodfella</t>
+  </si>
+  <si>
+    <t>歹徒
+黑手党成员</t>
+  </si>
+  <si>
     <t>goof around</t>
   </si>
   <si>
@@ -2171,6 +2511,45 @@
     </r>
   </si>
   <si>
+    <t>goober
+['ɡuːbə]</t>
+  </si>
+  <si>
+    <t>n. 花生；落花生（等于goober pea）</t>
+  </si>
+  <si>
+    <t>goofy
+ [ˈɡuːfi]</t>
+  </si>
+  <si>
+    <t>( informal ) ( especially NAmE ) silly; stupid 愚蠢的；傻的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>goofy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> grin 龇牙咧嘴的傻笑</t>
+    </r>
+  </si>
+  <si>
     <t>go over</t>
   </si>
   <si>
@@ -2353,6 +2732,39 @@
     </r>
   </si>
   <si>
+    <t>gurney
+ [ˈɡɜːni]</t>
+  </si>
+  <si>
+    <t>A type of trolley which is used for moving patients in a hospital （医院中推送病人用的）轮床</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blinking, Jake slowly sits up on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gurney</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+闪回杰克慢慢地从病床上坐起来</t>
+    </r>
+  </si>
+  <si>
     <t>haggle</t>
   </si>
   <si>
@@ -2596,6 +3008,81 @@
     </r>
   </si>
   <si>
+    <t>impersonal
+ [ɪmˈpɜːsənl]</t>
+  </si>
+  <si>
+    <t>1.( usually disapproving ) lacking friendly human feelings or atmosphere; making you feel unimportant 缺乏人情味的；冷淡的
+2.not referring to any particular person 非指个人的；客观的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.A vast </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>impersonal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> organization 庞大而不讲人情的组织
+An </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>impersonal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hotel room 冷冰冰的旅馆房间
+2.Let's keep the criticism general and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>impersonal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 让我们作泛泛的批评，不要针对个人</t>
+    </r>
+  </si>
+  <si>
     <t>inauspicious</t>
   </si>
   <si>
@@ -2803,6 +3290,73 @@
       </rPr>
       <t xml:space="preserve"> this relationship?
 那么为什么双方会想要破坏这段关系呢？</t>
+    </r>
+  </si>
+  <si>
+    <t>julienne
+[,dʒuːlɪ'en]</t>
+  </si>
+  <si>
+    <t>n. 切成细丝的食物；什锦菜丝汤
+v. 把（食物）切成细丝
+adj. （蔬菜）切成细长条的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dice tofu and dice celery to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>julienne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+将豆腐切丁、芹菜切丝备用</t>
+    </r>
+  </si>
+  <si>
+    <t>karma</t>
+  </si>
+  <si>
+    <t>( in Buddhism and Hinduism 佛教和印度教 ) the sum of sb's good and bad actions in one of their lives, believed to decide what will happen to them in the next life 羯磨，业（据信为可决定来生的个人善恶行为）
+( good/bad ~ ) ( informal ) the good/bad effect of doing a particular thing, being in a particular place, etc. 善报；恶报；因果报应</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vegetarians believe that eating meat is bad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>karma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 素食者认为吃肉食是造恶业。</t>
     </r>
   </si>
   <si>
@@ -3839,6 +4393,59 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>pragmatist
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>præɡmətɪst]</t>
+    </r>
+  </si>
+  <si>
+    <t>n. 实用主义者；爱管闲事的人</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'm not an idealist, I'm a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pragmatist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+我不是理想主义者，我是一个实用主义者</t>
+    </r>
+  </si>
+  <si>
     <t>bias</t>
   </si>
   <si>
@@ -3924,7 +4531,18 @@
     <t xml:space="preserve"> if there is a preponderance of one type of people or things in a group, there are more of them than others 优势；多数；主体</t>
   </si>
   <si>
-    <t>Preponderance of Evidence 优势证据</t>
+    <r>
+      <t>Preponderance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of Evidence 优势证据</t>
+    </r>
   </si>
   <si>
     <t>delay</t>
@@ -4420,7 +5038,8 @@
     </r>
   </si>
   <si>
-    <t>rarefaction</t>
+    <t>rarefaction
+ [,reərɪ'fækʃən]</t>
   </si>
   <si>
     <t>reduction in the density of something, especially air or a gas.</t>
@@ -4457,7 +5076,41 @@
     </r>
   </si>
   <si>
-    <t>rhinitis</t>
+    <t>receptionist
+ [rɪˈsepʃənɪst]</t>
+  </si>
+  <si>
+    <t>a person whose job is to deal with people arriving at or telephoning a hotel, an office building, a doctor's surgery , etc. 接待员</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>receptionist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> recognized him at once.
+那名接待员马上认出了他</t>
+    </r>
+  </si>
+  <si>
+    <t>rhinitis
+ [raɪˈnaɪtɪs]</t>
   </si>
   <si>
     <t>a condition in which the inside of the nose becomes swollen and sore, caused by an infection or an allergy 鼻炎（感染或过敏引起）</t>
@@ -4497,7 +5150,8 @@
     <t>流氓</t>
   </si>
   <si>
-    <t>rogue</t>
+    <t>rogue
+[rəʊɡ]</t>
   </si>
   <si>
     <r>
@@ -5138,6 +5792,177 @@
     </r>
   </si>
   <si>
+    <t>swamp</t>
+  </si>
+  <si>
+    <t>1.~ sb/sth (with sth) to make sb have more of sth than they can deal with 使不堪承受；使疲于应对；使应接不暇
+2.to fill or cover sth with a lot of water 淹；淹没</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.The department was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>swamped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with job applications. 面对纷至沓来的求职申请，这个部门疲于应对
+2.The little boat was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>swamped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by the waves. 小船被大浪淹没了。
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Swamped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by the email</t>
+    </r>
+  </si>
+  <si>
+    <t>swell</t>
+  </si>
+  <si>
+    <t>1.~ (up) to become bigger or rounder 膨胀；肿胀
+~ (sth) (to sth) to increase or make sth increase in number or size （使）增加，增大，扩大
+2.[ C usually sing. ] the movement of the sea when it rises and falls without the waves breaking 海浪的涌动；涌浪
+3.( old-fashioned ) ( NAmE ) ( informal ) very good, enjoyable, etc. 很愉快的；极有趣的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Her arm was beginning to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>swell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> up where the bee had stung her. 她胳膊给蜜蜂蜇了，肿了起来
+2.Last year's profits were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>swelled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by a fall in production costs. 去年因生产成本下降，利润有所增加
+3.The cheering </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>swelled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> through the hall. 欢呼声越来越大，响彻大厅。
+4.We had a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>swell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> time. 我们过得开心极了。</t>
+    </r>
+  </si>
+  <si>
     <t>tarmac
  [ˈtɑːmæk]</t>
   </si>
@@ -5368,6 +6193,61 @@
     </r>
   </si>
   <si>
+    <t>trusim
+[ˈtruːɪzəm]</t>
+  </si>
+  <si>
+    <t>a statement that is clearly true and does not therefore add anything interesting or important to a discussion 不言而喻的道理；自明之理；老生常谈</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Oh who could deny that? That needs to be a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>truism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+谁能否认这点呢，那需要是真理
+2.It is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>truism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that both brevity and readability are good.
+众所周知，简洁和可读性都好</t>
+    </r>
+  </si>
+  <si>
     <t>New World</t>
   </si>
   <si>
@@ -5696,7 +6576,8 @@
     <t>complaining；嘀咕不停的；烦躁的</t>
   </si>
   <si>
-    <t>whiney</t>
+    <t>whiney
+  ['hwaɪnɪ]</t>
   </si>
   <si>
     <t>complaining; fretful; cranky;having a complaining tone.</t>
@@ -7325,7 +8206,7 @@
   <sheetPr/>
   <dimension ref="B1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7366,13 +8247,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.2847222222222" customWidth="1"/>
     <col min="2" max="2" width="21.2916666666667" style="6" customWidth="1"/>
@@ -7401,77 +8282,90 @@
     <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="3" t="s">
-        <v>207</v>
+      <c r="B3" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>228</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>229</v>
+      </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>214</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D5" s="21"/>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" ht="53" spans="2:4">
+    <row r="7" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>220</v>
+        <v>236</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>221</v>
+        <v>238</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" ht="53" spans="2:4">
+      <c r="B8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -7483,13 +8377,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="23.7222222222222" customWidth="1"/>
@@ -7516,16 +8410,27 @@
     </row>
     <row r="2" ht="71" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>225</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" ht="53" spans="2:4">
+      <c r="B3" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -7535,6 +8440,57 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.1319444444444" customWidth="1"/>
+    <col min="2" max="2" width="19.2152777777778" customWidth="1"/>
+    <col min="3" max="3" width="70.6041666666667" customWidth="1"/>
+    <col min="4" max="4" width="43.7430555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="100" customHeight="1" spans="2:4">
+      <c r="B2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -7572,10 +8528,10 @@
     <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
       <c r="A2" s="41"/>
       <c r="B2" s="46" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -7583,48 +8539,48 @@
     <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
       <c r="A3" s="41"/>
       <c r="B3" s="46" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E3" s="41"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="41"/>
       <c r="B4" s="46" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="E4" s="41"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A5" s="20"/>
       <c r="B5" s="14" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7633,7 +8589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -7669,65 +8625,65 @@
     </row>
     <row r="2" ht="53" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" ht="71" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="19" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="19" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" ht="81" customHeight="1" spans="2:4">
       <c r="B6" s="22" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7736,7 +8692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7771,24 +8727,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -7797,7 +8753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E9"/>
@@ -7833,32 +8789,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -7869,13 +8825,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -7905,32 +8861,32 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A4" s="23" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="26"/>
@@ -7938,82 +8894,82 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A5" s="23" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="23" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A8" s="23" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10" ht="71" spans="1:5">
       <c r="A10" s="23" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="23"/>
@@ -8021,155 +8977,168 @@
     <row r="11" ht="53" spans="1:5">
       <c r="A11" s="23"/>
       <c r="B11" s="42" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12" ht="124" spans="1:5">
       <c r="A12" s="23" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" ht="212" spans="1:5">
+    <row r="13" ht="141" spans="1:5">
       <c r="A13" s="23"/>
       <c r="B13" s="42" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" ht="124" spans="1:5">
-      <c r="A14" s="23" t="s">
-        <v>307</v>
-      </c>
+    <row r="14" ht="53" spans="1:5">
+      <c r="A14" s="23"/>
       <c r="B14" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>309</v>
+        <v>333</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="106" spans="1:5">
-      <c r="A15" s="23"/>
+    <row r="15" ht="71" spans="1:5">
+      <c r="A15" s="23" t="s">
+        <v>336</v>
+      </c>
       <c r="B15" s="42" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16" ht="106" spans="1:5">
-      <c r="A16" s="23" t="s">
-        <v>314</v>
-      </c>
+      <c r="A16" s="23"/>
       <c r="B16" s="42" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>317</v>
+        <v>341</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" ht="106" spans="1:5">
+    <row r="17" ht="71" spans="1:5">
       <c r="A17" s="23" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" ht="80" customHeight="1" spans="1:5">
-      <c r="A18" s="23"/>
+    <row r="18" ht="106" spans="1:5">
+      <c r="A18" s="23" t="s">
+        <v>347</v>
+      </c>
       <c r="B18" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>323</v>
+        <v>348</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>349</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" ht="179" customHeight="1" spans="1:5">
+    <row r="19" ht="80" customHeight="1" spans="1:5">
       <c r="A19" s="23"/>
       <c r="B19" s="42" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" ht="106" spans="1:5">
+    <row r="20" ht="179" customHeight="1" spans="1:5">
       <c r="A20" s="23"/>
       <c r="B20" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>329</v>
+        <v>354</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21" ht="106" spans="1:5">
-      <c r="A21" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>334</v>
+      <c r="A21" s="23"/>
+      <c r="B21" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>359</v>
       </c>
       <c r="E21" s="23"/>
+    </row>
+    <row r="22" ht="106" spans="1:5">
+      <c r="A22" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:E19">
@@ -8180,7 +9149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -8215,13 +9184,13 @@
     </row>
     <row r="2" ht="71" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -8230,16 +9199,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="28.4236111111111" customWidth="1"/>
     <col min="3" max="3" width="30.9722222222222" customWidth="1"/>
@@ -8266,75 +9235,88 @@
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
-      <c r="B4" s="3" t="s">
-        <v>344</v>
+      <c r="B4" s="19" t="s">
+        <v>373</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
+    <row r="5" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A5"/>
-      <c r="B5" s="3" t="s">
-        <v>347</v>
+      <c r="B5" s="19" t="s">
+        <v>376</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" ht="71" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>352</v>
+    <row r="6" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
+      <c r="A6"/>
+      <c r="B6" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" ht="36" spans="2:4">
-      <c r="B7" s="3" t="s">
-        <v>354</v>
+        <v>381</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" ht="71" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>384</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>355</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" ht="36" spans="2:4">
+      <c r="B8" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -8343,13 +9325,159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27" style="20" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="41" customWidth="1"/>
+    <col min="4" max="4" width="47.7777777777778" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A2"/>
+      <c r="B2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="36" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="124" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="53" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="176" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="124" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="141" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -8380,153 +9508,175 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
       <c r="B2" s="31" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
       <c r="A3" s="31" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" s="28" customFormat="1" ht="152" spans="1:4">
       <c r="A4" s="35" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" s="28" customFormat="1" ht="51" spans="1:4">
       <c r="A5" s="35"/>
       <c r="B5" s="35" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="1" ht="68" spans="1:4">
       <c r="A6" s="35" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" s="28" customFormat="1" ht="106" customHeight="1" spans="1:4">
       <c r="A7" s="35"/>
       <c r="B7" s="35" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" s="28" customFormat="1" ht="84" spans="1:4">
       <c r="A8" s="35" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" s="28" customFormat="1" ht="101" spans="1:4">
       <c r="A9" s="35" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" s="28" customFormat="1" ht="132" customHeight="1" spans="1:4">
       <c r="A10" s="35"/>
       <c r="B10" s="35" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" ht="159" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" ht="18" spans="2:4">
       <c r="B12" s="14" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" ht="88" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>395</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" ht="106" spans="2:4">
+      <c r="B14" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" ht="212" spans="2:4">
+      <c r="B15" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -8535,148 +9685,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
-    <col min="2" max="2" width="27" style="20" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="41" customWidth="1"/>
-    <col min="4" max="4" width="47.7777777777778" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A2"/>
-      <c r="B2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A3"/>
-      <c r="B3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" ht="36" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="124" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="176" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="124" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="141" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScale="153" zoomScaleNormal="153" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.0347222222222" customWidth="1"/>
     <col min="2" max="2" width="21.8333333333333" customWidth="1"/>
@@ -8704,88 +9722,99 @@
     <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="E2" s="19"/>
     </row>
     <row r="3" ht="88" customHeight="1" spans="1:4">
       <c r="A3" s="19" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" ht="171" customHeight="1" spans="1:4">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:4">
       <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="D5" s="21"/>
     </row>
     <row r="6" ht="87" customHeight="1" spans="1:4">
       <c r="A6" s="19" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" ht="64" customHeight="1" spans="1:4">
       <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="D7" s="21"/>
     </row>
     <row r="8" ht="71" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>417</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" ht="106" spans="2:4">
+      <c r="B9" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8794,7 +9823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -8816,7 +9845,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -8830,31 +9859,31 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -8865,7 +9894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -8900,28 +9929,28 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="22" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="141" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -8930,7 +9959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E27"/>
@@ -8967,141 +9996,141 @@
     <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="8" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="18" spans="1:4">
       <c r="A4" s="11" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" ht="58" customHeight="1" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" ht="58" customHeight="1" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" ht="121" customHeight="1" spans="1:4">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" ht="121" customHeight="1" spans="1:4">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" ht="121" customHeight="1" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" ht="53" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" ht="71" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" ht="53" spans="1:4">
       <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -9155,7 +10184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -9177,7 +10206,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -9191,13 +10220,13 @@
     </row>
     <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -9209,10 +10238,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -9244,89 +10273,95 @@
     </row>
     <row r="2" ht="36" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E2" s="41"/>
     </row>
-    <row r="3" ht="18" spans="1:5">
+    <row r="3" ht="88" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="25"/>
+      <c r="B3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="41"/>
     </row>
-    <row r="4" ht="94" customHeight="1" spans="1:5">
+    <row r="4" ht="71" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
     </row>
     <row r="5" ht="94" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E5" s="41"/>
     </row>
-    <row r="6" ht="71" spans="1:5">
+    <row r="6" ht="94" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
     </row>
-    <row r="7" ht="71" spans="1:5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>50</v>
-      </c>
+    <row r="7" ht="18" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="25"/>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="53" spans="1:5">
       <c r="A8" s="20"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>57</v>
+      </c>
       <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5">
@@ -9427,7 +10462,17 @@
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
     </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="20"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+    </row>
   </sheetData>
+  <sortState ref="A2:E22">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -9470,40 +10515,40 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="123" customHeight="1" spans="2:4">
       <c r="B3" s="14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E4" s="26"/>
     </row>
     <row r="5" s="57" customFormat="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
@@ -9511,13 +10556,13 @@
     </row>
     <row r="6" s="57" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="26"/>
@@ -9525,102 +10570,102 @@
     <row r="7" s="57" customFormat="1" ht="124" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" s="57" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" ht="88" spans="2:5">
       <c r="B9" s="14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="159" spans="2:5">
       <c r="B10" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="71" spans="2:5">
       <c r="B11" s="14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="71" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="106" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="71" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -9668,10 +10713,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
@@ -9680,209 +10725,209 @@
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E3" s="26"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="23" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E9" s="26"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E10" s="26"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="42" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E12" s="26"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E14" s="26"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="23" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E15" s="26"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="42" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E16" s="26"/>
     </row>
     <row r="17" ht="36" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E17" s="26"/>
     </row>
@@ -9929,69 +10974,69 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" ht="212" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" ht="53" spans="2:3">
       <c r="B7" s="22" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -10037,41 +11082,41 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="36" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -10083,10 +11128,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -10116,99 +11161,145 @@
     <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="22" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>179</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D4" s="21"/>
       <c r="E4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
+    <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="19" t="s">
-        <v>180</v>
+      <c r="B5" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" ht="106" spans="2:4">
-      <c r="B6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>184</v>
+    <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>190</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" ht="124" spans="2:4">
-      <c r="B7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" ht="124" spans="2:4">
-      <c r="B8" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="9" ht="53" spans="2:4">
-      <c r="B9" s="8" t="s">
+      <c r="E6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C7" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="67" customHeight="1" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="19" t="s">
         <v>194</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" ht="106" spans="2:4">
+      <c r="B9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" ht="124" spans="2:4">
+      <c r="B10" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" ht="124" spans="2:4">
+      <c r="B11" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" ht="53" spans="2:4">
+      <c r="B12" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" ht="53" spans="2:4">
+      <c r="B13" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -10255,39 +11346,39 @@
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E2" s="30"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="30"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="7" activeTab="20"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="5" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="26" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584">
   <si>
     <t xml:space="preserve">login icloud as captainchris1991@icloud.com. From &amp; To dates are picture's data in 'Photos' </t>
   </si>
@@ -247,6 +247,209 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>anchor
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>æŋkər]</t>
+    </r>
+  </si>
+  <si>
+    <t>1.to let an anchor down from a boat or ship in order to prevent it from moving away 抛锚；下锚
+2.[ VN ] [ usually passive ] ~ sb/sth (in/to sth) to firmly base sth on sth else 使扎根；使基于
+3.
+( NAmE ) to be the person who introduces reports or reads the news on television or radio 主持（电视、广播节目)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.We </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>anchored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> off the coast of Spain. 我们在西班牙沿海抛锚停泊。
+2.Her novels are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>anchored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in everyday experience. 她的小说取材自日常生活经验
+3.She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>anchored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the evening news for seven years. 她主持了七年晚间新闻报道</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>anecdote
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ænɪkdəʊt]</t>
+    </r>
+  </si>
+  <si>
+    <t>a short, interesting or amusing story about a real person or event 逸事；趣闻</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pete was telling them an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>anecdote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> about their mother.
+皮特正告诉他们一个关于他们母亲的趣闻轶事</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>antibiotics
+[,æntɪbaɪ'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ɒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tɪks]</t>
+    </r>
+  </si>
+  <si>
+    <t>Antibiotics are medical drugs used to kill bacteria and treat infections. 抗生素</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your doctor may prescribe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>antibiotics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+你的大夫可能会开抗生素。</t>
+    </r>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
@@ -558,6 +761,101 @@
     </r>
   </si>
   <si>
+    <t>mixture</t>
+  </si>
+  <si>
+    <r>
+      <t>assortment
+[ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tmənt]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ usually sing. ] a collection of different things or of different types of the same thing 各种各样</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.a wide </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>assortment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of gifts to choose from 各式各样可供挑选的礼品
+2.The people can be wrong in an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>assortment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of ways: lazy, spiteful, bullying or just dull and too depressed themselves to spread much cheer.
+人则会以很多方式出现问题：懒惰的、怀有恶意的、咄咄逼人的、乏味的，以及情绪过于低落而让人高兴不起来的</t>
+    </r>
+  </si>
+  <si>
     <t>注定要遭受</t>
   </si>
   <si>
@@ -645,6 +943,79 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>binge
+ [bɪnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ʒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>( informal ) a short period of time when sb does too much of a particular activity, especially eating or drinking alcohol （短时间的）狂热行动，大吃大喝</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One of the symptoms is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>binge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> eating . 症状之一是饮食无度。
+When she's depressed she </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>binges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on chocolate. 她心情不好的时候就大嚼巧克力</t>
+    </r>
+  </si>
+  <si>
     <t>用棍棒打；猛烈攻击</t>
   </si>
   <si>
@@ -788,6 +1159,15 @@
     </r>
   </si>
   <si>
+    <t>bolognese
+ [,bəulə'ni:z]</t>
+  </si>
+  <si>
+    <t>adj. 波伦亚的；波伦亚人的；波伦亚画派的
+n. 波伦亚人；波伦亚方言
+adj. (bolognese) 波隆那肉酱的</t>
+  </si>
+  <si>
     <t>bodyguard</t>
   </si>
   <si>
@@ -801,6 +1181,37 @@
   </si>
   <si>
     <t>Black Male</t>
+  </si>
+  <si>
+    <t>breadwinner</t>
+  </si>
+  <si>
+    <t>a person who supports their family with the money they earn 挣钱养家的人</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the past, women served as housewife while men were usually the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>breadwinner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <t>breezy</t>
@@ -1088,6 +1499,95 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> for a loan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>compost
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ɒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ɒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>st]</t>
+    </r>
+  </si>
+  <si>
+    <t>a mixture of decayed plants, food, etc. that can be added to soil to help plants grow 混合肥料；堆肥</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I sow the seed in pots of soil-based </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>compost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+我把种子种在一盆盆施有堆肥的土里</t>
     </r>
   </si>
   <si>
@@ -2038,7 +2538,42 @@
     </r>
   </si>
   <si>
-    <t>eczema</t>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>eatery</t>
+  </si>
+  <si>
+    <t>( informal ) ( especially NAmE ) a restaurant or other place that serves food 餐馆；饮食店</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I went into an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eatery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>eczema
+[ˈeksmə; ˈeksɪmə]</t>
   </si>
   <si>
     <t>a skin condition in which areas of skin become red, rough and sore 湿疹</t>
@@ -2079,7 +2614,8 @@
     <t>日本毛豆</t>
   </si>
   <si>
-    <t>edamame</t>
+    <t>edamame
+ [ˌedəˈmɑːmeɪ; ˌedəˈmɑːmi]</t>
   </si>
   <si>
     <t>急躁不安的</t>
@@ -2252,6 +2788,39 @@
     </r>
   </si>
   <si>
+    <t>folic acid
+[ˌfoʊlɪk ˈæsɪd]</t>
+  </si>
+  <si>
+    <t>a vitamin found in green vegetables, liver and kidney , needed by the body for the production of red blood cells 叶酸（见于绿色蔬菜、肝、肾的一种维生素，用于造红血球）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Iron and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folic acid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> supplements are frequently given to pregnant women.
+铁和叶酸补充剂常给孕妇服用</t>
+    </r>
+  </si>
+  <si>
     <t>fortify</t>
   </si>
   <si>
@@ -2312,6 +2881,37 @@
         <charset val="134"/>
       </rPr>
       <t>fumed</t>
+    </r>
+  </si>
+  <si>
+    <t>garnish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ sth (with sth) to decorate a dish of food with a small amount of another food （用菜）为（食物）加装饰；加饰菜于</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lilac is best used as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>garnish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -3360,6 +3960,13 @@
     </r>
   </si>
   <si>
+    <t>lasagne
+ [ləˈzænjə]</t>
+  </si>
+  <si>
+    <t>an Italian dish made from layers of lasagne , finely chopped meat and/or vegetables and white sauce 意大利千层面</t>
+  </si>
+  <si>
     <r>
       <t>laundromat
 [</t>
@@ -3405,6 +4012,60 @@
     <t>（美）自助洗衣店</t>
   </si>
   <si>
+    <r>
+      <t>lavender
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lævəndər]</t>
+    </r>
+  </si>
+  <si>
+    <t>a garden plant or bush with bunches of purple flowers with a sweet smell 熏衣草（花园植物或灌木，开紫花，有香味）
+adj. 淡紫色的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All shades of mauve, lilac, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lavender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and purple were fashionable.
+所有紫红色、淡紫粉色、淡紫色和紫色都很流行。</t>
+    </r>
+  </si>
+  <si>
     <t>liability</t>
   </si>
   <si>
@@ -3458,6 +4119,9 @@
     </r>
   </si>
   <si>
+    <t>likely</t>
+  </si>
+  <si>
     <t>liable</t>
   </si>
   <si>
@@ -3534,8 +4198,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-an officer of middle rank in the army, navy, or air force （陆军）中尉；（海军或空军）上尉中尉；副官</t>
+    <t>an officer of middle rank in the army, navy, or air force （陆军）中尉；（海军或空军）上尉中尉；副官</t>
   </si>
   <si>
     <r>
@@ -3560,16 +4223,120 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>lilac
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>laɪlək]</t>
+    </r>
+  </si>
+  <si>
+    <t>n. 淡紫色；丁香花；[植] 紫丁香
+adj. 淡紫色的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All shades of mauve, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lilac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, lavender and purple were fashionable.
+所有紫红色、淡紫粉色、淡紫色和紫色都很流行</t>
+    </r>
+  </si>
+  <si>
     <t>be bad at;不擅长做某事</t>
   </si>
   <si>
     <t>lousy at doing sth (old-fashioned)</t>
   </si>
   <si>
+    <t>lousy: especially spoken of very bad quality SYN awful, terrible</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The food was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lousy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+I’m </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lousy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at tennis.</t>
+    </r>
+  </si>
+  <si>
     <t>恶意的，蓄意的</t>
   </si>
   <si>
-    <t>malicious</t>
+    <t>malicious
+ [məˈlɪʃəs]</t>
   </si>
   <si>
     <t>characterized by malice; intending or intended to do harm.</t>
@@ -3652,7 +4419,8 @@
     <t>sadness</t>
   </si>
   <si>
-    <t>melancholy</t>
+    <t>melancholy
+  [ˈmelənkəli]</t>
   </si>
   <si>
     <t>( formal ) a deep feeling of sadness that lasts for a long time and often cannot be explained 忧郁；伤悲</t>
@@ -3722,6 +4490,48 @@
     </r>
   </si>
   <si>
+    <t>meticulous
+ [məˈtɪkjələs]</t>
+  </si>
+  <si>
+    <t>~ (in sth/doing sth) | ~ (about sth/in doing sth) paying careful attention to every detail 细心的；小心翼翼的</t>
+  </si>
+  <si>
+    <r>
+      <t>meticulous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> planning/records/research 周密的计划；详细的记录；一丝不苟的研究
+He's always </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>meticulous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in keeping the records up to date. 他总是十分细心地补充最新的资料</t>
+    </r>
+  </si>
+  <si>
     <t>misdemeanor
 [,misdi'mi:nə]</t>
   </si>
@@ -4082,6 +4892,62 @@
       </rPr>
       <t xml:space="preserve"> of drug abuse 对吸毒之害的警告
 3..Yellow Peril 黄祸（歧视）</t>
+    </r>
+  </si>
+  <si>
+    <t>retain</t>
+  </si>
+  <si>
+    <r>
+      <t>perpetuate
+ [pə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>petʃueɪt]</t>
+    </r>
+  </si>
+  <si>
+    <t>( formal ) to make sth such as a bad situation, a belief, etc. continue for a long time 使永久化；使持久化；使持续（尤指不好的事物）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>perpetuate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> injustice 持续造成不公正</t>
     </r>
   </si>
   <si>
@@ -4904,6 +5770,15 @@
     </r>
   </si>
   <si>
+    <t>put things in perspective</t>
+  </si>
+  <si>
+    <t>means to see them from an objective viewpoint. 换位思考事情</t>
+  </si>
+  <si>
+    <t>For example: A young person may be emotionally devastated by a breakup with a boyfriend or girlfriend. The best way for that person to get over the hurt, is to see the relationship from the viewpoint of his or her whole life, rather than just for the present. While no one should deny that a breakup always causes hurt feelings, anyone who has lived through a breakup can tell you that it is not the end of your life, and the best thing to do is continue living and dreaming of your future. That would be "putting things in perspective".</t>
+  </si>
+  <si>
     <t>quorum
 [ˈkwɔːrəm]</t>
   </si>
@@ -5575,6 +6450,19 @@
     </r>
   </si>
   <si>
+    <t>nap</t>
+  </si>
+  <si>
+    <t>snooze
+ [snu:z]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( informal ) to have a short light sleep, especially during the day and usually not in bed （尤指在白天）小睡，打盹</t>
+  </si>
+  <si>
+    <t>I often have a snooze after lunch. 我常在午饭后睡个小觉。</t>
+  </si>
+  <si>
     <t>alone</t>
   </si>
   <si>
@@ -5669,6 +6557,29 @@
       </rPr>
       <t xml:space="preserve"> is a willingness to do whatever it takes to fulfill and follow through on a responsibility. It may not even be what we most enjoy, but none the less, being committed means we are going to do it regardless. </t>
     </r>
+  </si>
+  <si>
+    <t>server;dead body;fully</t>
+  </si>
+  <si>
+    <t>stiff</t>
+  </si>
+  <si>
+    <t>1.firm and difficult to bend or move 不易弯曲（或活动）的；硬的；挺的
+2.when a person is stiff , their muscles hurt when they move them 僵硬的；一动就疼的
+3.more difficult or severe than usual 困难的；艰难的；严厉的；激烈的
+4.strong; containing a lot of alcohol 烈性的；酒精度数高的
+5.the body of a dead person 死尸</t>
+  </si>
+  <si>
+    <t>1.The windows were stiff and she couldn't get them open. 窗户紧，她开不了
+2.I've got a stiff neck . 我脖子发僵。
+3.It was a stiff climb to the top of the hill. 费了好大劲才爬到山顶。
+4.The company faces stiff competition from its rivals. 公司遇到对手的激烈竞争。
+5.The new proposals have met with stiff opposition . 新提案遭到强烈的反对。
+6.There are stiff fines for breaking the rules. 违反规则要受重罚。
+7.a stiff breeze/wind (= one that blows strongly) 强风
+8.a stiff whisky 烈性威士忌</t>
   </si>
   <si>
     <t>tension;burden</t>
@@ -5963,6 +6874,63 @@
     </r>
   </si>
   <si>
+    <t>intervene;change</t>
+  </si>
+  <si>
+    <t>tamper
+[ˈtæmpər]</t>
+  </si>
+  <si>
+    <t>to make changes to sth without permission, especially in order to damage it 篡改，擅自改动，胡乱摆弄（尤指有意破坏）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Someone had obviously </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tampered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with the brakes of my car. 显然有人鼓捣过我汽车的刹车。
+Who are they to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tamper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with the rules of the game?
+他们凭什么擅自修改比赛规则？</t>
+    </r>
+  </si>
+  <si>
     <t>tarmac
  [ˈtɑːmæk]</t>
   </si>
@@ -6466,6 +7434,39 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> practice of taking hostages 扣押人质的卑劣行径</t>
+    </r>
+  </si>
+  <si>
+    <t>waffle</t>
+  </si>
+  <si>
+    <t>n. 华夫饼干；动听而无意义的话；无聊话
+( informal ) language that uses a lot of words but does not say anything important or interesting 胡扯；废话连篇</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+The report is just full of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>waffle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 这份报告只是一大堆废话。</t>
     </r>
   </si>
   <si>
@@ -7842,16 +8843,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7860,10 +8864,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7879,9 +8883,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8282,49 +9283,49 @@
     <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>223</v>
+        <v>256</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>257</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="19" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5"/>
@@ -8332,40 +9333,40 @@
     <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" ht="53" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -8410,27 +9411,27 @@
     </row>
     <row r="2" ht="71" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="22" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -8475,13 +9476,13 @@
     </row>
     <row r="2" ht="100" customHeight="1" spans="2:4">
       <c r="B2" s="8" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -8493,13 +9494,13 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.8333333333333" style="20" customWidth="1"/>
     <col min="2" max="2" width="34.3333333333333" style="45" customWidth="1"/>
@@ -8525,62 +9526,104 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A2" s="41"/>
+    <row r="2" s="1" customFormat="1" ht="36" spans="2:3">
       <c r="B2" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="41" customHeight="1" spans="1:5">
       <c r="A3" s="41"/>
-      <c r="B3" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>256</v>
-      </c>
+      <c r="B3" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="41"/>
       <c r="E3" s="41"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="119" customHeight="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
       <c r="A4" s="41"/>
-      <c r="B4" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>259</v>
+      <c r="B4" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>292</v>
       </c>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A5" s="20"/>
-      <c r="B5" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>261</v>
+    <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
+      <c r="A5" s="41"/>
+      <c r="B5" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>294</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>295</v>
+      </c>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
+      <c r="A6" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A7" s="20"/>
+      <c r="B7" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A8" s="20"/>
+      <c r="B8" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="49" customHeight="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -8592,13 +9635,13 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="33.2152777777778" customWidth="1"/>
     <col min="2" max="2" width="21.1805555555556" customWidth="1"/>
@@ -8625,65 +9668,77 @@
     </row>
     <row r="2" ht="53" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>266</v>
+        <v>310</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>311</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" ht="71" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="19" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>273</v>
+        <v>317</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>318</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="19" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" ht="81" customHeight="1" spans="2:4">
-      <c r="B6" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>281</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" ht="84" customHeight="1" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" ht="81" customHeight="1" spans="2:4">
+      <c r="B7" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -8727,24 +9782,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -8789,32 +9844,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -8828,10 +9883,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -8839,7 +9894,7 @@
     <col min="1" max="1" width="30.5277777777778" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" style="6" customWidth="1"/>
     <col min="3" max="3" width="34.9861111111111" customWidth="1"/>
-    <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="49.2083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -8861,284 +9916,310 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A4" s="23" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="26"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
+    <row r="5" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A5" s="23" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A7" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="124" spans="1:5">
+      <c r="A6" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A8" s="23" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>316</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="D8" s="26"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="106" spans="1:5">
-      <c r="A9" s="23"/>
+    <row r="9" s="1" customFormat="1" ht="124" spans="1:5">
+      <c r="A9" s="23" t="s">
+        <v>365</v>
+      </c>
       <c r="B9" s="42" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>319</v>
+        <v>367</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" ht="71" spans="1:5">
-      <c r="A10" s="23" t="s">
-        <v>320</v>
-      </c>
+    <row r="10" s="1" customFormat="1" ht="106" spans="1:5">
+      <c r="A10" s="23"/>
       <c r="B10" s="42" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" s="26"/>
+        <v>370</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>371</v>
+      </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" ht="53" spans="1:5">
-      <c r="A11" s="23"/>
+    <row r="11" ht="71" spans="1:5">
+      <c r="A11" s="23" t="s">
+        <v>372</v>
+      </c>
       <c r="B11" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>325</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="26"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" ht="124" spans="1:5">
-      <c r="A12" s="23" t="s">
-        <v>326</v>
-      </c>
+    <row r="12" ht="53" spans="1:5">
+      <c r="A12" s="23"/>
       <c r="B12" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>329</v>
+        <v>375</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" ht="141" spans="1:5">
-      <c r="A13" s="23"/>
+    <row r="13" ht="124" spans="1:5">
+      <c r="A13" s="23" t="s">
+        <v>378</v>
+      </c>
       <c r="B13" s="42" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" ht="53" spans="1:5">
+    <row r="14" ht="141" spans="1:5">
       <c r="A14" s="23"/>
       <c r="B14" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>334</v>
+        <v>382</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="71" spans="1:5">
-      <c r="A15" s="23" t="s">
-        <v>336</v>
-      </c>
+    <row r="15" ht="53" spans="1:5">
+      <c r="A15" s="23"/>
       <c r="B15" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>338</v>
+        <v>385</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" ht="106" spans="1:5">
-      <c r="A16" s="23"/>
+    <row r="16" ht="71" spans="1:5">
+      <c r="A16" s="23" t="s">
+        <v>388</v>
+      </c>
       <c r="B16" s="42" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>342</v>
+        <v>390</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" ht="71" spans="1:5">
-      <c r="A17" s="23" t="s">
-        <v>343</v>
-      </c>
+    <row r="17" ht="106" spans="1:5">
+      <c r="A17" s="23"/>
       <c r="B17" s="42" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>346</v>
+        <v>393</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>394</v>
       </c>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" ht="106" spans="1:5">
+    <row r="18" ht="71" spans="1:5">
       <c r="A18" s="23" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" ht="80" customHeight="1" spans="1:5">
-      <c r="A19" s="23"/>
+    <row r="19" ht="106" spans="1:5">
+      <c r="A19" s="23" t="s">
+        <v>399</v>
+      </c>
       <c r="B19" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>352</v>
+        <v>400</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>401</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" ht="179" customHeight="1" spans="1:5">
+    <row r="20" ht="80" customHeight="1" spans="1:5">
       <c r="A20" s="23"/>
       <c r="B20" s="42" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" ht="106" spans="1:5">
+    <row r="21" ht="179" customHeight="1" spans="1:5">
       <c r="A21" s="23"/>
       <c r="B21" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>358</v>
+        <v>406</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="106" spans="1:5">
-      <c r="A22" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>363</v>
+      <c r="A22" s="23"/>
+      <c r="B22" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>411</v>
       </c>
       <c r="E22" s="23"/>
+    </row>
+    <row r="23" ht="71" spans="1:5">
+      <c r="A23" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" ht="159" spans="2:4">
+      <c r="B24" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>418</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:E19">
@@ -9184,13 +10265,13 @@
     </row>
     <row r="2" ht="71" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -9235,88 +10316,88 @@
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="19" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="19" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
       <c r="A6"/>
       <c r="B6" s="19" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" ht="71" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" ht="36" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -9328,10 +10409,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -9367,7 +10448,7 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="46" t="s">
         <v>10</v>
       </c>
       <c r="E2"/>
@@ -9411,58 +10492,108 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="53" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="176" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="15" t="s">
+    </row>
+    <row r="7" ht="36" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" ht="176" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="124" spans="1:4">
+    </row>
+    <row r="8" ht="36" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="15" t="s">
+    </row>
+    <row r="9" ht="53" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" ht="141" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="15" t="s">
+    </row>
+    <row r="10" ht="176" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>35</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="124" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="141" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="124" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -9474,15 +10605,15 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.5694444444444" style="14" customWidth="1"/>
     <col min="2" max="2" width="25" style="14" customWidth="1"/>
     <col min="3" max="3" width="30.3333333333333" style="15" customWidth="1"/>
     <col min="4" max="4" width="32.8333333333333" style="29" customWidth="1"/>
@@ -9508,175 +10639,203 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
       <c r="B2" s="31" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
       <c r="A3" s="31" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" s="28" customFormat="1" ht="152" spans="1:4">
       <c r="A4" s="35" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" s="28" customFormat="1" ht="51" spans="1:4">
       <c r="A5" s="35"/>
       <c r="B5" s="35" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="1" ht="68" spans="1:4">
       <c r="A6" s="35" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" s="28" customFormat="1" ht="106" customHeight="1" spans="1:4">
       <c r="A7" s="35"/>
       <c r="B7" s="35" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" s="28" customFormat="1" ht="84" spans="1:4">
       <c r="A8" s="35" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" s="28" customFormat="1" ht="101" spans="1:4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" s="28" customFormat="1" ht="51" spans="1:4">
       <c r="A9" s="35" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="10" s="28" customFormat="1" ht="132" customHeight="1" spans="1:4">
-      <c r="A10" s="35"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" s="28" customFormat="1" ht="101" spans="1:4">
+      <c r="A10" s="35" t="s">
+        <v>471</v>
+      </c>
       <c r="B10" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="C10" s="36"/>
+        <v>472</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>473</v>
+      </c>
       <c r="D10" s="36" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" ht="159" spans="1:4">
-      <c r="A11" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" ht="18" spans="2:4">
-      <c r="B12" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" ht="88" spans="1:4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" s="28" customFormat="1" ht="132" customHeight="1" spans="1:4">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" s="28" customFormat="1" ht="263" customHeight="1" spans="1:4">
+      <c r="A12" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" ht="159" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>426</v>
+        <v>482</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>483</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" ht="106" spans="2:4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="2:4">
       <c r="B14" s="14" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="15" ht="212" spans="2:4">
+        <v>486</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" ht="88" spans="1:4">
+      <c r="A15" s="14" t="s">
+        <v>487</v>
+      </c>
       <c r="B15" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>432</v>
+        <v>488</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>489</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>433</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" ht="106" spans="2:4">
+      <c r="B16" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" ht="212" spans="2:4">
+      <c r="B17" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -9688,10 +10847,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -9719,102 +10878,117 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A2" s="19"/>
+    <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
+      <c r="A2" s="19" t="s">
+        <v>497</v>
+      </c>
       <c r="B2" s="19" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>436</v>
+        <v>499</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>500</v>
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" ht="88" customHeight="1" spans="1:4">
-      <c r="A3" s="19" t="s">
-        <v>437</v>
-      </c>
+    <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A3" s="19"/>
       <c r="B3" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" ht="171" customHeight="1" spans="1:4">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>442</v>
+        <v>501</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" ht="88" customHeight="1" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" ht="60" customHeight="1" spans="1:4">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" ht="171" customHeight="1" spans="1:4">
       <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" ht="87" customHeight="1" spans="1:4">
-      <c r="A6" s="19" t="s">
-        <v>446</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1" spans="1:4">
+      <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" ht="64" customHeight="1" spans="1:4">
-      <c r="A7" s="19"/>
+        <v>512</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" ht="87" customHeight="1" spans="1:4">
+      <c r="A7" s="19" t="s">
+        <v>513</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" ht="71" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>452</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" ht="64" customHeight="1" spans="1:4">
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" ht="106" spans="2:4">
-      <c r="B9" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>458</v>
+        <v>518</v>
+      </c>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" ht="71" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" ht="106" spans="2:4">
+      <c r="B10" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -9845,7 +11019,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -9859,31 +11033,31 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>460</v>
+        <v>527</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -9929,28 +11103,28 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="22" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>470</v>
+        <v>537</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="141" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -9962,10 +11136,10 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -9996,145 +11170,155 @@
     <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="8" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" ht="18" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" ht="58" customHeight="1" spans="1:4">
-      <c r="A5" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>488</v>
+    <row r="4" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
+      <c r="A4"/>
+      <c r="B4" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" ht="18" spans="1:4">
+      <c r="A5" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="6" ht="58" customHeight="1" spans="1:4">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>555</v>
+      </c>
       <c r="B6" s="14" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" ht="121" customHeight="1" spans="1:4">
+        <v>557</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" ht="58" customHeight="1" spans="1:4">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>493</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" ht="121" customHeight="1" spans="1:4">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>496</v>
+        <v>562</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="9" ht="121" customHeight="1" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" ht="53" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" ht="71" spans="1:4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" ht="121" customHeight="1" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="11" ht="53" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>505</v>
+        <v>570</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="12" ht="53" spans="1:4">
-      <c r="A12" s="20"/>
-      <c r="B12" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" ht="71" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" ht="53" spans="1:4">
       <c r="A13" s="20"/>
+      <c r="B13" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="20"/>
@@ -10177,6 +11361,9 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="20"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10206,7 +11393,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -10220,13 +11407,13 @@
     </row>
     <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -10238,20 +11425,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="58" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="58" customWidth="1"/>
-    <col min="4" max="4" width="40.7708333333333" style="58" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="58" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="58"/>
+    <col min="2" max="2" width="28" style="59" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="59" customWidth="1"/>
+    <col min="4" max="4" width="40.7708333333333" style="59" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="59" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="59"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -10273,116 +11460,132 @@
     </row>
     <row r="2" ht="36" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E2" s="41"/>
     </row>
     <row r="3" ht="88" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E3" s="41"/>
     </row>
     <row r="4" ht="71" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" ht="94" customHeight="1" spans="1:5">
+    <row r="5" ht="71" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>49</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D5" s="41"/>
       <c r="E5" s="41"/>
     </row>
     <row r="6" ht="94" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="41"/>
+        <v>64</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="E6" s="41"/>
     </row>
-    <row r="7" ht="18" spans="1:5">
+    <row r="7" ht="94" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="25"/>
+      <c r="B7" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="48"/>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" ht="53" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>57</v>
-      </c>
+    <row r="8" ht="94" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="41"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="20"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+    <row r="9" ht="18" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="41"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="20"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+    <row r="10" ht="57" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="E10" s="41"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="53" spans="1:5">
       <c r="A11" s="20"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5">
@@ -10468,6 +11671,27 @@
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="20"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="20"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="20"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
     </row>
   </sheetData>
   <sortState ref="A2:E22">
@@ -10481,10 +11705,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -10515,157 +11739,169 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="123" customHeight="1" spans="2:4">
       <c r="B3" s="14" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="15" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" s="57" customFormat="1" spans="1:5">
+    <row r="5" s="58" customFormat="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" s="57" customFormat="1" ht="71" spans="1:5">
+    <row r="6" s="58" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" s="57" customFormat="1" ht="124" spans="1:5">
+    <row r="7" s="58" customFormat="1" ht="124" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" s="57" customFormat="1" ht="71" spans="1:5">
+    <row r="8" s="58" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="23" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" ht="88" spans="2:5">
       <c r="B9" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="159" spans="2:5">
+    <row r="10" ht="103" customHeight="1" spans="2:5">
       <c r="B10" s="14" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" ht="71" spans="2:5">
+    <row r="11" ht="159" spans="2:5">
       <c r="B11" s="14" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" ht="71" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
+    <row r="12" ht="71" spans="2:5">
+      <c r="B12" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" ht="106" spans="2:5">
+    <row r="13" ht="71" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="71" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>91</v>
-      </c>
+    <row r="14" ht="106" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>94</v>
+        <v>113</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" ht="71" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -10688,7 +11924,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8333333333333" style="55" customWidth="1"/>
+    <col min="1" max="1" width="22.8333333333333" style="56" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.8333333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="29" style="39" customWidth="1"/>
@@ -10713,10 +11949,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
@@ -10725,209 +11961,209 @@
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>98</v>
+        <v>121</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>122</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E3" s="26"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="23" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="23" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E9" s="26"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="E10" s="26"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="42" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="E11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E12" s="26"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="E14" s="26"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="23" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E15" s="26"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="42" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E16" s="26"/>
     </row>
     <row r="17" ht="36" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="E17" s="26"/>
     </row>
@@ -10940,16 +12176,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.0277777777778" customWidth="1"/>
+    <col min="2" max="2" width="31.0347222222222" customWidth="1"/>
     <col min="3" max="3" width="28.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
   </cols>
@@ -10971,72 +12207,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
-      <c r="A2"/>
-      <c r="B2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" ht="18" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A2" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="53" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" ht="71" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>158</v>
+        <v>182</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" ht="212" spans="1:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" ht="53" spans="2:3">
-      <c r="B7" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>166</v>
+        <v>185</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" ht="212" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" ht="53" spans="2:3">
+      <c r="B8" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -11048,13 +12299,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
@@ -11082,41 +12333,54 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="159" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="3" t="s">
-        <v>170</v>
+      <c r="B3" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" ht="36" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>173</v>
-      </c>
+    <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>176</v>
+        <v>203</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" ht="36" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -11128,10 +12392,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -11158,148 +12422,159 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A2"/>
-      <c r="B2" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="88" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>183</v>
+    <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
+      <c r="B2" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A3"/>
+      <c r="B3" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>213</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A4" s="3"/>
+    <row r="4" s="1" customFormat="1" ht="88" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>216</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="E4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="159" spans="1:5">
+    <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>188</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D5" s="21"/>
       <c r="E5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
+    <row r="6" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="19" t="s">
-        <v>189</v>
+      <c r="B6" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
+    <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="19" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="21"/>
+        <v>224</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>225</v>
+      </c>
       <c r="E7"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="67" customHeight="1" spans="1:5">
+    <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="19" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>196</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D8" s="21"/>
       <c r="E8"/>
     </row>
-    <row r="9" ht="106" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>198</v>
+    <row r="9" s="1" customFormat="1" ht="67" customHeight="1" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>229</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" ht="124" spans="2:4">
+        <v>230</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" ht="106" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" ht="124" spans="2:4">
-      <c r="B11" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" ht="53" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" ht="124" spans="2:4">
       <c r="B12" s="8" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" ht="53" spans="2:4">
-      <c r="B13" s="22" t="s">
-        <v>209</v>
+      <c r="B13" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>211</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" ht="53" spans="2:4">
+      <c r="B14" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -11346,39 +12621,39 @@
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>213</v>
+        <v>246</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>247</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="E2" s="30"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="30"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>220</v>
+        <v>252</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="5" activeTab="19"/>
+    <workbookView windowHeight="16480" tabRatio="500" firstSheet="7" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="26" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614">
   <si>
     <t xml:space="preserve">login icloud as captainchris1991@icloud.com. From &amp; To dates are picture's data in 'Photos' </t>
   </si>
@@ -244,6 +244,83 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> from the people. 这个皇帝对人民漠不关心。</t>
+    </r>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <r>
+      <t>ambience
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>æmbiəns]</t>
+    </r>
+  </si>
+  <si>
+    <t>the character and atmosphere of a place 环境；气氛；格调</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.the relaxed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ambience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of the city 这座城市轻松的氛围
+2.The overall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ambience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of the room is cosy.
+这个房间的整体氛围是舒适的</t>
     </r>
   </si>
   <si>
@@ -2884,6 +2961,42 @@
     </r>
   </si>
   <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>furphy
+['fə:fi:]</t>
+  </si>
+  <si>
+    <t>( AustralE ) a piece of information or a story, that people talk about but that may not be true 传闻；传言</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In truth, the whole story was a complete </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>furphy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, and many people in the news media were conned.
+事实上，整个故事纯属无稽之谈，新闻媒体里的很多人都被骗</t>
+    </r>
+  </si>
+  <si>
     <t>garnish</t>
   </si>
   <si>
@@ -3549,6 +3662,37 @@
     </r>
   </si>
   <si>
+    <t>impeachment inquiry</t>
+  </si>
+  <si>
+    <t>弹劾调查</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">impeachment inquiry </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>against Donald Trump, the president of the United States, was initiated by House Speaker Nancy Pelosi on September 24, 2019, after a whistleblower alleged that Donald Trump may have abused the power of the presidency.</t>
+    </r>
+  </si>
+  <si>
     <t>impediment</t>
   </si>
   <si>
@@ -4332,6 +4476,40 @@
     </r>
   </si>
   <si>
+    <t>make a pass at</t>
+  </si>
+  <si>
+    <t>占便宜
+吃豆腐
+挑逗</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When I found that a stranger began to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>make a pass at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> me, I gave him a stern look and left.
+当一个生疏男子开始向我调情时，我瞪了他一眼就离开了</t>
+    </r>
+  </si>
+  <si>
     <t>恶意的，蓄意的</t>
   </si>
   <si>
@@ -4565,6 +4743,19 @@
     </r>
   </si>
   <si>
+    <t>morgue</t>
+  </si>
+  <si>
+    <t>a building in which dead bodies are kept before they are buried or cremated  [krəˈmeɪt]  (= burned 火葬) 停尸房；太平间</t>
+  </si>
+  <si>
+    <t>mortician
+ [mɔːˈtɪʃn]</t>
+  </si>
+  <si>
+    <t>（美）殡葬业者；丧事承办人</t>
+  </si>
+  <si>
     <t>nibble</t>
   </si>
   <si>
@@ -4820,7 +5011,83 @@
     </r>
   </si>
   <si>
-    <t>pathogens</t>
+    <r>
+      <t>paranoid
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pærənɔɪd]</t>
+    </r>
+  </si>
+  <si>
+    <t>1.afraid or suspicious of other people and believing that they are trying to harm you, in a way that is not reasonable 多疑的；恐惧的
+2.suffering from a mental illness in which you wrongly believe that other people are trying to harm you or that you are very important 患偏执症的；有妄想狂的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.She's getting really </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>paranoid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> about what other people say about her. 她真的越来越猜疑别人对她有什么议论了
+2.He was diagnosed as a paranoid schizophrenic.
+他被诊断为偏执性精神分裂症患者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pathogens
+['pæθəd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ʒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>əns]</t>
+    </r>
   </si>
   <si>
     <t>A pathogen is any organism that can cause disease in a person, animal, or plant. 病原体</t>
@@ -6396,6 +6663,84 @@
   </si>
   <si>
     <t>When a male animal, especially a horse, sires a young animal, he makes a female pregnant so that she gives birth to it. (尤指种马)生殖; 繁殖</t>
+  </si>
+  <si>
+    <r>
+      <t>skittish
+  [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skɪtɪʃ]</t>
+    </r>
+  </si>
+  <si>
+    <t>1.( of horses 马 ) easily excited or frightened and therefore difficult to control 易惊而难以驾驭的
+2.( of people 人 ) not very serious and with ideas and feelings that keep changing 轻浮的；易变的；反复无常的
+3.( business 商 ) ( especially NAmE ) likely to change suddenly 说变就变的；变幻莫测的
+例：skittish financial markets 变幻莫测的金融市场</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The declining dollar gave heart to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skittish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> investors.
+美元贬值给担惊受怕的投资者带来了信心。 
+This shocked already-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">skittish </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Germans.
+这震惊了已经不安的德国人</t>
+    </r>
   </si>
   <si>
     <t>smother</t>
@@ -7094,6 +7439,80 @@
     </r>
   </si>
   <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">one of several levels in an organization or a system 阶层；等级
+a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">two-tier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>system of management 两级管理制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The group warns that with the emergence of a new UK </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>variant  [ˈveəriənt] of the virus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, which is estimated to be 56% more transmissible than previous variants, the situation has taken a turn for the worse and that the current </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tier system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is not sufficient even in places where the new variant is rare.</t>
+    </r>
+  </si>
+  <si>
     <t>throw off biological clock</t>
   </si>
   <si>
@@ -7435,6 +7854,17 @@
       </rPr>
       <t xml:space="preserve"> practice of taking hostages 扣押人质的卑劣行径</t>
     </r>
+  </si>
+  <si>
+    <t>waddle
+ [ˈwɒdl]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to walk with short steps, swinging from side to side, like a duck （鸭子似地）蹒跚行走，摇摆地行走</t>
+  </si>
+  <si>
+    <t>She walked with a waddle.
+她走起路来步履蹒跚</t>
   </si>
   <si>
     <t>waffle</t>
@@ -7919,7 +8349,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8178,6 +8608,16 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8710,7 +9150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8734,10 +9174,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8774,9 +9217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8842,6 +9282,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8857,6 +9300,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9208,13 +9654,13 @@
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.7083333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="46.1805555555556" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.7083333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="46.1805555555556" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.4722222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9224,18 +9670,18 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="60">
+      <c r="B4" s="62">
         <v>44194</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9248,16 +9694,16 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.2847222222222" customWidth="1"/>
-    <col min="2" max="2" width="21.2916666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.0833333333333" style="6" customWidth="1"/>
     <col min="3" max="3" width="63.75" customWidth="1"/>
     <col min="4" max="4" width="39.6388888888889" customWidth="1"/>
     <col min="5" max="5" width="17.7083333333333" customWidth="1"/>
@@ -9280,93 +9726,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="141" customHeight="1" spans="1:5">
       <c r="A2"/>
-      <c r="B2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>257</v>
+      <c r="B2" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="19" t="s">
-        <v>258</v>
+      <c r="B3" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>260</v>
+        <v>267</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>268</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A4"/>
-      <c r="B4" s="3" t="s">
-        <v>261</v>
+      <c r="B4" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>263</v>
+        <v>270</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="21"/>
+        <v>273</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>274</v>
+      </c>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>268</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>269</v>
-      </c>
+      <c r="A7"/>
       <c r="B7" s="3" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" ht="53" spans="2:4">
+    <row r="8" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>275</v>
+        <v>281</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" ht="53" spans="2:4">
+      <c r="B9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -9410,28 +9869,28 @@
       </c>
     </row>
     <row r="2" ht="71" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>277</v>
+      <c r="A2" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>279</v>
+        <v>289</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
-      <c r="B3" s="22" t="s">
-        <v>280</v>
+      <c r="B3" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>282</v>
+        <v>292</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -9475,14 +9934,14 @@
       </c>
     </row>
     <row r="2" ht="100" customHeight="1" spans="2:4">
-      <c r="B2" s="8" t="s">
-        <v>283</v>
+      <c r="B2" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>285</v>
+        <v>295</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -9502,8 +9961,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.8333333333333" style="20" customWidth="1"/>
-    <col min="2" max="2" width="34.3333333333333" style="45" customWidth="1"/>
+    <col min="1" max="1" width="30.8333333333333" style="21" customWidth="1"/>
+    <col min="2" max="2" width="34.3333333333333" style="46" customWidth="1"/>
     <col min="3" max="3" width="48.0277777777778" style="41" customWidth="1"/>
     <col min="4" max="4" width="35.875" style="41" customWidth="1"/>
     <col min="5" max="16384" width="10.8333333333333" style="41"/>
@@ -9527,103 +9986,103 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="36" spans="2:3">
-      <c r="B2" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>287</v>
+      <c r="B2" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="41" customHeight="1" spans="1:5">
       <c r="A3" s="41"/>
-      <c r="B3" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>289</v>
+      <c r="B3" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>300</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
       <c r="A4" s="41"/>
-      <c r="B4" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>292</v>
+      <c r="B4" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>303</v>
       </c>
       <c r="E4" s="41"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
       <c r="A5" s="41"/>
-      <c r="B5" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>295</v>
+      <c r="B5" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>306</v>
       </c>
       <c r="E5" s="41"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A6" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>299</v>
+      <c r="A6" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>310</v>
       </c>
       <c r="E6" s="41"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" ht="49" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>309</v>
+        <v>318</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -9635,13 +10094,13 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="33.2152777777778" customWidth="1"/>
     <col min="2" max="2" width="21.1805555555556" customWidth="1"/>
@@ -9666,79 +10125,108 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="53" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" ht="71" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>315</v>
+    <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="53" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>326</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" ht="84" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>318</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" ht="71" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>320</v>
+        <v>329</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="19" t="s">
-        <v>321</v>
+      <c r="A5" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>323</v>
+        <v>333</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="6" ht="84" customHeight="1" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="19" t="s">
-        <v>324</v>
+      <c r="B6" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" ht="81" customHeight="1" spans="2:4">
-      <c r="B7" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>329</v>
+        <v>336</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" ht="84" customHeight="1" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" ht="81" customHeight="1" spans="2:4">
+      <c r="B8" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="2:3">
+      <c r="B9" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" ht="36" spans="2:3">
+      <c r="B10" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -9782,24 +10270,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>332</v>
+        <v>349</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>335</v>
+        <v>352</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -9844,32 +10332,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>338</v>
+        <v>355</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>341</v>
+        <v>358</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -9883,10 +10371,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -9914,311 +10402,322 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
-      <c r="B2" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="18" spans="1:5">
-      <c r="A4" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="106" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="53" spans="2:4">
+      <c r="B2" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="141" spans="2:4">
+      <c r="B3" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A5" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>354</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
+    <row r="6" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A6" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>357</v>
+        <v>372</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>374</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A8" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="124" spans="1:5">
+    <row r="7" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A7" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="53" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A9" s="23" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>368</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="D9" s="26"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="106" spans="1:5">
-      <c r="A10" s="23"/>
+    <row r="10" s="1" customFormat="1" ht="124" spans="1:5">
+      <c r="A10" s="23" t="s">
+        <v>386</v>
+      </c>
       <c r="B10" s="42" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>371</v>
+        <v>388</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" ht="71" spans="1:5">
-      <c r="A11" s="23" t="s">
-        <v>372</v>
-      </c>
+    <row r="11" s="1" customFormat="1" ht="106" spans="1:5">
+      <c r="A11" s="23"/>
       <c r="B11" s="42" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="26"/>
+        <v>391</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>392</v>
+      </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" ht="53" spans="1:5">
-      <c r="A12" s="23"/>
+    <row r="12" ht="71" spans="1:5">
+      <c r="A12" s="23" t="s">
+        <v>393</v>
+      </c>
       <c r="B12" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>377</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="26"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" ht="124" spans="1:5">
-      <c r="A13" s="23" t="s">
-        <v>378</v>
-      </c>
+    <row r="13" ht="53" spans="1:5">
+      <c r="A13" s="23"/>
       <c r="B13" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>381</v>
+        <v>396</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>398</v>
       </c>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" ht="141" spans="1:5">
-      <c r="A14" s="23"/>
+    <row r="14" ht="124" spans="1:5">
+      <c r="A14" s="23" t="s">
+        <v>399</v>
+      </c>
       <c r="B14" s="42" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>384</v>
+        <v>401</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="53" spans="1:5">
+    <row r="15" ht="141" spans="1:5">
       <c r="A15" s="23"/>
       <c r="B15" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>387</v>
+        <v>403</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" ht="71" spans="1:5">
-      <c r="A16" s="23" t="s">
-        <v>388</v>
-      </c>
+    <row r="16" ht="53" spans="1:5">
+      <c r="A16" s="23"/>
       <c r="B16" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>391</v>
+        <v>406</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>408</v>
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" ht="106" spans="1:5">
-      <c r="A17" s="23"/>
+    <row r="17" ht="71" spans="1:5">
+      <c r="A17" s="23" t="s">
+        <v>409</v>
+      </c>
       <c r="B17" s="42" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" ht="71" spans="1:5">
-      <c r="A18" s="23" t="s">
-        <v>395</v>
-      </c>
+    <row r="18" ht="106" spans="1:5">
+      <c r="A18" s="23"/>
       <c r="B18" s="42" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>398</v>
+        <v>414</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>415</v>
       </c>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" ht="106" spans="1:5">
+    <row r="19" ht="71" spans="1:5">
       <c r="A19" s="23" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>402</v>
+        <v>418</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>419</v>
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" ht="80" customHeight="1" spans="1:5">
-      <c r="A20" s="23"/>
+    <row r="20" ht="106" spans="1:5">
+      <c r="A20" s="23" t="s">
+        <v>420</v>
+      </c>
       <c r="B20" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>405</v>
+        <v>421</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>423</v>
       </c>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" ht="179" customHeight="1" spans="1:5">
+    <row r="21" ht="80" customHeight="1" spans="1:5">
       <c r="A21" s="23"/>
       <c r="B21" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>408</v>
+        <v>424</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" ht="106" spans="1:5">
+    <row r="22" ht="179" customHeight="1" spans="1:5">
       <c r="A22" s="23"/>
       <c r="B22" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>411</v>
+        <v>427</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>429</v>
       </c>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" ht="71" spans="1:5">
-      <c r="A23" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>415</v>
+    <row r="23" ht="106" spans="1:5">
+      <c r="A23" s="23"/>
+      <c r="B23" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>432</v>
       </c>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" ht="159" spans="2:4">
-      <c r="B24" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>418</v>
+    <row r="24" ht="71" spans="1:5">
+      <c r="A24" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" ht="159" spans="2:4">
+      <c r="B25" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -10264,14 +10763,14 @@
       </c>
     </row>
     <row r="2" ht="71" spans="2:4">
-      <c r="B2" s="19" t="s">
-        <v>419</v>
+      <c r="B2" s="20" t="s">
+        <v>440</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>421</v>
+        <v>441</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -10316,88 +10815,88 @@
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>424</v>
+        <v>444</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>445</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>427</v>
+        <v>447</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>448</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
-      <c r="B4" s="19" t="s">
-        <v>428</v>
+      <c r="B4" s="20" t="s">
+        <v>449</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>430</v>
+        <v>450</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>451</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A5"/>
-      <c r="B5" s="19" t="s">
-        <v>431</v>
+      <c r="B5" s="20" t="s">
+        <v>452</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>433</v>
+        <v>453</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>454</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
       <c r="A6"/>
-      <c r="B6" s="19" t="s">
-        <v>434</v>
+      <c r="B6" s="20" t="s">
+        <v>455</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>436</v>
+        <v>456</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>457</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" ht="71" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>438</v>
+        <v>458</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>459</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>440</v>
+        <v>460</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="8" ht="36" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>442</v>
+        <v>462</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -10409,18 +10908,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="20" customWidth="1"/>
-    <col min="2" max="2" width="27" style="20" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="21" customWidth="1"/>
+    <col min="2" max="2" width="27" style="21" customWidth="1"/>
     <col min="3" max="3" width="35.3333333333333" style="41" customWidth="1"/>
-    <col min="4" max="4" width="47.7777777777778" style="20" customWidth="1"/>
+    <col min="4" max="4" width="47.7777777777778" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -10442,26 +10941,26 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A2"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E3"/>
@@ -10476,124 +10975,138 @@
       <c r="C4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="124" spans="1:4">
       <c r="A5" s="2"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="176" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" ht="53" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" ht="36" spans="1:4">
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="176" spans="1:4">
       <c r="A7" s="2"/>
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>26</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:4">
       <c r="A8" s="2"/>
-      <c r="B8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" ht="53" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14" t="s">
+    </row>
+    <row r="9" ht="36" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="176" spans="1:4">
+    <row r="10" ht="53" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="124" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" ht="176" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" ht="141" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="12" ht="124" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="124" spans="1:4">
+    <row r="13" ht="141" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="124" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -10605,17 +11118,17 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.5694444444444" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.5694444444444" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="16" customWidth="1"/>
     <col min="4" max="4" width="32.8333333333333" style="29" customWidth="1"/>
     <col min="5" max="16384" width="10.8333333333333" style="30"/>
   </cols>
@@ -10639,203 +11152,215 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
       <c r="B2" s="31" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
       <c r="A3" s="31" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" s="28" customFormat="1" ht="152" spans="1:4">
       <c r="A4" s="35" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" s="28" customFormat="1" ht="51" spans="1:4">
       <c r="A5" s="35"/>
       <c r="B5" s="35" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="1" ht="68" spans="1:4">
       <c r="A6" s="35" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" s="28" customFormat="1" ht="106" customHeight="1" spans="1:4">
+    <row r="7" s="28" customFormat="1" ht="185" spans="1:4">
       <c r="A7" s="35"/>
       <c r="B7" s="35" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" s="28" customFormat="1" ht="84" spans="1:4">
-      <c r="A8" s="35" t="s">
-        <v>463</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" s="28" customFormat="1" ht="106" customHeight="1" spans="1:4">
+      <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>465</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="9" s="28" customFormat="1" ht="51" spans="1:4">
+        <v>485</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" s="28" customFormat="1" ht="84" spans="1:4">
       <c r="A9" s="35" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" s="28" customFormat="1" ht="101" spans="1:4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" s="28" customFormat="1" ht="51" spans="1:4">
       <c r="A10" s="35" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" s="28" customFormat="1" ht="132" customHeight="1" spans="1:4">
-      <c r="A11" s="35"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" s="28" customFormat="1" ht="101" spans="1:4">
+      <c r="A11" s="35" t="s">
+        <v>495</v>
+      </c>
       <c r="B11" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="C11" s="36"/>
+        <v>496</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>497</v>
+      </c>
       <c r="D11" s="36" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12" s="28" customFormat="1" ht="263" customHeight="1" spans="1:4">
-      <c r="A12" s="35" t="s">
-        <v>477</v>
-      </c>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" s="28" customFormat="1" ht="132" customHeight="1" spans="1:4">
+      <c r="A12" s="35"/>
       <c r="B12" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>479</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="C12" s="36"/>
       <c r="D12" s="36" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="13" ht="159" spans="1:4">
-      <c r="A13" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" ht="18" spans="2:4">
-      <c r="B14" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" ht="88" spans="1:4">
-      <c r="A15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="16" ht="106" spans="2:4">
-      <c r="B16" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="17" ht="212" spans="2:4">
-      <c r="B17" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>496</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" s="28" customFormat="1" ht="263" customHeight="1" spans="1:4">
+      <c r="A13" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" ht="159" spans="1:4">
+      <c r="A14" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="2:4">
+      <c r="B15" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" ht="88" spans="1:4">
+      <c r="A16" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" ht="106" spans="2:4">
+      <c r="B17" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" ht="212" spans="2:4">
+      <c r="B18" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -10847,10 +11372,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="153" zoomScaleNormal="153" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -10879,116 +11404,128 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
-      <c r="A2" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>498</v>
+      <c r="A2" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>522</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="E2" s="19"/>
+        <v>523</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
-        <v>501</v>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20" t="s">
+        <v>525</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" s="19"/>
+        <v>527</v>
+      </c>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:4">
-      <c r="A4" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>505</v>
+      <c r="A4" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>529</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>507</v>
+        <v>530</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="5" ht="171" customHeight="1" spans="1:4">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>510</v>
+        <v>533</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:4">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" s="21"/>
+        <v>536</v>
+      </c>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" ht="87" customHeight="1" spans="1:4">
-      <c r="A7" s="19" t="s">
-        <v>513</v>
+      <c r="A7" s="20" t="s">
+        <v>537</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" ht="64" customHeight="1" spans="1:4">
-      <c r="A8" s="19"/>
+        <v>539</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" ht="143" customHeight="1" spans="1:4">
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" ht="71" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>519</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" ht="64" customHeight="1" spans="1:4">
+      <c r="A9" s="20"/>
       <c r="B9" s="3" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="10" ht="106" spans="2:4">
-      <c r="B10" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>525</v>
+        <v>545</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" ht="71" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" ht="106" spans="2:4">
+      <c r="B11" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -11019,7 +11556,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -11033,31 +11570,31 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>534</v>
+        <v>559</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>561</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -11102,29 +11639,29 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
-      <c r="B2" s="22" t="s">
-        <v>535</v>
+      <c r="B2" s="8" t="s">
+        <v>562</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>537</v>
+        <v>563</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="141" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>539</v>
+        <v>565</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>566</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>541</v>
+        <v>567</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -11136,10 +11673,10 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -11167,203 +11704,216 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="70" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>544</v>
+        <v>570</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>571</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="8" t="s">
-        <v>545</v>
+      <c r="B3" s="10" t="s">
+        <v>572</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>547</v>
+        <v>573</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>574</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A4"/>
-      <c r="B4" s="8" t="s">
-        <v>548</v>
+      <c r="B4" s="10" t="s">
+        <v>575</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>550</v>
+        <v>576</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" ht="18" spans="1:4">
-      <c r="A5" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" ht="58" customHeight="1" spans="1:4">
-      <c r="A6" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>558</v>
+    <row r="5" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
+      <c r="A5"/>
+      <c r="B5" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" ht="18" spans="1:4">
+      <c r="A6" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" ht="121" customHeight="1" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>563</v>
-      </c>
+      <c r="A7" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" ht="58" customHeight="1" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" ht="121" customHeight="1" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>566</v>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="10" ht="121" customHeight="1" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="11" ht="53" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="12" ht="71" spans="1:4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" ht="121" customHeight="1" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" ht="53" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="13" ht="53" spans="1:4">
-      <c r="A13" s="20"/>
-      <c r="B13" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="20"/>
+        <v>600</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" ht="71" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" ht="53" spans="1:4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11393,7 +11943,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -11407,13 +11957,13 @@
     </row>
     <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -11434,11 +11984,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="59" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="59" customWidth="1"/>
-    <col min="4" max="4" width="40.7708333333333" style="59" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="59" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="59"/>
+    <col min="2" max="2" width="28" style="61" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="61" customWidth="1"/>
+    <col min="4" max="4" width="40.7708333333333" style="61" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="61" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="61"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -11460,93 +12010,93 @@
     </row>
     <row r="2" ht="36" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" s="41"/>
     </row>
     <row r="3" ht="88" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="41"/>
     </row>
     <row r="4" ht="71" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="41"/>
     </row>
     <row r="5" ht="71" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
     </row>
     <row r="6" ht="94" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>69</v>
       </c>
       <c r="E6" s="41"/>
     </row>
     <row r="7" ht="94" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="48"/>
+        <v>70</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="49"/>
       <c r="E7" s="41"/>
     </row>
     <row r="8" ht="94" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
@@ -11554,10 +12104,10 @@
     <row r="9" ht="18" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="41"/>
@@ -11565,129 +12115,129 @@
     <row r="10" ht="57" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="E10" s="41"/>
     </row>
     <row r="11" ht="53" spans="1:5">
-      <c r="A11" s="20"/>
-      <c r="B11" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>78</v>
+      <c r="A11" s="21"/>
+      <c r="B11" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>82</v>
       </c>
       <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -11714,7 +12264,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.8125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7569444444444" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15.7569444444444" style="21" customWidth="1"/>
     <col min="3" max="3" width="24.6666666666667" style="41" customWidth="1"/>
     <col min="4" max="4" width="22.6666666666667" style="41" customWidth="1"/>
     <col min="5" max="16384" width="10.8333333333333" style="41"/>
@@ -11738,170 +12288,170 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
-      <c r="B2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>80</v>
+      <c r="B2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="123" customHeight="1" spans="2:4">
-      <c r="B3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="15" t="s">
-        <v>85</v>
+      <c r="D4" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" s="58" customFormat="1" spans="1:5">
+    <row r="5" s="60" customFormat="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" s="58" customFormat="1" ht="71" spans="1:5">
+    <row r="6" s="60" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" s="58" customFormat="1" ht="124" spans="1:5">
+    <row r="7" s="60" customFormat="1" ht="124" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" s="58" customFormat="1" ht="71" spans="1:5">
+    <row r="8" s="60" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" ht="88" spans="2:5">
-      <c r="B9" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>99</v>
+      <c r="B9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="103" customHeight="1" spans="2:5">
-      <c r="B10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>102</v>
+      <c r="B10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="159" spans="2:5">
-      <c r="B11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>105</v>
+      <c r="B11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="71" spans="2:5">
-      <c r="B12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>108</v>
+      <c r="B12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="71" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="106" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="16"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" ht="71" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -11924,7 +12474,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8333333333333" style="56" customWidth="1"/>
+    <col min="1" max="1" width="22.8333333333333" style="58" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.8333333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="29" style="39" customWidth="1"/>
@@ -11949,10 +12499,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
@@ -11961,209 +12511,209 @@
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E3" s="26"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="16"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="23" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="E9" s="26"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="E10" s="26"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="E11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="E12" s="26"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E14" s="26"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E15" s="26"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="E16" s="26"/>
     </row>
     <row r="17" ht="36" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="E17" s="26"/>
     </row>
@@ -12209,85 +12759,85 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A2" s="32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>180</v>
       </c>
       <c r="E2" s="32"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="19" t="s">
-        <v>177</v>
+      <c r="B3" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="53" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" ht="212" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>195</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" ht="53" spans="2:3">
-      <c r="B8" s="22" t="s">
-        <v>193</v>
+      <c r="B8" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -12299,13 +12849,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="142" zoomScaleNormal="142" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
@@ -12333,54 +12883,68 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>201</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="19" t="s">
-        <v>198</v>
+      <c r="B3" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>207</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" ht="36" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>207</v>
+        <v>210</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" ht="88" spans="1:4">
+      <c r="A6" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -12424,157 +12988,157 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
       <c r="B2" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>210</v>
+        <v>216</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="22" t="s">
-        <v>211</v>
+      <c r="B3" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>221</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>217</v>
+        <v>223</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="21"/>
+        <v>226</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="22"/>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>222</v>
+        <v>228</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="3"/>
-      <c r="B7" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>225</v>
+      <c r="B7" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
-      <c r="B8" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="21"/>
+      <c r="B8" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="22"/>
       <c r="E8"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="67" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
-      <c r="B9" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>230</v>
+      <c r="B9" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" ht="106" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>233</v>
+        <v>240</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" ht="124" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>236</v>
+        <v>243</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="12" ht="124" spans="2:4">
-      <c r="B12" s="8" t="s">
-        <v>237</v>
+      <c r="B12" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>239</v>
+        <v>246</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="13" ht="53" spans="2:4">
-      <c r="B13" s="8" t="s">
-        <v>240</v>
+      <c r="B13" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>242</v>
+        <v>249</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="14" ht="53" spans="2:4">
-      <c r="B14" s="22" t="s">
-        <v>243</v>
+      <c r="B14" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -12621,39 +13185,39 @@
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>247</v>
+        <v>254</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>255</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E2" s="30"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="30"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
-      <c r="A4" s="19" t="s">
-        <v>251</v>
+      <c r="A4" s="20" t="s">
+        <v>259</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>254</v>
+        <v>260</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" tabRatio="500" firstSheet="7" activeTab="19"/>
+    <workbookView windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="26" r:id="rId1"/>
@@ -38,18 +38,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614">
-  <si>
-    <t xml:space="preserve">login icloud as captainchris1991@icloud.com. From &amp; To dates are picture's data in 'Photos' </t>
-  </si>
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615">
+  <si>
+    <t xml:space="preserve">login icloud as captainxxxxxxx
+In comments column, From "DD-MM-YYYY" To "DD-MM-YYYY" dates are picture's data in 'Photos' </t>
+  </si>
+  <si>
+    <t>Log Date</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
     <t>From 29-Feb-2020 To 25-Oct-2019</t>
+  </si>
+  <si>
+    <t>From 25-Oct-2019 To 2-Oct-2019</t>
   </si>
   <si>
     <t>Synonyms</t>
@@ -110,6 +114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The evening was very pleasant, </t>
     </r>
     <r>
@@ -176,6 +186,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>aloof
  [ə</t>
     </r>
@@ -223,6 +239,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The Emperor kept himself </t>
     </r>
     <r>
@@ -251,6 +273,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>ambience
 [</t>
     </r>
@@ -278,6 +306,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.the relaxed </t>
     </r>
     <r>
@@ -325,6 +359,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>anchor
  [</t>
     </r>
@@ -355,6 +395,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.We </t>
     </r>
     <r>
@@ -422,6 +468,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>anecdote
  [</t>
     </r>
@@ -449,6 +501,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Pete was telling them an </t>
     </r>
     <r>
@@ -475,6 +533,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>antibiotics
 [,æntɪbaɪ'</t>
     </r>
@@ -502,6 +566,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Your doctor may prescribe </t>
     </r>
     <r>
@@ -531,6 +601,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>appalling
  [ə</t>
     </r>
@@ -577,6 +653,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.The prisoners were living in </t>
     </r>
     <r>
@@ -626,6 +708,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>apparatus
 [</t>
     </r>
@@ -725,6 +813,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>appraisal
 [ə</t>
     </r>
@@ -753,6 +847,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.He had read many detailed critical </t>
     </r>
     <r>
@@ -842,6 +942,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>assortment
 [ə</t>
     </r>
@@ -887,6 +993,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.a wide </t>
     </r>
     <r>
@@ -943,6 +1055,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The Chinese economy </t>
     </r>
     <r>
@@ -968,6 +1086,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>bimbo
 [</t>
     </r>
@@ -996,6 +1120,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">He's going out with an empty-headed </t>
     </r>
     <r>
@@ -1021,6 +1151,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>binge
  [bɪnd</t>
     </r>
@@ -1048,6 +1184,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">One of the symptoms is </t>
     </r>
     <r>
@@ -1097,6 +1239,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>bludgeon
 [</t>
     </r>
@@ -1164,6 +1312,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>bogus
 [</t>
     </r>
@@ -1191,6 +1345,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.a </t>
     </r>
     <r>
@@ -1267,6 +1427,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">In the past, women served as housewife while men were usually the </t>
     </r>
     <r>
@@ -1299,6 +1465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.It was a bright, </t>
     </r>
     <r>
@@ -1379,6 +1551,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>canape
  [</t>
     </r>
@@ -1528,6 +1706,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>collateral
 [kə</t>
     </r>
@@ -1555,6 +1739,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">She used/put up her house as </t>
     </r>
     <r>
@@ -1580,6 +1770,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>compost
  [</t>
     </r>
@@ -1643,6 +1839,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I sow the seed in pots of soil-based </t>
     </r>
     <r>
@@ -1676,6 +1878,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.A bus </t>
     </r>
     <r>
@@ -1722,6 +1930,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>confidante
  [,k</t>
     </r>
@@ -1749,6 +1963,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">You are her closest friend and </t>
     </r>
     <r>
@@ -2129,6 +2349,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>dingy
 [</t>
     </r>
@@ -2174,6 +2400,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">a </t>
     </r>
     <r>
@@ -2199,6 +2431,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>discretion
 [dɪ</t>
     </r>
@@ -2226,6 +2464,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.I'll leave it up to you to use your </t>
     </r>
     <r>
@@ -2281,6 +2525,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.A </t>
     </r>
     <r>
@@ -2501,6 +2751,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dour
  [dʊər; </t>
     </r>
@@ -2529,6 +2785,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.The city, drab and </t>
     </r>
     <r>
@@ -2625,6 +2887,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I went into an </t>
     </r>
     <r>
@@ -2873,6 +3141,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Iron and </t>
     </r>
     <r>
@@ -2906,6 +3180,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">He </t>
     </r>
     <r>
@@ -2972,6 +3252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">In truth, the whole story was a complete </t>
     </r>
     <r>
@@ -3004,6 +3290,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Lilac is best used as a </t>
     </r>
     <r>
@@ -3036,6 +3328,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t>gastrointestinal</t>
     </r>
     <r>
@@ -3086,6 +3386,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">She </t>
     </r>
     <r>
@@ -3145,6 +3451,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.If not, just </t>
     </r>
     <r>
@@ -3200,6 +3512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">You can go </t>
     </r>
     <r>
@@ -3239,6 +3557,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">a </t>
     </r>
     <r>
@@ -3369,6 +3693,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.He </t>
     </r>
     <r>
@@ -3421,6 +3751,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Do your kids go off to school feeling calm and confident? Or are they upset and </t>
     </r>
     <r>
@@ -3453,6 +3789,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Blinking, Jake slowly sits up on the </t>
     </r>
     <r>
@@ -3528,6 +3870,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">cooking and other skills needed at home, taught as a subject in school </t>
     </r>
     <r>
@@ -3669,6 +4017,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The </t>
     </r>
     <r>
@@ -3761,6 +4115,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.A vast </t>
     </r>
     <r>
@@ -3878,6 +4238,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">It was possible to imagine that a metabolic error could produce an endogenous </t>
     </r>
     <r>
@@ -4012,6 +4378,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Why should either want to </t>
     </r>
     <r>
@@ -4047,6 +4419,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Dice tofu and dice celery to be </t>
     </r>
     <r>
@@ -4080,6 +4458,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Vegetarians believe that eating meat is bad </t>
     </r>
     <r>
@@ -4112,6 +4496,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>laundromat
 [</t>
     </r>
@@ -4157,6 +4547,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>lavender
  [</t>
     </r>
@@ -4185,6 +4581,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">All shades of mauve, lilac, </t>
     </r>
     <r>
@@ -4218,6 +4620,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.once you contact the card protection scheme your </t>
     </r>
     <r>
@@ -4273,6 +4681,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.We're all </t>
     </r>
     <r>
@@ -4319,6 +4733,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>lieutenant
 [lef</t>
     </r>
@@ -4368,6 +4788,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>lilac
  [</t>
     </r>
@@ -4396,6 +4822,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">All shades of mauve, </t>
     </r>
     <r>
@@ -4431,6 +4863,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The food was </t>
     </r>
     <r>
@@ -4485,6 +4923,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">When I found that a stranger began to </t>
     </r>
     <r>
@@ -4570,6 +5014,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A </t>
     </r>
     <r>
@@ -4644,6 +5094,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">It is the mentor's job to help the </t>
     </r>
     <r>
@@ -4676,6 +5132,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t>meticulous</t>
     </r>
     <r>
@@ -4719,6 +5183,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The player can expect a suspension for his latest </t>
     </r>
     <r>
@@ -5012,6 +5482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>paranoid
  [</t>
     </r>
@@ -5040,6 +5516,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.She's getting really </t>
     </r>
     <r>
@@ -5067,6 +5549,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>pathogens
 ['pæθəd</t>
     </r>
@@ -5166,6 +5654,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>perpetuate
  [pə</t>
     </r>
@@ -5193,6 +5687,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 to </t>
     </r>
@@ -5527,6 +6027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>pragmatist
 [</t>
     </r>
@@ -5554,6 +6060,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I'm not an idealist, I'm a </t>
     </r>
     <r>
@@ -5620,6 +6132,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>preponderance
  [prɪ</t>
     </r>
@@ -5665,6 +6183,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Preponderance</t>
     </r>
     <r>
@@ -5682,6 +6208,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>procrastinate
  [prə</t>
     </r>
@@ -5709,6 +6241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Most often we </t>
     </r>
     <r>
@@ -5802,6 +6340,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>prophet
 [</t>
     </r>
@@ -5847,6 +6391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">He holds the belief that he is a latter-day </t>
     </r>
     <r>
@@ -5873,6 +6423,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>prospectus
  [prə</t>
     </r>
@@ -5901,6 +6457,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">They disclosed it all in the </t>
     </r>
     <r>
@@ -5927,6 +6489,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>psychic
  [</t>
     </r>
@@ -6226,6 +6794,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The </t>
     </r>
     <r>
@@ -6412,6 +6986,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t>sago</t>
     </r>
     <r>
@@ -6639,6 +7221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>sire
  [</t>
     </r>
@@ -6666,6 +7254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>skittish
   [</t>
     </r>
@@ -6696,6 +7290,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The declining dollar gave heart to </t>
     </r>
     <r>
@@ -7056,6 +7656,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.The department was </t>
     </r>
     <r>
@@ -7132,6 +7738,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Her arm was beginning to </t>
     </r>
     <r>
@@ -7230,6 +7842,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Someone had obviously </t>
     </r>
     <r>
@@ -7284,6 +7902,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t>tarmac</t>
     </r>
     <r>
@@ -7415,6 +8041,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Ben's getting a little </t>
     </r>
     <r>
@@ -7443,6 +8075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">one of several levels in an organization or a system 阶层；等级
 a </t>
     </r>
@@ -7469,6 +8107,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The group warns that with the emergence of a new UK </t>
     </r>
     <r>
@@ -7478,6 +8122,7 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>variant  [ˈveəriənt] of the virus</t>
@@ -7588,6 +8233,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.Oh who could deny that? That needs to be a </t>
     </r>
     <r>
@@ -7726,6 +8377,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The wood was cut into large sheets of </t>
     </r>
     <r>
@@ -7875,6 +8532,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 The report is just full of </t>
     </r>
@@ -7907,6 +8570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I’m not about to let them </t>
     </r>
     <r>
@@ -7939,6 +8608,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">This issue could drive an even bigger </t>
     </r>
     <r>
@@ -8211,6 +8886,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">He found her remarks deeply </t>
     </r>
     <r>
@@ -8246,6 +8927,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A powerful tornado </t>
     </r>
     <r>
@@ -8343,13 +9030,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8440,21 +9127,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -8464,29 +9136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8500,56 +9150,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8569,9 +9174,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8582,6 +9209,80 @@
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8604,20 +9305,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8711,6 +9405,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8723,67 +9543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8795,31 +9567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8831,67 +9579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8909,7 +9603,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8930,25 +9639,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8970,26 +9681,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8998,159 +9692,159 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9175,12 +9869,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9209,14 +9897,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9282,27 +9964,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9311,9 +9978,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9651,38 +10315,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:E4"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.7083333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="46.1805555555556" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.7083333333333" style="52" customWidth="1"/>
+    <col min="3" max="3" width="46.1805555555556" style="3" customWidth="1"/>
     <col min="5" max="5" width="53.4722222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="5:5">
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="62">
+      <c r="B4" s="52">
         <v>44194</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="52">
+        <v>44195</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -9711,16 +10383,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -9728,104 +10400,104 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="141" customHeight="1" spans="1:5">
       <c r="A2"/>
-      <c r="B2" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>265</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="47" t="s">
         <v>268</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>269</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A4"/>
-      <c r="B4" s="20" t="s">
-        <v>269</v>
+      <c r="B4" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="22" t="s">
         <v>271</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="22" t="s">
         <v>274</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="22"/>
+        <v>277</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A7"/>
       <c r="B7" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="22" t="s">
         <v>279</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="22" t="s">
         <v>283</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" ht="53" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="35" t="s">
         <v>286</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -9853,44 +10525,44 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="71" spans="1:4">
-      <c r="A2" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>290</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>293</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -9918,30 +10590,30 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="100" customHeight="1" spans="2:4">
-      <c r="B2" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>296</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -9961,128 +10633,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.8333333333333" style="21" customWidth="1"/>
-    <col min="2" max="2" width="34.3333333333333" style="46" customWidth="1"/>
-    <col min="3" max="3" width="48.0277777777778" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="41"/>
+    <col min="1" max="1" width="30.8333333333333" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34.3333333333333" style="41" customWidth="1"/>
+    <col min="3" max="3" width="48.0277777777778" style="37" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="37"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="36" spans="2:3">
-      <c r="B2" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="42" t="s">
         <v>298</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A4" s="41"/>
-      <c r="B4" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="D4" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A5" s="41"/>
-      <c r="B5" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="D5" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A6" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="D6" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A7" s="21"/>
-      <c r="B7" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="D8" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" ht="49" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="14" t="s">
         <v>320</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -10110,16 +10782,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10128,105 +10800,105 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D2" s="22" t="s">
         <v>323</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="53" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="39" t="s">
         <v>327</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" ht="71" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="20" t="s">
-        <v>328</v>
+      <c r="B4" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="44" t="s">
         <v>330</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="20" t="s">
         <v>332</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="22" t="s">
         <v>334</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" ht="84" customHeight="1" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="20" t="s">
-        <v>335</v>
+      <c r="B6" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D6" s="22" t="s">
         <v>337</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="7" ht="84" customHeight="1" spans="1:4">
       <c r="A7" s="3"/>
-      <c r="B7" s="20" t="s">
-        <v>338</v>
+      <c r="B7" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D7" s="27" t="s">
         <v>340</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="8" ht="81" customHeight="1" spans="2:4">
       <c r="B8" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="4" t="s">
         <v>343</v>
       </c>
+      <c r="D8" s="9" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="9" ht="36" spans="2:3">
-      <c r="B9" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>345</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="10" ht="36" spans="2:3">
       <c r="B10" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C10" s="45" t="s">
         <v>347</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -10253,16 +10925,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10270,24 +10942,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="22" t="s">
         <v>350</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D3" s="22" t="s">
         <v>353</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -10315,16 +10987,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10332,32 +11004,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="22" t="s">
         <v>356</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D3" s="22" t="s">
         <v>359</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -10387,337 +11059,337 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="53" spans="2:4">
-      <c r="B2" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>364</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="141" spans="2:4">
-      <c r="B3" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>367</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4" s="2"/>
-      <c r="B4" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>369</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="18" spans="1:5">
-      <c r="A5" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="106" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A6" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="D6" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="71" spans="1:5">
-      <c r="A7" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="D7" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C8" s="15" t="s">
         <v>382</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>383</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A9" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="124" spans="1:5">
-      <c r="A10" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="88" spans="1:5">
+      <c r="A10" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="106" spans="1:5">
-      <c r="A11" s="23"/>
-      <c r="B11" s="42" t="s">
+      <c r="D10" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="71" spans="1:5">
+      <c r="A11" s="19"/>
+      <c r="B11" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" ht="71" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="D11" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" ht="36" spans="1:5">
+      <c r="A12" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" ht="53" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="42" t="s">
+      <c r="C12" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" ht="36" spans="1:5">
+      <c r="A13" s="19"/>
+      <c r="B13" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" ht="124" spans="1:5">
-      <c r="A14" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" ht="71" spans="1:5">
+      <c r="A14" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="D14" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" ht="141" spans="1:5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" ht="53" spans="1:5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="42" t="s">
+      <c r="D15" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" ht="36" spans="1:5">
+      <c r="A16" s="19"/>
+      <c r="B16" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="D16" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" ht="71" spans="1:5">
-      <c r="A17" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" ht="106" spans="1:5">
-      <c r="A18" s="23"/>
-      <c r="B18" s="42" t="s">
+      <c r="D17" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" ht="53" spans="1:5">
+      <c r="A18" s="19"/>
+      <c r="B18" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" ht="71" spans="1:5">
-      <c r="A19" s="23" t="s">
+      <c r="D18" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" ht="53" spans="1:5">
+      <c r="A19" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" ht="106" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="D19" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" ht="71" spans="1:5">
+      <c r="A20" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="38" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="D20" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" ht="80" customHeight="1" spans="1:5">
-      <c r="A21" s="23"/>
-      <c r="B21" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="D21" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" ht="179" customHeight="1" spans="1:5">
-      <c r="A22" s="23"/>
-      <c r="B22" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" ht="106" spans="1:5">
-      <c r="A23" s="23"/>
-      <c r="B23" s="42" t="s">
+      <c r="D22" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" ht="71" spans="1:5">
+      <c r="A23" s="19"/>
+      <c r="B23" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" ht="71" spans="1:5">
-      <c r="A24" s="23" t="s">
+      <c r="D23" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" ht="53" spans="1:5">
+      <c r="A24" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="C24" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="D24" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" ht="159" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C25" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>439</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -10747,30 +11419,30 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="71" spans="2:4">
-      <c r="B2" s="20" t="s">
-        <v>440</v>
+      <c r="B2" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="22" t="s">
         <v>442</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -10784,7 +11456,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -10797,16 +11469,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10815,88 +11487,88 @@
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D2" s="22" t="s">
         <v>445</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="35" t="s">
         <v>448</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4"/>
-      <c r="B4" s="20" t="s">
-        <v>449</v>
+      <c r="B4" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="22" t="s">
         <v>451</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>452</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A5"/>
-      <c r="B5" s="20" t="s">
-        <v>452</v>
+      <c r="B5" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D5" s="22" t="s">
         <v>454</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>455</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
       <c r="A6"/>
-      <c r="B6" s="20" t="s">
-        <v>455</v>
+      <c r="B6" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D6" s="22" t="s">
         <v>457</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>458</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" ht="71" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="36" t="s">
         <v>461</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="8" ht="36" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D8" s="22" t="s">
         <v>463</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -10916,24 +11588,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="21" customWidth="1"/>
-    <col min="2" max="2" width="27" style="21" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="41" customWidth="1"/>
-    <col min="4" max="4" width="47.7777777777778" style="21" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="18" customWidth="1"/>
+    <col min="2" max="2" width="27" style="18" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="37" customWidth="1"/>
+    <col min="4" max="4" width="47.7777777777778" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10941,172 +11613,172 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A2"/>
-      <c r="B2" s="20" t="s">
-        <v>8</v>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="47" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>11</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="20" t="s">
-        <v>11</v>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="22" t="s">
         <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="36" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="25" t="s">
         <v>17</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="124" spans="1:4">
       <c r="A5" s="2"/>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="25" t="s">
         <v>20</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="53" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>24</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="176" spans="1:4">
       <c r="A7" s="2"/>
-      <c r="B7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:4">
       <c r="A8" s="2"/>
-      <c r="B8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>30</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:4">
       <c r="A9" s="2"/>
-      <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>33</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" ht="53" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>37</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="176" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>41</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="124" spans="1:4">
       <c r="A12" s="2"/>
-      <c r="B12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>44</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="141" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>48</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="124" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>52</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -11120,247 +11792,247 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.5694444444444" style="15" customWidth="1"/>
-    <col min="2" max="2" width="25" style="15" customWidth="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="16" customWidth="1"/>
-    <col min="4" max="4" width="32.8333333333333" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="30"/>
+    <col min="1" max="1" width="25.5694444444444" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="14" customWidth="1"/>
+    <col min="4" max="4" width="32.8333333333333" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="26"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
-      <c r="B2" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="28" t="s">
         <v>466</v>
       </c>
+      <c r="D2" s="29" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
-      <c r="A3" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" s="28" customFormat="1" ht="152" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="D3" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" s="24" customFormat="1" ht="152" spans="1:4">
+      <c r="A4" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="32" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="5" s="28" customFormat="1" ht="51" spans="1:4">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
+      <c r="D4" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="C5" s="36" t="s">
+    </row>
+    <row r="5" s="24" customFormat="1" ht="51" spans="1:4">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="32" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="6" s="28" customFormat="1" ht="68" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="D5" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="B6" s="35" t="s">
+    </row>
+    <row r="6" s="24" customFormat="1" ht="68" spans="1:4">
+      <c r="A6" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" s="28" customFormat="1" ht="185" spans="1:4">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" s="24" customFormat="1" ht="185" spans="1:4">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="32" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="8" s="28" customFormat="1" ht="106" customHeight="1" spans="1:4">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
+      <c r="D7" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="36" t="s">
+    </row>
+    <row r="8" s="24" customFormat="1" ht="106" customHeight="1" spans="1:4">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="32" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="9" s="28" customFormat="1" ht="84" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="B9" s="35" t="s">
+    </row>
+    <row r="9" s="24" customFormat="1" ht="84" spans="1:4">
+      <c r="A9" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="32" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="10" s="28" customFormat="1" ht="51" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="D9" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="B10" s="35" t="s">
+    </row>
+    <row r="10" s="24" customFormat="1" ht="51" spans="1:4">
+      <c r="A10" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="32" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="11" s="28" customFormat="1" ht="101" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="D10" s="32" t="s">
         <v>495</v>
       </c>
-      <c r="B11" s="35" t="s">
+    </row>
+    <row r="11" s="24" customFormat="1" ht="101" spans="1:4">
+      <c r="A11" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="32" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="12" s="28" customFormat="1" ht="132" customHeight="1" spans="1:4">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35" t="s">
+      <c r="D11" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36" t="s">
+    </row>
+    <row r="12" s="24" customFormat="1" ht="132" customHeight="1" spans="1:4">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" s="28" customFormat="1" ht="263" customHeight="1" spans="1:4">
-      <c r="A13" s="35" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="B13" s="35" t="s">
+    </row>
+    <row r="13" s="24" customFormat="1" ht="263" customHeight="1" spans="1:4">
+      <c r="A13" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="32" t="s">
         <v>504</v>
       </c>
+      <c r="D13" s="32" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="14" ht="159" spans="1:4">
-      <c r="A14" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>508</v>
       </c>
+      <c r="D14" s="14" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="15" ht="18" spans="2:4">
-      <c r="B15" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="C15" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" ht="88" spans="1:4">
-      <c r="A16" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="34" t="s">
         <v>514</v>
       </c>
+      <c r="D16" s="14" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="17" ht="106" spans="2:4">
-      <c r="B17" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>517</v>
       </c>
+      <c r="D17" s="14" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="18" ht="212" spans="2:4">
-      <c r="B18" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>520</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -11388,144 +12060,144 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
-      <c r="A2" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="8" t="s">
         <v>522</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D2" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="D2" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20" t="s">
-        <v>525</v>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="D3" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:4">
-      <c r="A4" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="4" t="s">
         <v>531</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="5" ht="171" customHeight="1" spans="1:4">
-      <c r="A5" s="20"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D5" s="22" t="s">
         <v>534</v>
       </c>
+      <c r="D5" s="9" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:4">
-      <c r="A6" s="20"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D6" s="22"/>
+        <v>537</v>
+      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" ht="87" customHeight="1" spans="1:4">
-      <c r="A7" s="20" t="s">
-        <v>537</v>
+      <c r="A7" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D7" s="22" t="s">
         <v>540</v>
       </c>
+      <c r="D7" s="9" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="8" ht="143" customHeight="1" spans="1:4">
-      <c r="A8" s="20"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C8" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="9" t="s">
         <v>543</v>
       </c>
+      <c r="D8" s="9" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="9" ht="64" customHeight="1" spans="1:4">
-      <c r="A9" s="20"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D9" s="22"/>
+        <v>546</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" ht="71" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D10" s="22" t="s">
         <v>549</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="11" ht="106" spans="2:4">
       <c r="B11" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="C11" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>552</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -11553,16 +12225,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -11570,33 +12242,33 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B2" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="D2" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B3" s="23" t="s">
         <v>559</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="D3" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="E3" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11622,16 +12294,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -11640,28 +12312,28 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="C2" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>564</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="141" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B3" s="20" t="s">
         <v>566</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>567</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D3" s="22" t="s">
         <v>568</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -11689,16 +12361,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -11707,213 +12379,213 @@
     <row r="2" s="1" customFormat="1" ht="70" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C2" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>571</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>574</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>575</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A4"/>
-      <c r="B4" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>577</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>578</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A5"/>
-      <c r="B5" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>580</v>
       </c>
+      <c r="D5" s="9" t="s">
+        <v>581</v>
+      </c>
       <c r="E5"/>
     </row>
     <row r="6" ht="18" spans="1:4">
-      <c r="A6" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>584</v>
       </c>
+      <c r="D6" s="12" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="1:4">
-      <c r="A7" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>588</v>
       </c>
+      <c r="D7" s="14" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="8" ht="58" customHeight="1" spans="1:4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="C8" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" ht="121" customHeight="1" spans="1:4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>593</v>
       </c>
+      <c r="D9" s="15" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="10" ht="121" customHeight="1" spans="1:4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>596</v>
       </c>
+      <c r="D10" s="14" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="11" ht="121" customHeight="1" spans="1:4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>599</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="12" ht="53" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C12" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>603</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="13" ht="71" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B13" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>607</v>
       </c>
+      <c r="D13" s="17" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="14" ht="53" spans="1:4">
-      <c r="A14" s="21"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D14" s="22" t="s">
         <v>610</v>
       </c>
+      <c r="D14" s="9" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="18"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="18"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="18"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="21"/>
+      <c r="A20" s="18"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="21"/>
+      <c r="A21" s="18"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="21"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="21"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="21"/>
+      <c r="A24" s="18"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="18"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="21"/>
+      <c r="A26" s="18"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="18"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11940,16 +12612,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -11957,13 +12629,13 @@
     </row>
     <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -11984,25 +12656,25 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="61" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="61" customWidth="1"/>
-    <col min="4" max="4" width="40.7708333333333" style="61" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="61" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="61"/>
+    <col min="2" max="2" width="28" style="51" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="51" customWidth="1"/>
+    <col min="4" max="4" width="40.7708333333333" style="51" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="51" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="51"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -12010,238 +12682,238 @@
     </row>
     <row r="2" ht="36" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="D2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" ht="88" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="D3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" ht="71" spans="1:5">
       <c r="A4" s="2"/>
-      <c r="B4" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="D4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" ht="71" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" ht="94" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="D6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" ht="94" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" ht="94" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" ht="18" spans="1:5">
       <c r="A9" s="2"/>
-      <c r="B9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" ht="57" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
-      <c r="B10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="D10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" ht="53" spans="1:5">
-      <c r="A11" s="21"/>
-      <c r="B11" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="49" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="D11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="21"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="21"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="21"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="21"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="21"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="21"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="21"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="21"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="21"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="21"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="21"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="21"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
   </sheetData>
   <sortState ref="A2:E22">
@@ -12264,194 +12936,194 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.8125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7569444444444" style="21" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="41" customWidth="1"/>
-    <col min="4" max="4" width="22.6666666666667" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="41"/>
+    <col min="2" max="2" width="15.7569444444444" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.6666666666667" style="37" customWidth="1"/>
+    <col min="4" max="4" width="22.6666666666667" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="37"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
-      <c r="B2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>84</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="123" customHeight="1" spans="2:4">
-      <c r="B3" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="C3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" s="60" customFormat="1" spans="1:5">
+      <c r="C4" s="22"/>
+      <c r="D4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" s="50" customFormat="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" s="60" customFormat="1" ht="71" spans="1:5">
+      <c r="B5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" s="50" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" s="60" customFormat="1" ht="124" spans="1:5">
+      <c r="C6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" s="50" customFormat="1" ht="124" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" s="60" customFormat="1" ht="71" spans="1:5">
+      <c r="D7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" s="50" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
-      <c r="B8" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="D8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="88" spans="2:5">
-      <c r="B9" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>103</v>
       </c>
+      <c r="D9" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="103" customHeight="1" spans="2:5">
-      <c r="B10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>106</v>
       </c>
+      <c r="D10" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="159" spans="2:5">
-      <c r="B11" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>109</v>
       </c>
+      <c r="D11" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="71" spans="2:5">
-      <c r="B12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>112</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="71" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>116</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="106" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="C14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" ht="71" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>122</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -12474,24 +13146,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8333333333333" style="58" customWidth="1"/>
+    <col min="1" max="1" width="22.8333333333333" style="48" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29" style="39" customWidth="1"/>
+    <col min="4" max="4" width="29" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -12499,223 +13171,223 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="D3" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="D5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="D6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="D7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
-      <c r="B8" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="D8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="D9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="D10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="B11" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="D11" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="D12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>162</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="D14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="D15" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A16" s="2"/>
-      <c r="B16" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="D16" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="36" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="D17" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12742,102 +13414,102 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
-      <c r="A2" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="D2" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="20" t="s">
-        <v>181</v>
+      <c r="B3" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="22" t="s">
         <v>183</v>
       </c>
+      <c r="D3" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="E3"/>
     </row>
-    <row r="4" ht="53" spans="1:2">
+    <row r="4" ht="36" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="20" t="s">
         <v>190</v>
       </c>
+      <c r="B6" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="22" t="s">
         <v>192</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" ht="212" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="47" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="8" ht="53" spans="2:3">
+      <c r="D7" s="40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" ht="36" spans="2:3">
       <c r="B8" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="9" t="s">
         <v>198</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -12865,16 +13537,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -12883,68 +13555,68 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="55" t="s">
         <v>201</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>202</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="20" t="s">
-        <v>202</v>
+      <c r="B3" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="22" t="s">
         <v>204</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="22" t="s">
         <v>207</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" ht="36" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="22" t="s">
         <v>211</v>
       </c>
+      <c r="D5" s="9" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="6" ht="88" spans="1:4">
-      <c r="A6" s="10" t="s">
-        <v>212</v>
+      <c r="A6" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>215</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -12971,174 +13643,174 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
-      <c r="B2" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="9" t="s">
         <v>218</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="4" t="s">
         <v>221</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="9" t="s">
         <v>225</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="C5" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="9" t="s">
         <v>230</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="3"/>
-      <c r="B7" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="9" t="s">
         <v>233</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
-      <c r="B8" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="C8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="67" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
-      <c r="B9" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="9" t="s">
         <v>238</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" ht="106" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="22" t="s">
         <v>241</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="11" ht="124" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="22" t="s">
         <v>244</v>
       </c>
+      <c r="D11" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="12" ht="124" spans="2:4">
-      <c r="B12" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="4" t="s">
         <v>247</v>
       </c>
+      <c r="D12" s="9" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="13" ht="53" spans="2:4">
-      <c r="B13" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>250</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" ht="53" spans="2:4">
       <c r="B14" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="4" t="s">
         <v>253</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -13158,66 +13830,66 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.7638888888889" style="30" customWidth="1"/>
-    <col min="3" max="3" width="40.6666666666667" style="30" customWidth="1"/>
-    <col min="4" max="4" width="22.3333333333333" style="30" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="30"/>
+    <col min="1" max="1" width="17.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="15.7638888888889" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.6666666666667" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="26"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="53" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="D2" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
-      <c r="A4" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="44" t="s">
         <v>262</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/wordsFromDailyLife.xlsx
+++ b/vocabulary/wordsFromDailyLife.xlsx
@@ -38,10 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615">
-  <si>
-    <t xml:space="preserve">login icloud as captainxxxxxxx
-In comments column, From "DD-MM-YYYY" To "DD-MM-YYYY" dates are picture's data in 'Photos' </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628">
+  <si>
+    <t xml:space="preserve">login icloud as captainchxxxxxx
+In comments column, From "DD-MM-YYYY" To "DD-MM-YYYY" dates are picture's date data in 'icloud Photos' </t>
   </si>
   <si>
     <t>Log Date</t>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>From 25-Oct-2019 To 2-Oct-2019</t>
+  </si>
+  <si>
+    <t>8 April 2021</t>
+  </si>
+  <si>
+    <t>From 2-Oct-2019 To 20-Sep-2019</t>
   </si>
   <si>
     <t>Synonyms</t>
@@ -2035,6 +2041,13 @@
     </r>
   </si>
   <si>
+    <t>crap weasel
+['wi:zəl]</t>
+  </si>
+  <si>
+    <t>大骗子</t>
+  </si>
+  <si>
     <t>croquette</t>
   </si>
   <si>
@@ -2747,7 +2760,80 @@
     <t>able to be done 可做；可行</t>
   </si>
   <si>
-    <t>It's not doable by Friday. 这事星期五之前做不了</t>
+    <r>
+      <t xml:space="preserve">It's not </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>doable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by Friday. 这事星期五之前做不了</t>
+    </r>
+  </si>
+  <si>
+    <t>dole</t>
+  </si>
+  <si>
+    <t>( usually the dole ) [ sing. ] ( BrE ) ( informal ) money paid by the state to unemployed people 失业救济金</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on the dole 领取救济金
+He's been on the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (= without a job) for a year. 他领失业救济金已一年了。
+例：
+The government is changing the rules for claiming </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 政府正在修改申领失业救济金的规</t>
+    </r>
   </si>
   <si>
     <r>
@@ -6660,12 +6746,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1.She leaned on the ship's </t>
     </r>
     <r>
@@ -6708,6 +6788,35 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> against the injustice of it all. 她大骂此事太不公正</t>
+    </r>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>having a strong unpleasant smell 难闻的；恶臭的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The house was full of the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> smell of urine. 这屋子里到处有一股尿的臊味。</t>
     </r>
   </si>
   <si>
@@ -7176,6 +7285,68 @@
         <charset val="134"/>
       </rPr>
       <t>for the door (= tried to reach the door quickly).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>severance
+ [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sevərəns]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+the act of ending sb's work contract 解雇；辞退</t>
+  </si>
+  <si>
+    <r>
+      <t>severance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> pay 解雇费；离职金
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>severance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> package 解雇补偿金；解雇金条款；遣散费</t>
     </r>
   </si>
   <si>
@@ -9030,13 +9201,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="51">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9101,9 +9272,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Times Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9127,9 +9311,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9144,25 +9350,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9174,15 +9372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9190,7 +9382,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9211,58 +9432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -9271,14 +9440,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -9334,6 +9512,14 @@
       <color theme="1"/>
       <name val="Times Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -9405,7 +9591,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9417,175 +9765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9603,37 +9789,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9649,17 +9805,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9682,8 +9827,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9691,7 +9836,48 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -9699,152 +9885,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9942,16 +10128,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9980,7 +10172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9989,7 +10181,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10315,15 +10507,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.7083333333333" style="52" customWidth="1"/>
+    <col min="2" max="2" width="17.7083333333333" style="54" customWidth="1"/>
     <col min="3" max="3" width="46.1805555555556" style="3" customWidth="1"/>
     <col min="5" max="5" width="53.4722222222222" customWidth="1"/>
   </cols>
@@ -10334,7 +10526,7 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -10342,7 +10534,7 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="52">
+      <c r="B4" s="54">
         <v>44194</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -10350,11 +10542,19 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="52">
+      <c r="B5" s="54">
         <v>44195</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10383,16 +10583,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10401,62 +10601,62 @@
     <row r="2" s="1" customFormat="1" ht="141" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>269</v>
+        <v>275</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="109" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="8" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6"/>
@@ -10464,40 +10664,40 @@
     <row r="7" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A7"/>
       <c r="B7" s="3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" ht="53" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>286</v>
+        <v>292</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>293</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -10525,16 +10725,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10542,27 +10742,27 @@
     </row>
     <row r="2" ht="71" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="8" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -10576,8 +10776,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -10590,16 +10790,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10607,13 +10807,13 @@
     </row>
     <row r="2" ht="100" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -10634,127 +10834,127 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.8333333333333" style="18" customWidth="1"/>
-    <col min="2" max="2" width="34.3333333333333" style="41" customWidth="1"/>
-    <col min="3" max="3" width="48.0277777777778" style="37" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="37"/>
+    <col min="2" max="2" width="34.3333333333333" style="43" customWidth="1"/>
+    <col min="3" max="3" width="48.0277777777778" style="39" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="39" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="39"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="36" spans="2:3">
-      <c r="B2" s="42" t="s">
-        <v>298</v>
+      <c r="B2" s="44" t="s">
+        <v>305</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A3" s="37"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A4" s="37"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="13" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" s="37"/>
+        <v>311</v>
+      </c>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A5" s="37"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="13" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="37"/>
+        <v>314</v>
+      </c>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="37"/>
+        <v>318</v>
+      </c>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="18"/>
       <c r="B7" s="13" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>314</v>
+        <v>320</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>321</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A8" s="18"/>
       <c r="B8" s="13" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" ht="49" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -10782,16 +10982,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10800,105 +11000,105 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="53" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>328</v>
+        <v>333</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="4" ht="71" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>331</v>
+        <v>337</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" ht="84" customHeight="1" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="8" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" ht="84" customHeight="1" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="8" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" ht="81" customHeight="1" spans="2:4">
       <c r="B8" s="8" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" ht="36" spans="2:3">
       <c r="B9" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" ht="36" spans="2:3">
       <c r="B10" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>348</v>
+        <v>354</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -10925,16 +11125,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -10942,24 +11142,24 @@
     </row>
     <row r="2" ht="114" customHeight="1" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" ht="88" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -10987,16 +11187,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -11004,32 +11204,32 @@
     </row>
     <row r="2" ht="36" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" ht="53" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" ht="53" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>
@@ -11059,16 +11259,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -11076,320 +11276,320 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="53" spans="2:4">
       <c r="B2" s="13" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="141" spans="2:4">
       <c r="B3" s="13" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="13" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A5" s="19" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="37"/>
+        <v>379</v>
+      </c>
+      <c r="C5" s="39"/>
       <c r="D5" s="22"/>
       <c r="E5" s="19"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="19" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A7" s="19" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A9" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>385</v>
+        <v>391</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>392</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A10" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>388</v>
+        <v>394</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>395</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A11" s="19"/>
-      <c r="B11" s="38" t="s">
-        <v>391</v>
+      <c r="B11" s="40" t="s">
+        <v>398</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E11" s="19"/>
     </row>
     <row r="12" ht="36" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>395</v>
+        <v>401</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>402</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" ht="36" spans="1:5">
       <c r="A13" s="19"/>
-      <c r="B13" s="38" t="s">
-        <v>397</v>
+      <c r="B13" s="40" t="s">
+        <v>404</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E13" s="19"/>
     </row>
     <row r="14" ht="71" spans="1:5">
       <c r="A14" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>401</v>
+        <v>407</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>408</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E14" s="19"/>
     </row>
     <row r="15" ht="141" spans="1:5">
       <c r="A15" s="19"/>
-      <c r="B15" s="38" t="s">
-        <v>404</v>
+      <c r="B15" s="40" t="s">
+        <v>411</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" ht="36" spans="1:5">
       <c r="A16" s="19"/>
-      <c r="B16" s="38" t="s">
-        <v>407</v>
+      <c r="B16" s="40" t="s">
+        <v>414</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" ht="71" spans="1:5">
       <c r="A17" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>411</v>
+        <v>417</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>418</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" ht="53" spans="1:5">
       <c r="A18" s="19"/>
-      <c r="B18" s="38" t="s">
-        <v>414</v>
+      <c r="B18" s="40" t="s">
+        <v>421</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E18" s="19"/>
     </row>
     <row r="19" ht="53" spans="1:5">
       <c r="A19" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>418</v>
+        <v>424</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>425</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E19" s="19"/>
     </row>
     <row r="20" ht="71" spans="1:5">
       <c r="A20" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>422</v>
+        <v>428</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>429</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E20" s="19"/>
     </row>
     <row r="21" ht="80" customHeight="1" spans="1:5">
       <c r="A21" s="19"/>
-      <c r="B21" s="38" t="s">
-        <v>425</v>
+      <c r="B21" s="40" t="s">
+        <v>432</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E21" s="19"/>
     </row>
     <row r="22" ht="179" customHeight="1" spans="1:5">
       <c r="A22" s="19"/>
-      <c r="B22" s="38" t="s">
-        <v>428</v>
+      <c r="B22" s="40" t="s">
+        <v>435</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E22" s="19"/>
     </row>
     <row r="23" ht="71" spans="1:5">
       <c r="A23" s="19"/>
-      <c r="B23" s="38" t="s">
-        <v>431</v>
+      <c r="B23" s="40" t="s">
+        <v>438</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E23" s="19"/>
     </row>
     <row r="24" ht="53" spans="1:5">
       <c r="A24" s="19" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E24" s="19"/>
     </row>
     <row r="25" ht="159" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -11419,16 +11619,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -11436,13 +11636,13 @@
     </row>
     <row r="2" ht="71" spans="2:4">
       <c r="B2" s="8" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -11454,13 +11654,13 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="28.4236111111111" customWidth="1"/>
     <col min="3" max="3" width="30.9722222222222" customWidth="1"/>
@@ -11469,16 +11669,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -11487,88 +11687,101 @@
     <row r="2" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>446</v>
+        <v>452</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>453</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>448</v>
+        <v>454</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4"/>
-      <c r="B4" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>451</v>
+      <c r="B4" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>458</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="8" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
+    <row r="6" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
       <c r="A6"/>
       <c r="B6" s="8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" ht="71" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>459</v>
-      </c>
+    <row r="7" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
+      <c r="A7"/>
       <c r="B7" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>461</v>
+        <v>466</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" ht="36" spans="2:4">
-      <c r="B8" s="3" t="s">
-        <v>463</v>
+        <v>468</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" ht="71" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>471</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>464</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="2:4">
+      <c r="B9" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -11582,7 +11795,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="B6" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -11590,22 +11803,22 @@
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="18" customWidth="1"/>
     <col min="2" max="2" width="27" style="18" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="37" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="39" customWidth="1"/>
     <col min="4" max="4" width="47.7777777777778" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -11614,171 +11827,171 @@
     <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>13</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="36" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="124" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="53" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="176" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="53" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="176" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="124" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="141" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="124" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -11790,10 +12003,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -11807,16 +12020,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -11824,215 +12037,227 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="2:4">
       <c r="B2" s="27" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="149" customHeight="1" spans="1:5">
       <c r="A3" s="27" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E3" s="24"/>
     </row>
     <row r="4" s="24" customFormat="1" ht="152" spans="1:4">
       <c r="A4" s="31" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" s="24" customFormat="1" ht="51" spans="1:4">
       <c r="A5" s="31"/>
       <c r="B5" s="31" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="6" s="24" customFormat="1" ht="68" spans="1:4">
-      <c r="A6" s="31" t="s">
-        <v>479</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" s="24" customFormat="1" ht="51" spans="1:4">
+      <c r="A6" s="31"/>
       <c r="B6" s="31" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" s="24" customFormat="1" ht="185" spans="1:4">
-      <c r="A7" s="31"/>
+        <v>490</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" s="24" customFormat="1" ht="68" spans="1:4">
+      <c r="A7" s="31" t="s">
+        <v>492</v>
+      </c>
       <c r="B7" s="31" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="8" s="24" customFormat="1" ht="106" customHeight="1" spans="1:4">
+        <v>494</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" s="24" customFormat="1" ht="185" spans="1:4">
       <c r="A8" s="31"/>
       <c r="B8" s="31" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="9" s="24" customFormat="1" ht="84" spans="1:4">
-      <c r="A9" s="31" t="s">
-        <v>488</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" s="24" customFormat="1" ht="106" customHeight="1" spans="1:4">
+      <c r="A9" s="31"/>
       <c r="B9" s="31" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" s="24" customFormat="1" ht="51" spans="1:4">
+        <v>499</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" s="24" customFormat="1" ht="84" spans="1:4">
       <c r="A10" s="31" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11" s="24" customFormat="1" ht="101" spans="1:4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" s="24" customFormat="1" ht="51" spans="1:4">
       <c r="A11" s="31" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" s="24" customFormat="1" ht="132" customHeight="1" spans="1:4">
-      <c r="A12" s="31"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" s="24" customFormat="1" ht="101" spans="1:4">
+      <c r="A12" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="B12" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="C12" s="32"/>
+        <v>510</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>511</v>
+      </c>
       <c r="D12" s="32" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="13" s="24" customFormat="1" ht="263" customHeight="1" spans="1:4">
-      <c r="A13" s="31" t="s">
-        <v>502</v>
-      </c>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" s="24" customFormat="1" ht="132" customHeight="1" spans="1:4">
+      <c r="A13" s="31"/>
       <c r="B13" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>504</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="14" ht="159" spans="1:4">
-      <c r="A14" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="15" ht="18" spans="2:4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" s="24" customFormat="1" ht="263" customHeight="1" spans="1:4">
+      <c r="A14" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" ht="159" spans="1:4">
+      <c r="A15" s="13" t="s">
+        <v>519</v>
+      </c>
       <c r="B15" s="13" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" ht="88" spans="1:4">
-      <c r="A16" s="13" t="s">
-        <v>512</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="2:4">
       <c r="B16" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>514</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="17" ht="106" spans="2:4">
+        <v>523</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" ht="88" spans="1:4">
+      <c r="A17" s="13" t="s">
+        <v>525</v>
+      </c>
       <c r="B17" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>517</v>
+        <v>526</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>527</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="18" ht="212" spans="2:4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" ht="106" spans="2:4">
       <c r="B18" s="13" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>521</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" ht="212" spans="2:4">
+      <c r="B19" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -12060,16 +12285,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -12077,127 +12302,127 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" ht="171" customHeight="1" spans="1:4">
       <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:4">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" ht="87" customHeight="1" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" ht="143" customHeight="1" spans="1:4">
       <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" ht="64" customHeight="1" spans="1:4">
       <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" ht="71" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" ht="106" spans="2:4">
       <c r="B11" s="8" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -12225,16 +12450,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -12242,31 +12467,31 @@
     </row>
     <row r="2" ht="88" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="E2" s="22"/>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E3" s="22"/>
     </row>
@@ -12294,16 +12519,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -12312,28 +12537,28 @@
     <row r="2" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" ht="141" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -12361,16 +12586,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -12379,167 +12604,167 @@
     <row r="2" s="1" customFormat="1" ht="70" customHeight="1" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="94" customHeight="1" spans="1:5">
       <c r="A5"/>
       <c r="B5" s="3" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" ht="18" spans="1:4">
       <c r="A6" s="10" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="1:4">
       <c r="A7" s="13" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" ht="58" customHeight="1" spans="1:4">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="D8" s="14"/>
     </row>
     <row r="9" ht="121" customHeight="1" spans="1:4">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" ht="121" customHeight="1" spans="1:4">
       <c r="A10" s="13"/>
       <c r="B10" s="13" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" ht="121" customHeight="1" spans="1:4">
       <c r="A11" s="13"/>
       <c r="B11" s="13" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" ht="53" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" ht="71" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" ht="53" spans="1:4">
       <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -12612,16 +12837,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -12629,13 +12854,13 @@
     </row>
     <row r="2" ht="88" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -12656,25 +12881,25 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="51" customWidth="1"/>
-    <col min="3" max="3" width="49.6666666666667" style="51" customWidth="1"/>
-    <col min="4" max="4" width="40.7708333333333" style="51" customWidth="1"/>
-    <col min="5" max="5" width="29.1666666666667" style="51" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="51"/>
+    <col min="2" max="2" width="28" style="53" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" style="53" customWidth="1"/>
+    <col min="4" max="4" width="40.7708333333333" style="53" customWidth="1"/>
+    <col min="5" max="5" width="29.1666666666667" style="53" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="53"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -12682,238 +12907,238 @@
     </row>
     <row r="2" ht="36" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="37"/>
+        <v>59</v>
+      </c>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" ht="88" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>59</v>
+      <c r="B3" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="37"/>
+        <v>62</v>
+      </c>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" ht="71" spans="1:5">
       <c r="A4" s="2"/>
-      <c r="B4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>62</v>
+      <c r="B4" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="37"/>
+        <v>65</v>
+      </c>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" ht="71" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v>68</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" ht="94" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" ht="94" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="38" t="s">
-        <v>71</v>
+      <c r="B7" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="37"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" ht="94" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+        <v>77</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" ht="18" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="21"/>
-      <c r="E9" s="37"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" ht="57" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="37"/>
+        <v>82</v>
+      </c>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" ht="53" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="37"/>
+        <v>85</v>
+      </c>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="18"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="18"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="18"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="18"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="18"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="18"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="18"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="18"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="18"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="18"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="18"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="18"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
   </sheetData>
   <sortState ref="A2:E22">
@@ -12927,33 +13152,33 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.8125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7569444444444" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="37" customWidth="1"/>
-    <col min="4" max="4" width="22.6666666666667" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="37"/>
+    <col min="3" max="3" width="24.6666666666667" style="39" customWidth="1"/>
+    <col min="4" max="4" width="22.6666666666667" style="39" customWidth="1"/>
+    <col min="5" max="16384" width="10.8333333333333" style="39"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -12961,169 +13186,179 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="83" customHeight="1" spans="2:4">
       <c r="B2" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="123" customHeight="1" spans="2:4">
       <c r="B3" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="14"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" s="50" customFormat="1" spans="1:5">
+    <row r="5" s="52" customFormat="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" s="50" customFormat="1" ht="71" spans="1:5">
+    <row r="6" s="52" customFormat="1" ht="71" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="37"/>
+        <v>97</v>
+      </c>
+      <c r="D6" s="39"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" s="50" customFormat="1" ht="124" spans="1:5">
+    <row r="7" s="52" customFormat="1" ht="124" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" s="50" customFormat="1" ht="71" spans="1:5">
+    <row r="8" s="52" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" ht="88" spans="2:5">
       <c r="B9" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="103" customHeight="1" spans="2:5">
       <c r="B10" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="159" spans="2:5">
       <c r="B11" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="71" spans="2:5">
       <c r="B12" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="71" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="106" spans="2:5">
-      <c r="B14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="14"/>
+    <row r="14" ht="36" spans="2:5">
+      <c r="B14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" ht="71" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>120</v>
-      </c>
+    <row r="15" ht="106" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>123</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" ht="71" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -13138,32 +13373,32 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8333333333333" style="48" customWidth="1"/>
+    <col min="1" max="1" width="22.8333333333333" style="50" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29" style="35" customWidth="1"/>
+    <col min="4" max="4" width="29" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -13171,10 +13406,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
@@ -13183,211 +13418,224 @@
     <row r="3" s="1" customFormat="1" ht="106" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E3" s="22"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E5" s="22"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="194" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="124" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="B11" s="38" t="s">
-        <v>153</v>
+      <c r="B11" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="212" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E12" s="22"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="159" spans="1:5">
+    <row r="16" s="1" customFormat="1" ht="141" spans="1:5">
       <c r="A16" s="2"/>
-      <c r="B16" s="38" t="s">
-        <v>171</v>
+      <c r="B16" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" ht="36" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>177</v>
+    <row r="17" s="1" customFormat="1" ht="159" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="E17" s="22"/>
+    </row>
+    <row r="18" ht="36" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13414,16 +13662,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -13431,85 +13679,85 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="53" spans="1:5">
       <c r="A2" s="28" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>181</v>
+        <v>187</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>188</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" ht="36" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" ht="71" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" ht="212" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>197</v>
+        <v>202</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="8" ht="36" spans="2:3">
       <c r="B8" s="8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -13537,16 +13785,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -13555,68 +13803,68 @@
     <row r="2" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A2"/>
       <c r="B2" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>202</v>
+        <v>208</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>209</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="71" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A4"/>
       <c r="B4" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" ht="36" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" ht="88" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -13643,16 +13891,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -13660,50 +13908,50 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="71" spans="2:4">
       <c r="B2" s="28" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>219</v>
+        <v>225</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A3"/>
       <c r="B3" s="8" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="88" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5"/>
@@ -13711,36 +13959,36 @@
     <row r="6" s="1" customFormat="1" ht="159" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8"/>
@@ -13748,69 +13996,69 @@
     <row r="9" s="1" customFormat="1" ht="67" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" ht="106" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" ht="124" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" ht="124" spans="2:4">
       <c r="B12" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" ht="53" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" ht="53" spans="2:4">
       <c r="B14" s="8" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -13839,16 +14087,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -13857,39 +14105,39 @@
     <row r="2" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A2" s="26"/>
       <c r="B2" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>256</v>
+        <v>262</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>263</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="88" customHeight="1" spans="1:5">
       <c r="A3" s="26"/>
       <c r="B3" s="27" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="26"/>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>263</v>
+        <v>268</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
